--- a/java_all.xlsx
+++ b/java_all.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="1720" windowWidth="21300" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$401</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="431">
   <si>
     <t>Sorting</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Shell Sort</t>
   </si>
   <si>
-    <t>Quick Sort</t>
-  </si>
-  <si>
     <t>Insertion Sort</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
     <t>Reverse String Using Recursion</t>
   </si>
   <si>
-    <t>All Permutations of a String</t>
-  </si>
-  <si>
     <t>Factorial of a Number Non Recursive</t>
   </si>
   <si>
@@ -377,9 +371,6 @@
     <t>Palindrome String without using inbuilt function</t>
   </si>
   <si>
-    <t>Least Repeating Character in a String</t>
-  </si>
-  <si>
     <t>AsciiAndCharacter</t>
   </si>
   <si>
@@ -398,27 +389,15 @@
     <t>Producer Consumer using Semaphore / Inter Thread Communication / Bounded Buffer Problem</t>
   </si>
   <si>
-    <t>Find Duplicate Elements in an Array Using Nested Loop</t>
-  </si>
-  <si>
     <t>Find Duplicate Elements in an Array Using HashSet</t>
   </si>
   <si>
     <t>Array</t>
   </si>
   <si>
-    <t>Find Common Elements between two array using inbuilt function</t>
-  </si>
-  <si>
     <t>Find word frequency in an Array</t>
   </si>
   <si>
-    <t>Remove duplicate elements from Array using Set / Find unique elements from Array</t>
-  </si>
-  <si>
-    <t>Remove duplicate elements from Array using Stream API / Find unique elements from Array</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=A5LuzwP_IaI&amp;list=PLzS3AYzXBoj8Cy_A42lk0SX0m6gXHv2Qh&amp;index=10</t>
   </si>
   <si>
@@ -428,9 +407,6 @@
     <t>Find Smallest Element in an Array</t>
   </si>
   <si>
-    <t>Find Second Largest Element in an Array</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=rSaAeLnox9I&amp;list=PLzS3AYzXBoj8Cy_A42lk0SX0m6gXHv2Qh&amp;index=5</t>
   </si>
   <si>
@@ -569,9 +545,6 @@
     <t>Design Pattern</t>
   </si>
   <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
     <t>Singleton Pattern Using Eager Initialization</t>
   </si>
   <si>
@@ -587,18 +560,9 @@
     <t>Singleton Pattern Using Lazy Initialization</t>
   </si>
   <si>
-    <t>Subarray with a given sum</t>
-  </si>
-  <si>
     <t>Maximum Index</t>
   </si>
   <si>
-    <t>Finding the missing numbers</t>
-  </si>
-  <si>
-    <t>Longest Valid Parenthesis</t>
-  </si>
-  <si>
     <t>Check if String is Valid or Not (Bracket Balance Problem)</t>
   </si>
   <si>
@@ -611,9 +575,6 @@
     <t>Count BST nodes that lie in a given range</t>
   </si>
   <si>
-    <t>Implement LRU Cache</t>
-  </si>
-  <si>
     <t>Interleaved Strings</t>
   </si>
   <si>
@@ -765,6 +726,605 @@
   </si>
   <si>
     <t>Find Kth smallest element in an Array</t>
+  </si>
+  <si>
+    <t>Coin Change Problem 2 (Minimum No. of coins required to get to the total)</t>
+  </si>
+  <si>
+    <t>Coin Change Problem 1 (No. of ways to get to the total) Using Recursion</t>
+  </si>
+  <si>
+    <t>Coin Change Problem 1 (No. of ways to get to the total Using Dynamic Programming DP)</t>
+  </si>
+  <si>
+    <t>Find all indexes of the pattern in a given string</t>
+  </si>
+  <si>
+    <t>Find all the subsequences of a given string where characters are non repeating</t>
+  </si>
+  <si>
+    <t>Find all the subsequences  of a given string where characters are repeating</t>
+  </si>
+  <si>
+    <t>Find all substrings of a given string</t>
+  </si>
+  <si>
+    <t>Create your own LinkedList / LinkedList implementation using Array</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Create your own Stack / Stack implementation using Array</t>
+  </si>
+  <si>
+    <t>Create your own Stack / Stack implementation using LinkedList</t>
+  </si>
+  <si>
+    <t>Create your own Queue / Queue implementation using Array</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Create your own Binary Search Tree / BST implementation for InOrder, PreOrder, PostOrder</t>
+  </si>
+  <si>
+    <t>Check if a value exists in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Get parent node of a given value in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Get sibling node of a given value in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Merge or Combine two sorted arrays in java</t>
+  </si>
+  <si>
+    <t>Merge or Combine two unsorted arrays in java</t>
+  </si>
+  <si>
+    <t>Merge or Combine two unsorted arrays into a sorted array in java</t>
+  </si>
+  <si>
+    <t>Remove duplicate elements from Unsorted Array using Stream API / Find unique elements from Array</t>
+  </si>
+  <si>
+    <t>Remove duplicate elements from Sorted Array using Loop / Find unique elements from Sorted Array</t>
+  </si>
+  <si>
+    <t>Remove duplicate elements from Sorted Array using 1 array / Find unique elements from Sorted Array</t>
+  </si>
+  <si>
+    <t>Remove duplicate elements from Sorted/Unsorted Array using LinkedHashSet / Find unique elements from Unsorted Array</t>
+  </si>
+  <si>
+    <t>Different ways to traverse an List</t>
+  </si>
+  <si>
+    <t>Different ways to traverse an Set</t>
+  </si>
+  <si>
+    <t>Different ways to traverse an Map</t>
+  </si>
+  <si>
+    <t>Different ways to traverse an Stack</t>
+  </si>
+  <si>
+    <t>Different ways to traverse an Queue</t>
+  </si>
+  <si>
+    <t>Map of key and value as List of objects</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/java-iterate-list</t>
+  </si>
+  <si>
+    <t>https://javarevisited.blogspot.com/2016/01/3-ways-to-loop-over-set-or-hashset-in-java.html</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/iterate-through-stack-java/</t>
+  </si>
+  <si>
+    <t>https://devqa.io/4-different-ways-iterate-map-java/</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/iterate-through-queue-java/</t>
+  </si>
+  <si>
+    <t>Longest Valid Parenthesis (Print the String)</t>
+  </si>
+  <si>
+    <t>Longest Valid Parenthesis (Print the Length of the String)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-the-missing-number/</t>
+  </si>
+  <si>
+    <t>Given an array arr[], find the maximum j – i such that arr[j] &gt; arr[i]</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/given-an-array-arr-find-the-maximum-j-i-such-that-arrj-arri/</t>
+  </si>
+  <si>
+    <t>Find next digit in sequence eg : 124 next digit is 214</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dw4uDVGryOU</t>
+  </si>
+  <si>
+    <t>Implement LRU Cache (Using LinkedHashMap) or Least Recently Used Cache</t>
+  </si>
+  <si>
+    <t>https://thecodingsimplified.com/lru-cache-implementation/</t>
+  </si>
+  <si>
+    <t>Maximum Sum SubArray / (Kadane's Algorithm) / Largest Sum Contiguous SubArray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U4iVyHQQIqA&amp;list=PLlhM4lkb2sEi4UoqSmobDeA5VNI1f2w3C&amp;index=28</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W8VVSps4hIQ</t>
+  </si>
+  <si>
+    <t>O(n) (using map)</t>
+  </si>
+  <si>
+    <t>Find triplets with desired target sum</t>
+  </si>
+  <si>
+    <t>O(n^3)</t>
+  </si>
+  <si>
+    <t>Least Repeating Characters in a String Using Map</t>
+  </si>
+  <si>
+    <t>Least Repeating Characters in a String Without Using Map</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pMe5cEc105w&amp;list=PLlhM4lkb2sEi4UoqSmobDeA5VNI1f2w3C&amp;index=30</t>
+  </si>
+  <si>
+    <t>Insert an Element into Array At specific position</t>
+  </si>
+  <si>
+    <t>Insert an Element into Array At specific index</t>
+  </si>
+  <si>
+    <t>Delete an Element From Array By Value</t>
+  </si>
+  <si>
+    <t>Find longest subsequences of a given array where characters are repeating</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HgGDf0Ddu8E&amp;list=PLlhM4lkb2sEi4UoqSmobDeA5VNI1f2w3C&amp;index=27</t>
+  </si>
+  <si>
+    <t>Find longest subsequences length in Integer array / Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Find Common Elements in Three Sorted Array</t>
+  </si>
+  <si>
+    <t>Find Duplicate Elements in an Array Using Nested Loop / Brute Force</t>
+  </si>
+  <si>
+    <t>Find Duplicate Elements in an Array Using HashMap</t>
+  </si>
+  <si>
+    <t>Find Duplicate Elements in an Array (All methods)</t>
+  </si>
+  <si>
+    <t>Find Common Elements between two array using Nested For Loop and Set</t>
+  </si>
+  <si>
+    <t>Not Working if 3 times element repeating in array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Common Elements between two distinct elements array using inbuilt function / Using Nested For Loop </t>
+  </si>
+  <si>
+    <t>Find number of odd and number of even numbers in Array</t>
+  </si>
+  <si>
+    <t>Find sum of odd numbers and sum of even numbers in Array</t>
+  </si>
+  <si>
+    <t>Finding the missing numbers / Find the missing element 1 Using sum 2 Using XOR</t>
+  </si>
+  <si>
+    <t>Find first duplicate element in Array</t>
+  </si>
+  <si>
+    <t>Find Kth largest element in an Array</t>
+  </si>
+  <si>
+    <t>Find Kth largest and smallest element in an Array</t>
+  </si>
+  <si>
+    <t>Find Kth largest and smallest element in an Array Using Sorting</t>
+  </si>
+  <si>
+    <t>String Sorting</t>
+  </si>
+  <si>
+    <t>Quick Sort or Partition Exchange Sort</t>
+  </si>
+  <si>
+    <t>Selection Sort Using Strings</t>
+  </si>
+  <si>
+    <t>Different ways to traverse an Array 1D 2D 3D</t>
+  </si>
+  <si>
+    <t>Different ways to create Array in Java</t>
+  </si>
+  <si>
+    <t>Delete an Element From Array By Position/Index</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=osOXdY1fkI8&amp;list=PLUg9hRlm7gxR7e9OgtrsqgN7XEyNTZRPK&amp;index=9</t>
+  </si>
+  <si>
+    <t>Find Pairs with Given Sum in a Sorted Array (Complexity O(n)) / Two Sum Problem</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MAjWstEJ8rM&amp;list=PLUg9hRlm7gxR7e9OgtrsqgN7XEyNTZRPK&amp;index=11</t>
+  </si>
+  <si>
+    <t>Sort an Array of zeroes, ones and twos / Sort an Array of 0s 1s and 2s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=58JOZIKWWU8&amp;list=PLUg9hRlm7gxR7e9OgtrsqgN7XEyNTZRPK&amp;index=17</t>
+  </si>
+  <si>
+    <t>Find maximum difference between two array elements such that larger number occurs after the smaller number</t>
+  </si>
+  <si>
+    <t>Find minimum and maximum element in Unsorted Array</t>
+  </si>
+  <si>
+    <t>Find minimum and maximum element in Sorted Array</t>
+  </si>
+  <si>
+    <t>Find maximum and minimum element in a Sorted and Rotated Array</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IrraEhe9xIQ&amp;list=PLUg9hRlm7gxR7e9OgtrsqgN7XEyNTZRPK&amp;index=18</t>
+  </si>
+  <si>
+    <t>Find minimum and maximum element from Stack in O(1)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/design-a-stack-that-supports-getmin-in-o1-time-and-o1-extra-space/
+https://www.geeksforgeeks.org/find-maximum-in-a-stack-in-o1-time-and-o1-extra-space/?ref=rp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create your own Doubly LinkedList / Doubly LinkedList implementation using </t>
+  </si>
+  <si>
+    <t>Buy and Sell Stock to get Maximum Profit</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mN0cOXsPTj4&amp;list=PLUg9hRlm7gxR7e9OgtrsqgN7XEyNTZRPK&amp;index=19</t>
+  </si>
+  <si>
+    <t>Find element which occurs only once in an array where every element occurs twice in Unsorted Array</t>
+  </si>
+  <si>
+    <t>Find element which occurs only once in an array where every element occurs twice in Sorted Array</t>
+  </si>
+  <si>
+    <t>Find Maximum Sum of a Subarray of Size K (Algorithm &amp; it's Java Code)  / Kadane's Algorithm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=li9rcswj0WM&amp;list=PLUg9hRlm7gxR7e9OgtrsqgN7XEyNTZRPK&amp;index=23</t>
+  </si>
+  <si>
+    <t>Find Top K Most Frequent Elements (All methods)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=flZ0hwcJetc&amp;list=PLUg9hRlm7gxR7e9OgtrsqgN7XEyNTZRPK&amp;index=24</t>
+  </si>
+  <si>
+    <t>Find Peak Element in an Array (Peak Element is the element which is greater than its neighbour)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2Y_0_IyZtHM&amp;list=PLUg9hRlm7gxR7e9OgtrsqgN7XEyNTZRPK&amp;index=25</t>
+  </si>
+  <si>
+    <t>Find majority element in an Array (Majority element appears atleast n/2 times)</t>
+  </si>
+  <si>
+    <t>Find Second Largest Element in an Unsorted Array</t>
+  </si>
+  <si>
+    <t>Find Second Smallest Element in an Unsorted Array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-whether-a-given-string-is-an-interleaving-of-two-other-given-strings/</t>
+  </si>
+  <si>
+    <t>https://algorithms.tutorialhorizon.com/dynamic-programming-egg-dropping-problem/</t>
+  </si>
+  <si>
+    <t>Print all numbers from 1 to 100 (Multiples of 5 print 'Foo', Multiples of 7 print 'Bar' ,Multiples of both 5 and 7 print 'FooBar')</t>
+  </si>
+  <si>
+    <t>Remove all adjacent duplicate elements from String Using Recursion</t>
+  </si>
+  <si>
+    <t>Remove all adjacent duplicate elements from String Without Using Recursion</t>
+  </si>
+  <si>
+    <t>Subarray with a given sum (Kadane's Algorithm)</t>
+  </si>
+  <si>
+    <t>Reverse LinkedList Using Iterative Approach</t>
+  </si>
+  <si>
+    <t>Find all Permutations of a String Using Recursion</t>
+  </si>
+  <si>
+    <t>Reverse LinkedList Using Recursion Approach / Recursive Approach</t>
+  </si>
+  <si>
+    <t>Print Elements of LinkedList</t>
+  </si>
+  <si>
+    <t>Creation of LinkedList</t>
+  </si>
+  <si>
+    <t>Insert an Element into LinkedList at start / beginning / front</t>
+  </si>
+  <si>
+    <t>Insert an Element into LinkedList at given position</t>
+  </si>
+  <si>
+    <t>Insert an Element into LinkedList at end</t>
+  </si>
+  <si>
+    <t>Delete an Element from LinkedList at start / beginning / front</t>
+  </si>
+  <si>
+    <t>Delete an Element from LinkedList at given position</t>
+  </si>
+  <si>
+    <t>Delete an Element from LinkedList at end</t>
+  </si>
+  <si>
+    <t>Find Size of LinkedList / Find Length of LinkedList / Get Size of LinkedList</t>
+  </si>
+  <si>
+    <t>Search node in LinkedList</t>
+  </si>
+  <si>
+    <t>Rotate LinkedList in Clockwise direction by k nodes</t>
+  </si>
+  <si>
+    <t>Rotate LinkedList in Anti-Clockwise direction by k nodes</t>
+  </si>
+  <si>
+    <t>Find middle element / node of a LinkedList</t>
+  </si>
+  <si>
+    <t>Sort LinkedList</t>
+  </si>
+  <si>
+    <t>Merge two unsorted LinkedList</t>
+  </si>
+  <si>
+    <t>Merge two sorted LinkedList</t>
+  </si>
+  <si>
+    <t>Get union set of two LinkedList</t>
+  </si>
+  <si>
+    <t>Get intersection set of two LinkedList</t>
+  </si>
+  <si>
+    <t>Find common Elements of Two LinkedList</t>
+  </si>
+  <si>
+    <t>Find lowest common Elements of Two LinkedList</t>
+  </si>
+  <si>
+    <t>Remove duplicate elements from Sorted LinkedList</t>
+  </si>
+  <si>
+    <t>Remove duplicate elements from Unsorted LinkedList</t>
+  </si>
+  <si>
+    <t>Delete N nodes after M nodes of a LinkedList</t>
+  </si>
+  <si>
+    <t>Flatten a Sorted multilevel LinkedList</t>
+  </si>
+  <si>
+    <t>Remove duplicate elements from Unsorted LinkedList Using HashMap</t>
+  </si>
+  <si>
+    <t>Find Kth node from LinkedList</t>
+  </si>
+  <si>
+    <t>Find Kth last node from LinkedList</t>
+  </si>
+  <si>
+    <t>Check if loop is present in LinkedList</t>
+  </si>
+  <si>
+    <t>Check if loop is present in LinkedList and remove loop in LinkedList</t>
+  </si>
+  <si>
+    <t>Delete middle Element from LinkedList / Delete middle node from LinkedList</t>
+  </si>
+  <si>
+    <t>Check if first and second half elements are matching in LinkedList</t>
+  </si>
+  <si>
+    <t>Check if LinkedList is Palindrome</t>
+  </si>
+  <si>
+    <t>Delete all Element from LinkedList / Delete the LinkedList</t>
+  </si>
+  <si>
+    <t>Delete nodes which have greater values on the right</t>
+  </si>
+  <si>
+    <t>Check if two LinkedList are identical</t>
+  </si>
+  <si>
+    <t>Delete alternate nodes in LinkedList</t>
+  </si>
+  <si>
+    <t>Move last node to front in LinkedList</t>
+  </si>
+  <si>
+    <t>Count occurrence of a value in LinkedList</t>
+  </si>
+  <si>
+    <t>Swap Elements of given value without swapping data / Swap nodes of given value without swapping data in LinkedList</t>
+  </si>
+  <si>
+    <t>Intersection Point of Two Unsorted LinkedList</t>
+  </si>
+  <si>
+    <t>Reverse LinkedList in Group of K elements</t>
+  </si>
+  <si>
+    <t>Reverse LinkedList alternatively in Group of K elements</t>
+  </si>
+  <si>
+    <t>Separate odd and even nodes in LinkedList</t>
+  </si>
+  <si>
+    <t>Split LinkedList Alternatively into two lists</t>
+  </si>
+  <si>
+    <t>Pairwise Swap Nodes of LinkedList</t>
+  </si>
+  <si>
+    <t>Pairwise Swap Elements of LinkedList</t>
+  </si>
+  <si>
+    <t>Merge two LinkedList Alternatively</t>
+  </si>
+  <si>
+    <t>Sort LinkedList of Items only 0s 1s and 2s</t>
+  </si>
+  <si>
+    <t>Add 1 to a number represented as LinkedList</t>
+  </si>
+  <si>
+    <t>Check if triplets exists from LinkedList with giiven sum</t>
+  </si>
+  <si>
+    <t>Add two number represented as LinkedList using reverse</t>
+  </si>
+  <si>
+    <t>Add two number represented as LinkedList using recursion</t>
+  </si>
+  <si>
+    <t>Subtract Two numbers represented as LinkedList</t>
+  </si>
+  <si>
+    <t>Make middle node as head of LinkedList</t>
+  </si>
+  <si>
+    <t>Insert Node into Middle of LinkedList</t>
+  </si>
+  <si>
+    <t>Count rotations in sorted and LinkedList</t>
+  </si>
+  <si>
+    <t>Merge K sorted LinkedList</t>
+  </si>
+  <si>
+    <t>Union of two LinkedList using Hashing</t>
+  </si>
+  <si>
+    <t>Intersection of two LinkedList using Hashing</t>
+  </si>
+  <si>
+    <t>Count pairs equal to given sum from two LinkedList</t>
+  </si>
+  <si>
+    <t>Find sum of all nodes of a LinkedList</t>
+  </si>
+  <si>
+    <t>Find sum of last n nodes of a LinkedList</t>
+  </si>
+  <si>
+    <t>Check if length of nodes is even in LinkedList</t>
+  </si>
+  <si>
+    <t>Remove every Kth node in LinkedList</t>
+  </si>
+  <si>
+    <t>Delete node when only this node is given</t>
+  </si>
+  <si>
+    <t>Delete last occurrence of an element in LinkedList</t>
+  </si>
+  <si>
+    <t>Sort LinkedList which is already sorted on absolute value</t>
+  </si>
+  <si>
+    <t>Clone LinkedList with next and random pointer / Using in-place / Using HashMap</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted LinkedList in Reverse Order</t>
+  </si>
+  <si>
+    <t>Move all occurrences of an element to the end of LinkedList</t>
+  </si>
+  <si>
+    <t>Rearrange a LinkedList in zigzag manner</t>
+  </si>
+  <si>
+    <t>Flatten a multi-level LinkedList level-wise</t>
+  </si>
+  <si>
+    <t>Flatten a multi-level LinkedList depth-wise</t>
+  </si>
+  <si>
+    <t>Rearrange a LinkedList alternatively min max element</t>
+  </si>
+  <si>
+    <t>Rearrange a LinkedList in-place</t>
+  </si>
+  <si>
+    <t>Rearrange a LinkedList around a given value and keeping the original order</t>
+  </si>
+  <si>
+    <t>Point to next higher value node in LinkedList with a random pointer</t>
+  </si>
+  <si>
+    <t>Alternate odd and even nodes in a LinkedList</t>
+  </si>
+  <si>
+    <t>Check if LinkedList of String forms a Palindrome</t>
+  </si>
+  <si>
+    <t>Compare two string represented as LinkedList</t>
+  </si>
+  <si>
+    <t>Length of longest palindrome list in a LinkedList</t>
+  </si>
+  <si>
+    <t>Find Largest and Smallest Element in a LinkedList</t>
+  </si>
+  <si>
+    <t>Delete Largest Element from a LinkedList</t>
+  </si>
+  <si>
+    <t>Reverse LinkedList from given position</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/word-break-problem-dp-32/
+https://www.techiedelight.com/word-break-problem/</t>
   </si>
 </sst>
 </file>
@@ -809,9 +1369,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1090,17 +1656,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J401"/>
+  <dimension ref="A1:J601"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J174" sqref="J174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="2" max="2" width="101.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="31.1640625" customWidth="1"/>
     <col min="8" max="8" width="37.1640625" customWidth="1"/>
     <col min="9" max="9" width="111.33203125" customWidth="1"/>
@@ -1109,31 +1676,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1150,19 +1717,19 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1176,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1192,11 +1759,17 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1209,11 +1782,17 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1227,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1244,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1261,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1272,16 +1851,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1289,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1298,13 +1883,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1312,7 +1897,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -1321,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1335,7 +1920,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -1344,13 +1929,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1358,16 +1943,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1381,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1392,7 +1977,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -1401,31 +1986,58 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>305</v>
+      </c>
       <c r="C16" t="s">
         <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>307</v>
+      </c>
       <c r="C17" t="s">
         <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>314</v>
+      </c>
       <c r="C18" t="s">
         <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1457,7 +2069,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1466,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1474,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1483,10 +2095,10 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1494,7 +2106,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -1503,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1511,7 +2123,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1520,10 +2132,10 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1531,19 +2143,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
+      <c r="D26" t="s">
+        <v>244</v>
+      </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1551,7 +2166,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1560,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1568,16 +2183,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1585,13 +2200,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1599,13 +2214,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1613,13 +2228,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1627,16 +2242,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1644,16 +2259,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1661,13 +2276,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1675,13 +2290,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1689,7 +2304,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1697,7 +2312,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1705,7 +2320,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1713,13 +2328,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1727,13 +2342,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1741,10 +2356,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1752,10 +2367,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1763,10 +2378,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1774,13 +2389,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1788,10 +2403,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1799,10 +2417,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1810,10 +2428,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1821,13 +2439,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1835,13 +2456,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1849,13 +2473,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1863,13 +2490,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1877,10 +2507,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1888,10 +2518,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1899,13 +2529,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1913,13 +2543,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1927,13 +2560,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1941,13 +2574,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1955,13 +2588,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
         <v>64</v>
       </c>
-      <c r="C58" t="s">
-        <v>65</v>
-      </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1969,13 +2602,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1983,13 +2616,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1997,16 +2630,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2014,13 +2647,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -2028,16 +2661,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2045,13 +2678,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2059,13 +2692,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -2073,13 +2706,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -2087,13 +2720,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -2101,13 +2734,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -2115,13 +2748,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2129,13 +2762,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -2143,13 +2779,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2157,13 +2793,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2171,16 +2807,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C73" t="s">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s">
-        <v>79</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -2188,13 +2824,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -2202,13 +2838,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -2216,13 +2852,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -2230,13 +2866,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -2244,13 +2880,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,13 +2894,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -2272,13 +2908,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -2286,13 +2922,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -2300,13 +2936,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -2314,13 +2950,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2328,13 +2964,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -2342,13 +2978,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -2356,13 +2992,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -2370,13 +3006,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -2384,13 +3020,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D88" t="s">
+        <v>50</v>
       </c>
       <c r="F88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2398,16 +3037,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
+        <v>50</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -2415,16 +3057,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>344</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>50</v>
       </c>
       <c r="E90">
         <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2432,16 +3077,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2449,16 +3094,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -2466,16 +3111,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2483,16 +3128,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2500,16 +3145,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D95" t="s">
+        <v>50</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -2517,16 +3165,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D96" t="s">
+        <v>50</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -2534,16 +3185,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
+        <v>50</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -2551,16 +3205,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E98">
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -2568,16 +3222,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>50</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -2585,16 +3242,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D100" t="s">
+        <v>50</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -2602,7 +3262,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>285</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -2610,19 +3282,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E102">
         <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,19 +3302,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E103">
         <v>3</v>
       </c>
       <c r="F103" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -2650,16 +3322,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E104">
         <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -2667,16 +3339,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>120</v>
       </c>
       <c r="E105">
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -2684,16 +3359,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>120</v>
       </c>
       <c r="E106">
         <v>2</v>
       </c>
       <c r="F106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -2701,16 +3379,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>120</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -2718,16 +3399,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D108" t="s">
+        <v>120</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -2735,16 +3419,22 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D109" t="s">
+        <v>120</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="I109" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -2752,16 +3442,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="C110" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
+        <v>120</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -2769,16 +3462,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>120</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -2786,19 +3482,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>120</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -2806,19 +3505,22 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="C113" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>120</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -2826,16 +3528,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C114" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D114" t="s">
+        <v>50</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -2843,16 +3548,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -2860,16 +3565,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -2877,16 +3582,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -2894,16 +3599,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>120</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -2911,16 +3619,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C119" t="s">
-        <v>124</v>
+        <v>64</v>
+      </c>
+      <c r="D119" t="s">
+        <v>120</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -2928,16 +3639,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C120" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -2945,16 +3656,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C121" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D121" t="s">
+        <v>50</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -2962,16 +3676,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C122" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D122" t="s">
+        <v>50</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -2979,16 +3696,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>120</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -2996,16 +3716,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -3013,19 +3733,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -3033,16 +3753,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E126">
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -3050,16 +3770,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -3067,16 +3787,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E128">
         <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -3084,16 +3804,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E129">
         <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -3101,16 +3821,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E130">
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -3118,19 +3838,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E131">
         <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -3138,19 +3858,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E132">
         <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H132" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -3158,10 +3878,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -3172,16 +3892,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -3189,16 +3909,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C135" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D135" t="s">
+        <v>120</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -3206,16 +3929,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C136" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D136" t="s">
+        <v>120</v>
       </c>
       <c r="E136">
         <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -3223,16 +3949,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C137" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>120</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -3240,16 +3969,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C138" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D138" t="s">
+        <v>120</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -3257,16 +3989,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C139" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D139" t="s">
+        <v>120</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -3274,19 +4009,22 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C140" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D140" t="s">
+        <v>120</v>
       </c>
       <c r="E140">
         <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H140" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -3294,16 +4032,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C141" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>50</v>
       </c>
       <c r="E141">
         <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -3311,16 +4052,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C142" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D142" t="s">
+        <v>120</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -3328,16 +4072,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C143" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D143" t="s">
+        <v>120</v>
       </c>
       <c r="E143">
         <v>2</v>
       </c>
       <c r="F143" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -3345,372 +4092,1078 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C144" t="s">
-        <v>124</v>
+        <v>26</v>
+      </c>
+      <c r="D144" t="s">
+        <v>120</v>
       </c>
       <c r="E144">
         <v>2</v>
       </c>
       <c r="F144" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>236</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" t="s">
+        <v>50</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>237</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" t="s">
+        <v>50</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>249</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>120</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>238</v>
+      </c>
+      <c r="C148" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" t="s">
+        <v>50</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>250</v>
+      </c>
+      <c r="C149" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" t="s">
+        <v>120</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>251</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" t="s">
+        <v>120</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>253</v>
+      </c>
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>120</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>254</v>
+      </c>
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" t="s">
+        <v>120</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>308</v>
+      </c>
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" t="s">
+        <v>120</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>256</v>
+      </c>
+      <c r="C154" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s">
+        <v>78</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>257</v>
+      </c>
+      <c r="C155" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>258</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" t="s">
+        <v>34</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156" t="s">
+        <v>78</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>259</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" t="s">
+        <v>240</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>78</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>260</v>
+      </c>
+      <c r="C158" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" t="s">
+        <v>38</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>78</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>261</v>
+      </c>
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>287</v>
+      </c>
+      <c r="C160" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" t="s">
+        <v>120</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>78</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>332</v>
+      </c>
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" t="s">
+        <v>120</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161" t="s">
+        <v>78</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="C162" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="D162" t="s">
+        <v>120</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162" t="s">
+        <v>78</v>
+      </c>
+      <c r="G162" t="s">
+        <v>21</v>
+      </c>
+      <c r="H162" t="s">
+        <v>279</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" t="s">
+        <v>120</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>78</v>
+      </c>
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="C164" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" t="s">
+        <v>120</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>78</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="C165" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" t="s">
+        <v>240</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="C170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170" t="s">
+        <v>78</v>
+      </c>
+      <c r="G170" t="s">
+        <v>281</v>
+      </c>
+      <c r="H170" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="C171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="C172" t="s">
+        <v>227</v>
+      </c>
+      <c r="F172" t="s">
+        <v>78</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="C173" t="s">
+        <v>227</v>
+      </c>
+      <c r="F173" t="s">
+        <v>78</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="F174" t="s">
+        <v>78</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>274</v>
+      </c>
+      <c r="C180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" t="s">
+        <v>35</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="F180" t="s">
+        <v>78</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>274</v>
+      </c>
+      <c r="C181" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" t="s">
+        <v>36</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+      <c r="F181" t="s">
+        <v>78</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>282</v>
+      </c>
+      <c r="C182" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>283</v>
+      </c>
+      <c r="C183" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>286</v>
+      </c>
+      <c r="C184" t="s">
+        <v>26</v>
+      </c>
+      <c r="D184" t="s">
+        <v>120</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>290</v>
+      </c>
+      <c r="C185" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" t="s">
+        <v>120</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185" t="s">
+        <v>78</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B187" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C187" t="s">
+        <v>26</v>
+      </c>
+      <c r="D187" t="s">
+        <v>120</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>316</v>
+      </c>
+      <c r="C188" t="s">
+        <v>26</v>
+      </c>
+      <c r="D188" t="s">
+        <v>120</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188" t="s">
+        <v>78</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>293</v>
+      </c>
+      <c r="C189" t="s">
+        <v>26</v>
+      </c>
+      <c r="D189" t="s">
+        <v>120</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>294</v>
+      </c>
+      <c r="C190" t="s">
+        <v>26</v>
+      </c>
+      <c r="D190" t="s">
+        <v>120</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>295</v>
+      </c>
+      <c r="C191" t="s">
+        <v>26</v>
+      </c>
+      <c r="D191" t="s">
+        <v>120</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>317</v>
+      </c>
+      <c r="C192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192" t="s">
+        <v>120</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
+      <c r="B193" t="s">
+        <v>318</v>
+      </c>
+      <c r="C193" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193" t="s">
+        <v>120</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
+      <c r="B194" t="s">
+        <v>298</v>
+      </c>
+      <c r="C194" t="s">
+        <v>26</v>
+      </c>
+      <c r="D194" t="s">
+        <v>120</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
+      <c r="B195" t="s">
+        <v>299</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" t="s">
+        <v>120</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
+      <c r="B196" t="s">
+        <v>326</v>
+      </c>
+      <c r="C196" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" t="s">
+        <v>120</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
+      <c r="B197" t="s">
+        <v>301</v>
+      </c>
+      <c r="C197" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" t="s">
+        <v>120</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
+      <c r="B198" t="s">
+        <v>231</v>
+      </c>
+      <c r="C198" t="s">
+        <v>227</v>
+      </c>
+      <c r="D198" t="s">
+        <v>120</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
+      <c r="B199" t="s">
+        <v>302</v>
+      </c>
+      <c r="C199" t="s">
+        <v>227</v>
+      </c>
+      <c r="D199" t="s">
+        <v>120</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
+      <c r="B200" t="s">
+        <v>303</v>
+      </c>
+      <c r="C200" t="s">
+        <v>227</v>
+      </c>
+      <c r="D200" t="s">
+        <v>120</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
+      <c r="B201" t="s">
+        <v>304</v>
+      </c>
+      <c r="C201" t="s">
+        <v>227</v>
+      </c>
+      <c r="D201" t="s">
+        <v>120</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C202" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D202" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -3718,19 +5171,19 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C203" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D203" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -3738,19 +5191,19 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C204" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D204" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -3758,19 +5211,19 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C205" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D205" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -3778,19 +5231,19 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C206" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D206" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -3798,19 +5251,19 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C207" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D207" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -3818,19 +5271,19 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C208" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D208" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -3838,19 +5291,19 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C209" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D209" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -3858,19 +5311,19 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C210" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D210" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -3878,19 +5331,19 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C211" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D211" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -3898,19 +5351,19 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C212" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D212" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -3918,19 +5371,19 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C213" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D213" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -3938,19 +5391,19 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C214" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D214" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -3958,19 +5411,19 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C215" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D215" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -3978,19 +5431,19 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C216" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D216" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -3998,19 +5451,19 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C217" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D217" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -4018,19 +5471,19 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C218" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D218" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -4038,19 +5491,19 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C219" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D219" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -4058,19 +5511,19 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C220" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D220" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -4078,19 +5531,19 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C221" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D221" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E221">
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -4098,19 +5551,19 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C222" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D222" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E222">
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -4118,19 +5571,19 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C223" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D223" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E223">
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -4138,19 +5591,19 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C224" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D224" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -4158,19 +5611,19 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C225" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D225" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -4178,19 +5631,19 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C226" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D226" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -4198,19 +5651,19 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C227" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D227" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -4218,19 +5671,19 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="C228" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D228" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E228">
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -4238,19 +5691,19 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C229" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D229" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E229">
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -4258,19 +5711,19 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C230" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D230" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E230">
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -4278,19 +5731,19 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C231" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D231" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E231">
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -4298,19 +5751,19 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C232" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D232" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E232">
         <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -4318,19 +5771,19 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C233" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D233" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E233">
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -4338,19 +5791,19 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C234" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D234" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E234">
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -4358,19 +5811,19 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C235" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D235" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E235">
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -4378,19 +5831,19 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C236" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D236" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E236">
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -4413,210 +5866,501 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>339</v>
+      </c>
+      <c r="C244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>341</v>
+      </c>
+      <c r="C245" t="s">
+        <v>26</v>
+      </c>
+      <c r="D245" t="s">
+        <v>50</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+      <c r="F245" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>340</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246" t="s">
+        <v>50</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>334</v>
+      </c>
+      <c r="C247" t="s">
+        <v>26</v>
+      </c>
+      <c r="D247" t="s">
+        <v>120</v>
+      </c>
+      <c r="F247" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>330</v>
+      </c>
+      <c r="C248" t="s">
+        <v>26</v>
+      </c>
+      <c r="D248" t="s">
+        <v>120</v>
+      </c>
+      <c r="E248">
+        <v>3</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>321</v>
+      </c>
+      <c r="C249" t="s">
+        <v>227</v>
+      </c>
+      <c r="D249" t="s">
+        <v>240</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+      <c r="F249" t="s">
+        <v>78</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B250" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C250" t="s">
+        <v>227</v>
+      </c>
+      <c r="D250" t="s">
+        <v>120</v>
+      </c>
+      <c r="E250">
+        <v>2</v>
+      </c>
+      <c r="F250" t="s">
+        <v>78</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>270</v>
+      </c>
+      <c r="C251" t="s">
+        <v>227</v>
+      </c>
+      <c r="E251">
+        <v>3</v>
+      </c>
+      <c r="F251" t="s">
+        <v>78</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C252" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E252">
         <v>3</v>
       </c>
       <c r="F252" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C253" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E253">
         <v>2</v>
       </c>
       <c r="F253" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C254" t="s">
-        <v>240</v>
+        <v>227</v>
+      </c>
+      <c r="D254" t="s">
+        <v>120</v>
       </c>
       <c r="E254">
         <v>2</v>
       </c>
       <c r="F254" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="C255" t="s">
-        <v>240</v>
+        <v>26</v>
+      </c>
+      <c r="D255" t="s">
+        <v>120</v>
       </c>
       <c r="E255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F255" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>233</v>
+      </c>
+      <c r="C256" t="s">
+        <v>227</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+      <c r="F256" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>234</v>
+      </c>
+      <c r="C257" t="s">
+        <v>227</v>
+      </c>
+      <c r="E257">
+        <v>3</v>
+      </c>
+      <c r="F257" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>232</v>
+      </c>
+      <c r="C258" t="s">
+        <v>227</v>
+      </c>
+      <c r="E258">
+        <v>3</v>
+      </c>
+      <c r="F258" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>235</v>
+      </c>
+      <c r="C259" t="s">
+        <v>227</v>
+      </c>
+      <c r="E259">
+        <v>3</v>
+      </c>
+      <c r="F259" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>310</v>
+      </c>
+      <c r="C260" t="s">
+        <v>26</v>
+      </c>
+      <c r="D260" t="s">
+        <v>120</v>
+      </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+      <c r="F260" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>336</v>
+      </c>
+      <c r="C261" t="s">
+        <v>26</v>
+      </c>
+      <c r="D261" t="s">
+        <v>120</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" t="s">
+        <v>78</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>319</v>
+      </c>
+      <c r="C262" t="s">
+        <v>26</v>
+      </c>
+      <c r="D262" t="s">
+        <v>120</v>
+      </c>
+      <c r="E262">
+        <v>2</v>
+      </c>
+      <c r="F262" t="s">
+        <v>78</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>324</v>
+      </c>
+      <c r="C263" t="s">
+        <v>26</v>
+      </c>
+      <c r="D263" t="s">
+        <v>120</v>
+      </c>
+      <c r="E263">
+        <v>3</v>
+      </c>
+      <c r="F263" t="s">
+        <v>78</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>327</v>
+      </c>
+      <c r="C264" t="s">
+        <v>26</v>
+      </c>
+      <c r="D264" t="s">
+        <v>120</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>276</v>
+      </c>
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265" t="s">
+        <v>120</v>
+      </c>
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="F265" t="s">
+        <v>78</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>328</v>
+      </c>
+      <c r="C266" t="s">
+        <v>26</v>
+      </c>
+      <c r="D266" t="s">
+        <v>120</v>
+      </c>
+      <c r="E266">
+        <v>2</v>
+      </c>
+      <c r="F266" t="s">
+        <v>78</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -4701,565 +6445,1618 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
+      <c r="B302" t="s">
+        <v>239</v>
+      </c>
       <c r="C302" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="D302" t="s">
+        <v>28</v>
+      </c>
+      <c r="E302">
+        <v>3</v>
+      </c>
+      <c r="F302" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>343</v>
+      </c>
+      <c r="C303" t="s">
+        <v>26</v>
+      </c>
+      <c r="D303" t="s">
+        <v>28</v>
+      </c>
+      <c r="E303">
+        <v>3</v>
+      </c>
+      <c r="F303" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
+        <v>345</v>
+      </c>
+      <c r="C304" t="s">
+        <v>26</v>
+      </c>
+      <c r="D304" t="s">
+        <v>28</v>
+      </c>
+      <c r="E304">
+        <v>3</v>
+      </c>
+      <c r="F304" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
+        <v>347</v>
+      </c>
+      <c r="C305" t="s">
+        <v>26</v>
+      </c>
+      <c r="D305" t="s">
+        <v>28</v>
+      </c>
+      <c r="E305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>346</v>
+      </c>
+      <c r="C306" t="s">
+        <v>26</v>
+      </c>
+      <c r="D306" t="s">
+        <v>28</v>
+      </c>
+      <c r="E306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>348</v>
+      </c>
+      <c r="C307" t="s">
+        <v>26</v>
+      </c>
+      <c r="D307" t="s">
+        <v>28</v>
+      </c>
+      <c r="E307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
+        <v>349</v>
+      </c>
+      <c r="C308" t="s">
+        <v>26</v>
+      </c>
+      <c r="D308" t="s">
+        <v>28</v>
+      </c>
+      <c r="E308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
+        <v>350</v>
+      </c>
+      <c r="C309" t="s">
+        <v>26</v>
+      </c>
+      <c r="D309" t="s">
+        <v>28</v>
+      </c>
+      <c r="E309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
+        <v>351</v>
+      </c>
+      <c r="C310" t="s">
+        <v>26</v>
+      </c>
+      <c r="D310" t="s">
+        <v>28</v>
+      </c>
+      <c r="E310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
+        <v>352</v>
+      </c>
+      <c r="C311" t="s">
+        <v>26</v>
+      </c>
+      <c r="D311" t="s">
+        <v>28</v>
+      </c>
+      <c r="E311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
+        <v>353</v>
+      </c>
+      <c r="C312" t="s">
+        <v>26</v>
+      </c>
+      <c r="D312" t="s">
+        <v>28</v>
+      </c>
+      <c r="E312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
+        <v>354</v>
+      </c>
+      <c r="C313" t="s">
+        <v>26</v>
+      </c>
+      <c r="D313" t="s">
+        <v>28</v>
+      </c>
+      <c r="E313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
+        <v>355</v>
+      </c>
+      <c r="C314" t="s">
+        <v>26</v>
+      </c>
+      <c r="D314" t="s">
+        <v>28</v>
+      </c>
+      <c r="E314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
+        <v>356</v>
+      </c>
+      <c r="C315" t="s">
+        <v>26</v>
+      </c>
+      <c r="D315" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
+        <v>357</v>
+      </c>
+      <c r="C316" t="s">
+        <v>26</v>
+      </c>
+      <c r="D316" t="s">
+        <v>28</v>
+      </c>
+      <c r="E316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
+        <v>358</v>
+      </c>
+      <c r="C317" t="s">
+        <v>26</v>
+      </c>
+      <c r="D317" t="s">
+        <v>28</v>
+      </c>
+      <c r="E317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
+        <v>359</v>
+      </c>
+      <c r="C318" t="s">
+        <v>26</v>
+      </c>
+      <c r="D318" t="s">
+        <v>28</v>
+      </c>
+      <c r="E318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
+        <v>360</v>
+      </c>
+      <c r="C319" t="s">
+        <v>26</v>
+      </c>
+      <c r="D319" t="s">
+        <v>28</v>
+      </c>
+      <c r="E319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>361</v>
+      </c>
+      <c r="C320" t="s">
+        <v>26</v>
+      </c>
+      <c r="D320" t="s">
+        <v>28</v>
+      </c>
+      <c r="E320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
+        <v>362</v>
+      </c>
+      <c r="C321" t="s">
+        <v>26</v>
+      </c>
+      <c r="D321" t="s">
+        <v>28</v>
+      </c>
+      <c r="E321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>363</v>
+      </c>
+      <c r="C322" t="s">
+        <v>26</v>
+      </c>
+      <c r="D322" t="s">
+        <v>28</v>
+      </c>
+      <c r="E322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>364</v>
+      </c>
+      <c r="C323" t="s">
+        <v>26</v>
+      </c>
+      <c r="D323" t="s">
+        <v>28</v>
+      </c>
+      <c r="E323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
+        <v>365</v>
+      </c>
+      <c r="C324" t="s">
+        <v>26</v>
+      </c>
+      <c r="D324" t="s">
+        <v>28</v>
+      </c>
+      <c r="E324">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
+        <v>366</v>
+      </c>
+      <c r="C325" t="s">
+        <v>26</v>
+      </c>
+      <c r="D325" t="s">
+        <v>28</v>
+      </c>
+      <c r="E325">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
+        <v>367</v>
+      </c>
+      <c r="C326" t="s">
+        <v>26</v>
+      </c>
+      <c r="D326" t="s">
+        <v>28</v>
+      </c>
+      <c r="E326">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
+        <v>368</v>
+      </c>
+      <c r="C327" t="s">
+        <v>26</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>369</v>
+      </c>
+      <c r="C328" t="s">
+        <v>26</v>
+      </c>
+      <c r="D328" t="s">
+        <v>28</v>
+      </c>
+      <c r="E328">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>370</v>
+      </c>
+      <c r="C329" t="s">
+        <v>26</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
+        <v>371</v>
+      </c>
+      <c r="C330" t="s">
+        <v>26</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
+        <v>372</v>
+      </c>
+      <c r="C331" t="s">
+        <v>26</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
+        <v>373</v>
+      </c>
+      <c r="C332" t="s">
+        <v>26</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
+        <v>374</v>
+      </c>
+      <c r="C333" t="s">
+        <v>26</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
+        <v>375</v>
+      </c>
+      <c r="C334" t="s">
+        <v>26</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
+        <v>376</v>
+      </c>
+      <c r="C335" t="s">
+        <v>26</v>
+      </c>
+      <c r="D335" t="s">
+        <v>28</v>
+      </c>
+      <c r="E335">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B336" t="s">
+        <v>377</v>
+      </c>
+      <c r="C336" t="s">
+        <v>26</v>
+      </c>
+      <c r="D336" t="s">
+        <v>28</v>
+      </c>
+      <c r="E336">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
+        <v>378</v>
+      </c>
+      <c r="C337" t="s">
+        <v>26</v>
+      </c>
+      <c r="D337" t="s">
+        <v>28</v>
+      </c>
+      <c r="E337">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
+        <v>379</v>
+      </c>
+      <c r="C338" t="s">
+        <v>26</v>
+      </c>
+      <c r="D338" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
+        <v>380</v>
+      </c>
+      <c r="C339" t="s">
+        <v>26</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
+        <v>391</v>
+      </c>
+      <c r="C340" t="s">
+        <v>26</v>
+      </c>
+      <c r="D340" t="s">
+        <v>28</v>
+      </c>
+      <c r="E340">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
+        <v>381</v>
+      </c>
+      <c r="C341" t="s">
+        <v>26</v>
+      </c>
+      <c r="D341" t="s">
+        <v>28</v>
+      </c>
+      <c r="E341">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B342" t="s">
+        <v>382</v>
+      </c>
+      <c r="C342" t="s">
+        <v>26</v>
+      </c>
+      <c r="D342" t="s">
+        <v>28</v>
+      </c>
+      <c r="E342">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
+        <v>383</v>
+      </c>
+      <c r="C343" t="s">
+        <v>26</v>
+      </c>
+      <c r="D343" t="s">
+        <v>28</v>
+      </c>
+      <c r="E343">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
+        <v>384</v>
+      </c>
+      <c r="C344" t="s">
+        <v>26</v>
+      </c>
+      <c r="D344" t="s">
+        <v>28</v>
+      </c>
+      <c r="E344">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
+        <v>385</v>
+      </c>
+      <c r="C345" t="s">
+        <v>26</v>
+      </c>
+      <c r="D345" t="s">
+        <v>28</v>
+      </c>
+      <c r="E345">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
+        <v>386</v>
+      </c>
+      <c r="C346" t="s">
+        <v>26</v>
+      </c>
+      <c r="D346" t="s">
+        <v>28</v>
+      </c>
+      <c r="E346">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>387</v>
+      </c>
+      <c r="C347" t="s">
+        <v>26</v>
+      </c>
+      <c r="D347" t="s">
+        <v>28</v>
+      </c>
+      <c r="E347">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>388</v>
+      </c>
+      <c r="C348" t="s">
+        <v>26</v>
+      </c>
+      <c r="D348" t="s">
+        <v>28</v>
+      </c>
+      <c r="E348">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
+        <v>389</v>
+      </c>
+      <c r="C349" t="s">
+        <v>26</v>
+      </c>
+      <c r="D349" t="s">
+        <v>28</v>
+      </c>
+      <c r="E349">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>390</v>
+      </c>
+      <c r="C350" t="s">
+        <v>26</v>
+      </c>
+      <c r="D350" t="s">
+        <v>28</v>
+      </c>
+      <c r="E350">
+        <v>33</v>
+      </c>
+      <c r="H350" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>392</v>
+      </c>
+      <c r="C351" t="s">
+        <v>26</v>
+      </c>
+      <c r="D351" t="s">
+        <v>28</v>
+      </c>
+      <c r="E351">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
+        <v>393</v>
+      </c>
+      <c r="C352" t="s">
+        <v>26</v>
+      </c>
+      <c r="D352" t="s">
+        <v>28</v>
+      </c>
+      <c r="E352">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
+        <v>394</v>
+      </c>
+      <c r="C353" t="s">
+        <v>26</v>
+      </c>
+      <c r="D353" t="s">
+        <v>28</v>
+      </c>
+      <c r="E353">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B354" t="s">
+        <v>395</v>
+      </c>
+      <c r="C354" t="s">
+        <v>26</v>
+      </c>
+      <c r="D354" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B355" t="s">
+        <v>396</v>
+      </c>
+      <c r="C355" t="s">
+        <v>26</v>
+      </c>
+      <c r="D355" t="s">
+        <v>28</v>
+      </c>
+      <c r="E355">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
+        <v>397</v>
+      </c>
+      <c r="C356" t="s">
+        <v>26</v>
+      </c>
+      <c r="D356" t="s">
+        <v>28</v>
+      </c>
+      <c r="E356">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
+        <v>398</v>
+      </c>
+      <c r="C357" t="s">
+        <v>26</v>
+      </c>
+      <c r="D357" t="s">
+        <v>28</v>
+      </c>
+      <c r="E357">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
+        <v>399</v>
+      </c>
+      <c r="C358" t="s">
+        <v>26</v>
+      </c>
+      <c r="D358" t="s">
+        <v>28</v>
+      </c>
+      <c r="E358">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
+        <v>400</v>
+      </c>
+      <c r="C359" t="s">
+        <v>26</v>
+      </c>
+      <c r="D359" t="s">
+        <v>28</v>
+      </c>
+      <c r="E359">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B360" t="s">
+        <v>401</v>
+      </c>
+      <c r="C360" t="s">
+        <v>26</v>
+      </c>
+      <c r="D360" t="s">
+        <v>28</v>
+      </c>
+      <c r="E360">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B361" t="s">
+        <v>402</v>
+      </c>
+      <c r="C361" t="s">
+        <v>26</v>
+      </c>
+      <c r="D361" t="s">
+        <v>28</v>
+      </c>
+      <c r="E361">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
+        <v>403</v>
+      </c>
+      <c r="C362" t="s">
+        <v>26</v>
+      </c>
+      <c r="D362" t="s">
+        <v>28</v>
+      </c>
+      <c r="E362">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B363" t="s">
+        <v>404</v>
+      </c>
+      <c r="C363" t="s">
+        <v>26</v>
+      </c>
+      <c r="D363" t="s">
+        <v>28</v>
+      </c>
+      <c r="E363">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B364" t="s">
+        <v>405</v>
+      </c>
+      <c r="C364" t="s">
+        <v>26</v>
+      </c>
+      <c r="D364" t="s">
+        <v>28</v>
+      </c>
+      <c r="E364">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
+        <v>406</v>
+      </c>
+      <c r="C365" t="s">
+        <v>26</v>
+      </c>
+      <c r="D365" t="s">
+        <v>28</v>
+      </c>
+      <c r="E365">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B366" t="s">
+        <v>407</v>
+      </c>
+      <c r="C366" t="s">
+        <v>26</v>
+      </c>
+      <c r="D366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E366">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B367" t="s">
+        <v>408</v>
+      </c>
+      <c r="C367" t="s">
+        <v>26</v>
+      </c>
+      <c r="D367" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B368" t="s">
+        <v>409</v>
+      </c>
+      <c r="C368" t="s">
+        <v>26</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B369" t="s">
+        <v>410</v>
+      </c>
+      <c r="C369" t="s">
+        <v>26</v>
+      </c>
+      <c r="D369" t="s">
+        <v>28</v>
+      </c>
+      <c r="E369">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B370" t="s">
+        <v>411</v>
+      </c>
+      <c r="C370" t="s">
+        <v>26</v>
+      </c>
+      <c r="D370" t="s">
+        <v>28</v>
+      </c>
+      <c r="E370">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B371" t="s">
+        <v>412</v>
+      </c>
+      <c r="C371" t="s">
+        <v>26</v>
+      </c>
+      <c r="D371" t="s">
+        <v>28</v>
+      </c>
+      <c r="E371">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
+        <v>413</v>
+      </c>
+      <c r="C372" t="s">
+        <v>26</v>
+      </c>
+      <c r="D372" t="s">
+        <v>28</v>
+      </c>
+      <c r="E372">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
+        <v>414</v>
+      </c>
+      <c r="C373" t="s">
+        <v>26</v>
+      </c>
+      <c r="D373" t="s">
+        <v>28</v>
+      </c>
+      <c r="E373">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B374" t="s">
+        <v>415</v>
+      </c>
+      <c r="C374" t="s">
+        <v>26</v>
+      </c>
+      <c r="D374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E374">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B375" t="s">
+        <v>416</v>
+      </c>
+      <c r="C375" t="s">
+        <v>26</v>
+      </c>
+      <c r="D375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E375">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B376" t="s">
+        <v>417</v>
+      </c>
+      <c r="C376" t="s">
+        <v>26</v>
+      </c>
+      <c r="D376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E376">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B377" t="s">
+        <v>418</v>
+      </c>
+      <c r="C377" t="s">
+        <v>26</v>
+      </c>
+      <c r="D377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E377">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B378" t="s">
+        <v>419</v>
+      </c>
+      <c r="C378" t="s">
+        <v>26</v>
+      </c>
+      <c r="D378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E378">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
+        <v>420</v>
+      </c>
+      <c r="C379" t="s">
+        <v>26</v>
+      </c>
+      <c r="D379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E379">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
+        <v>421</v>
+      </c>
+      <c r="C380" t="s">
+        <v>26</v>
+      </c>
+      <c r="D380" t="s">
+        <v>28</v>
+      </c>
+      <c r="E380">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B381" t="s">
+        <v>422</v>
+      </c>
+      <c r="C381" t="s">
+        <v>26</v>
+      </c>
+      <c r="D381" t="s">
+        <v>28</v>
+      </c>
+      <c r="E381">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B382" t="s">
+        <v>423</v>
+      </c>
+      <c r="C382" t="s">
+        <v>26</v>
+      </c>
+      <c r="D382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E382">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B383" t="s">
+        <v>424</v>
+      </c>
+      <c r="C383" t="s">
+        <v>26</v>
+      </c>
+      <c r="D383" t="s">
+        <v>28</v>
+      </c>
+      <c r="E383">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B384" t="s">
+        <v>425</v>
+      </c>
+      <c r="C384" t="s">
+        <v>26</v>
+      </c>
+      <c r="D384" t="s">
+        <v>28</v>
+      </c>
+      <c r="E384">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B385" t="s">
+        <v>426</v>
+      </c>
+      <c r="C385" t="s">
+        <v>26</v>
+      </c>
+      <c r="D385" t="s">
+        <v>28</v>
+      </c>
+      <c r="E385">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B386" t="s">
+        <v>427</v>
+      </c>
+      <c r="C386" t="s">
+        <v>26</v>
+      </c>
+      <c r="D386" t="s">
+        <v>28</v>
+      </c>
+      <c r="E386">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B387" t="s">
+        <v>428</v>
+      </c>
+      <c r="C387" t="s">
+        <v>26</v>
+      </c>
+      <c r="D387" t="s">
+        <v>28</v>
+      </c>
+      <c r="E387">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B388" t="s">
+        <v>429</v>
+      </c>
+      <c r="C388" t="s">
+        <v>26</v>
+      </c>
+      <c r="D388" t="s">
+        <v>28</v>
+      </c>
+      <c r="E388">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
@@ -5269,8 +8066,1122 @@
         <v>400</v>
       </c>
     </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>551</v>
+      </c>
+      <c r="B552" t="s">
+        <v>241</v>
+      </c>
+      <c r="C552" t="s">
+        <v>26</v>
+      </c>
+      <c r="D552" t="s">
+        <v>240</v>
+      </c>
+      <c r="E552">
+        <v>3</v>
+      </c>
+      <c r="F552" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>552</v>
+      </c>
+      <c r="B553" t="s">
+        <v>242</v>
+      </c>
+      <c r="C553" t="s">
+        <v>26</v>
+      </c>
+      <c r="D553" t="s">
+        <v>240</v>
+      </c>
+      <c r="E553">
+        <v>3</v>
+      </c>
+      <c r="F553" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>561</v>
+      </c>
+      <c r="B562" t="s">
+        <v>243</v>
+      </c>
+      <c r="C562" t="s">
+        <v>26</v>
+      </c>
+      <c r="D562" t="s">
+        <v>240</v>
+      </c>
+      <c r="E562">
+        <v>3</v>
+      </c>
+      <c r="F562" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>581</v>
+      </c>
+      <c r="B582" t="s">
+        <v>245</v>
+      </c>
+      <c r="C582" t="s">
+        <v>26</v>
+      </c>
+      <c r="D582" t="s">
+        <v>244</v>
+      </c>
+      <c r="E582">
+        <v>3</v>
+      </c>
+      <c r="F582" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>582</v>
+      </c>
+      <c r="B583" t="s">
+        <v>246</v>
+      </c>
+      <c r="C583" t="s">
+        <v>26</v>
+      </c>
+      <c r="D583" t="s">
+        <v>244</v>
+      </c>
+      <c r="E583">
+        <v>3</v>
+      </c>
+      <c r="F583" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>583</v>
+      </c>
+      <c r="B584" t="s">
+        <v>247</v>
+      </c>
+      <c r="C584" t="s">
+        <v>26</v>
+      </c>
+      <c r="D584" t="s">
+        <v>244</v>
+      </c>
+      <c r="E584">
+        <v>3</v>
+      </c>
+      <c r="F584" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>584</v>
+      </c>
+      <c r="B585" t="s">
+        <v>248</v>
+      </c>
+      <c r="C585" t="s">
+        <v>26</v>
+      </c>
+      <c r="D585" t="s">
+        <v>244</v>
+      </c>
+      <c r="E585">
+        <v>3</v>
+      </c>
+      <c r="F585" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>600</v>
+      </c>
+      <c r="B601" t="s">
+        <v>323</v>
+      </c>
+      <c r="C601" t="s">
+        <v>26</v>
+      </c>
+      <c r="D601" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I300"/>
+  <autoFilter ref="A1:J401"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="I73" r:id="rId2" location="overview"/>
@@ -5281,6 +9192,31 @@
     <hyperlink ref="I23" r:id="rId7"/>
     <hyperlink ref="I25" r:id="rId8"/>
     <hyperlink ref="I26" r:id="rId9"/>
+    <hyperlink ref="I154" r:id="rId10"/>
+    <hyperlink ref="I155" r:id="rId11"/>
+    <hyperlink ref="I157" r:id="rId12"/>
+    <hyperlink ref="I156" r:id="rId13"/>
+    <hyperlink ref="I158" r:id="rId14"/>
+    <hyperlink ref="I164" r:id="rId15"/>
+    <hyperlink ref="I251" r:id="rId16"/>
+    <hyperlink ref="I181" r:id="rId17"/>
+    <hyperlink ref="I180" r:id="rId18"/>
+    <hyperlink ref="I174" r:id="rId19" display="https://www.geeksforgeeks.org/word-break-problem-dp-32/"/>
+    <hyperlink ref="I265" r:id="rId20"/>
+    <hyperlink ref="I162" r:id="rId21"/>
+    <hyperlink ref="I160" r:id="rId22"/>
+    <hyperlink ref="I185" r:id="rId23"/>
+    <hyperlink ref="I261" r:id="rId24"/>
+    <hyperlink ref="I250" r:id="rId25"/>
+    <hyperlink ref="I188" r:id="rId26"/>
+    <hyperlink ref="I262" r:id="rId27"/>
+    <hyperlink ref="I249" r:id="rId28" display="https://www.geeksforgeeks.org/design-a-stack-that-supports-getmin-in-o1-time-and-o1-extra-space/"/>
+    <hyperlink ref="I263" r:id="rId29"/>
+    <hyperlink ref="I266" r:id="rId30"/>
+    <hyperlink ref="I248" r:id="rId31"/>
+    <hyperlink ref="I161" r:id="rId32"/>
+    <hyperlink ref="I172" r:id="rId33"/>
+    <hyperlink ref="I173" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java_all.xlsx
+++ b/java_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1720" windowWidth="21300" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="8680" yWindow="460" windowWidth="21300" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="470">
   <si>
     <t>Sorting</t>
   </si>
@@ -443,9 +443,6 @@
     <t>Add Digits Using Recursion</t>
   </si>
   <si>
-    <t>Reverse an array</t>
-  </si>
-  <si>
     <t>Find Sum of elements of an array</t>
   </si>
   <si>
@@ -930,9 +927,6 @@
   </si>
   <si>
     <t>Find sum of odd numbers and sum of even numbers in Array</t>
-  </si>
-  <si>
-    <t>Finding the missing numbers / Find the missing element 1 Using sum 2 Using XOR</t>
   </si>
   <si>
     <t>Find first duplicate element in Array</t>
@@ -1110,9 +1104,6 @@
     <t>Find middle element / node of a LinkedList</t>
   </si>
   <si>
-    <t>Sort LinkedList</t>
-  </si>
-  <si>
     <t>Merge two unsorted LinkedList</t>
   </si>
   <si>
@@ -1128,15 +1119,6 @@
     <t>Find common Elements of Two LinkedList</t>
   </si>
   <si>
-    <t>Find lowest common Elements of Two LinkedList</t>
-  </si>
-  <si>
-    <t>Remove duplicate elements from Sorted LinkedList</t>
-  </si>
-  <si>
-    <t>Remove duplicate elements from Unsorted LinkedList</t>
-  </si>
-  <si>
     <t>Delete N nodes after M nodes of a LinkedList</t>
   </si>
   <si>
@@ -1146,18 +1128,9 @@
     <t>Remove duplicate elements from Unsorted LinkedList Using HashMap</t>
   </si>
   <si>
-    <t>Find Kth node from LinkedList</t>
-  </si>
-  <si>
-    <t>Find Kth last node from LinkedList</t>
-  </si>
-  <si>
     <t>Check if loop is present in LinkedList</t>
   </si>
   <si>
-    <t>Check if loop is present in LinkedList and remove loop in LinkedList</t>
-  </si>
-  <si>
     <t>Delete middle Element from LinkedList / Delete middle node from LinkedList</t>
   </si>
   <si>
@@ -1176,15 +1149,9 @@
     <t>Check if two LinkedList are identical</t>
   </si>
   <si>
-    <t>Delete alternate nodes in LinkedList</t>
-  </si>
-  <si>
     <t>Move last node to front in LinkedList</t>
   </si>
   <si>
-    <t>Count occurrence of a value in LinkedList</t>
-  </si>
-  <si>
     <t>Swap Elements of given value without swapping data / Swap nodes of given value without swapping data in LinkedList</t>
   </si>
   <si>
@@ -1206,9 +1173,6 @@
     <t>Pairwise Swap Nodes of LinkedList</t>
   </si>
   <si>
-    <t>Pairwise Swap Elements of LinkedList</t>
-  </si>
-  <si>
     <t>Merge two LinkedList Alternatively</t>
   </si>
   <si>
@@ -1222,9 +1186,6 @@
   </si>
   <si>
     <t>Add two number represented as LinkedList using reverse</t>
-  </si>
-  <si>
-    <t>Add two number represented as LinkedList using recursion</t>
   </si>
   <si>
     <t>Subtract Two numbers represented as LinkedList</t>
@@ -1325,6 +1286,162 @@
   <si>
     <t>https://www.geeksforgeeks.org/word-break-problem-dp-32/
 https://www.techiedelight.com/word-break-problem/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dBBm5pltWe4&amp;list=PLt4nG7RVVk1gDMcCZkpjOxZS4XMro29DU&amp;index=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TVl23qUVTps&amp;list=PLt4nG7RVVk1gDMcCZkpjOxZS4XMro29DU&amp;index=2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6gXuLS92bh8&amp;list=PLt4nG7RVVk1gDMcCZkpjOxZS4XMro29DU&amp;index=3</t>
+  </si>
+  <si>
+    <t>Sort LinkedList Using Merge Sort</t>
+  </si>
+  <si>
+    <t>Merge two unsorted LinkedList and Remove Duplicates if present after merging</t>
+  </si>
+  <si>
+    <t>Merge two sorted LinkedList and Remove Duplicates if present after merging</t>
+  </si>
+  <si>
+    <t>Reverse LinkedList Using Recursion</t>
+  </si>
+  <si>
+    <t>Find lowest common Elements of Two LinkedList / Find first intersection point with lowest value in LinkedList</t>
+  </si>
+  <si>
+    <t>Remove duplicate elements from a Sorted LinkedList</t>
+  </si>
+  <si>
+    <t>Remove duplicate elements from an Unsorted LinkedList Using MergeSort</t>
+  </si>
+  <si>
+    <t>Find Kth node from LinkedList / Find Kth node from start of LinkedList</t>
+  </si>
+  <si>
+    <t>Find Kth last node from LinkedList / Find Kth node from end of LinkedList</t>
+  </si>
+  <si>
+    <t>Check if loop is present in LinkedList and find its length</t>
+  </si>
+  <si>
+    <t>Check if loop is present in LinkedList and remove loop in LinkedList / Detect and Remove Loop in LinkedList</t>
+  </si>
+  <si>
+    <t>Delete alternate nodes in LinkedList / Delete alternate elements in LinkedList</t>
+  </si>
+  <si>
+    <t>Pairwise Swap Elements of LinkedList / Swap alternate elements of LinkedList</t>
+  </si>
+  <si>
+    <t>Count occurrence of a given value in LinkedList</t>
+  </si>
+  <si>
+    <t>Reverse LinkedList Using Iteration</t>
+  </si>
+  <si>
+    <t>Add two number represented as LinkedList using recursion (Very Tough)</t>
+  </si>
+  <si>
+    <t>Find first K missing Positive Number from Unsorted Distinct Array</t>
+  </si>
+  <si>
+    <t>Reverse an array (By Copying Elements to new Array / By Swapping Array Elements / By using Collections.reverse(list)</t>
+  </si>
+  <si>
+    <t>Finding the missing positive number / Find the missing element 1 Using sum 2 Using XOR</t>
+  </si>
+  <si>
+    <t>Find first missing Positive Number Using Own Logic / Find smallest first missing positive number</t>
+  </si>
+  <si>
+    <t>String to int</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>String to long</t>
+  </si>
+  <si>
+    <t>String to float</t>
+  </si>
+  <si>
+    <t>String to double</t>
+  </si>
+  <si>
+    <t>String to char</t>
+  </si>
+  <si>
+    <t>String to Object</t>
+  </si>
+  <si>
+    <t>String to boolean</t>
+  </si>
+  <si>
+    <t>String to Date</t>
+  </si>
+  <si>
+    <t>String to char Array</t>
+  </si>
+  <si>
+    <t>String to int Array</t>
+  </si>
+  <si>
+    <t>String to double Array</t>
+  </si>
+  <si>
+    <t>String to ArrayList&lt;String&gt; / String to List</t>
+  </si>
+  <si>
+    <t>String to HashSet&lt;String&gt; / String to Set</t>
+  </si>
+  <si>
+    <t>String to String Array</t>
+  </si>
+  <si>
+    <t>String Array to String</t>
+  </si>
+  <si>
+    <t>int to String</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int to long</t>
+  </si>
+  <si>
+    <t>int to float</t>
+  </si>
+  <si>
+    <t>int to double</t>
+  </si>
+  <si>
+    <t>int to char</t>
+  </si>
+  <si>
+    <t>int to BigInteger</t>
+  </si>
+  <si>
+    <t>String to Integer</t>
+  </si>
+  <si>
+    <t>String to Long</t>
+  </si>
+  <si>
+    <t>String to Float</t>
+  </si>
+  <si>
+    <t>String to Double</t>
+  </si>
+  <si>
+    <t>String to Character</t>
+  </si>
+  <si>
+    <t>String to BigInteger</t>
   </si>
 </sst>
 </file>
@@ -1656,11 +1773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J601"/>
+  <dimension ref="A1:J1401"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J174" sqref="J174"/>
+      <pane ySplit="1" topLeftCell="A1010" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1031" sqref="B1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1682,10 +1799,10 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
         <v>99</v>
@@ -1729,7 +1846,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1851,7 +1968,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -1874,7 +1991,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1920,7 +2037,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -1977,7 +2094,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -1994,7 +2111,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2011,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -2028,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2143,13 +2260,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2158,7 +2275,7 @@
         <v>78</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3057,7 +3174,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C90" t="s">
         <v>26</v>
@@ -3262,7 +3379,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C101" t="s">
         <v>26</v>
@@ -3339,7 +3456,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C105" t="s">
         <v>26</v>
@@ -3419,7 +3536,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C109" t="s">
         <v>26</v>
@@ -3434,7 +3551,7 @@
         <v>78</v>
       </c>
       <c r="I109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -3442,7 +3559,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C110" t="s">
         <v>26</v>
@@ -3462,7 +3579,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
         <v>26</v>
@@ -3505,7 +3622,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
@@ -3599,7 +3716,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>438</v>
       </c>
       <c r="C118" t="s">
         <v>26</v>
@@ -3608,7 +3725,7 @@
         <v>120</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" t="s">
         <v>78</v>
@@ -3619,7 +3736,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C119" t="s">
         <v>64</v>
@@ -3639,7 +3756,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C120" t="s">
         <v>64</v>
@@ -3656,7 +3773,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C121" t="s">
         <v>26</v>
@@ -3676,7 +3793,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C122" t="s">
         <v>26</v>
@@ -3696,7 +3813,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C123" t="s">
         <v>26</v>
@@ -3716,10 +3833,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C124" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -3733,7 +3850,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C125" t="s">
         <v>26</v>
@@ -3753,7 +3870,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C126" t="s">
         <v>46</v>
@@ -3770,7 +3887,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C127" t="s">
         <v>46</v>
@@ -3787,7 +3904,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C128" t="s">
         <v>46</v>
@@ -3804,7 +3921,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C129" t="s">
         <v>46</v>
@@ -3821,7 +3938,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C130" t="s">
         <v>46</v>
@@ -3838,7 +3955,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C131" t="s">
         <v>46</v>
@@ -3850,7 +3967,7 @@
         <v>78</v>
       </c>
       <c r="H131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -3858,7 +3975,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C132" t="s">
         <v>46</v>
@@ -3870,7 +3987,7 @@
         <v>78</v>
       </c>
       <c r="H132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -3878,7 +3995,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C133" t="s">
         <v>46</v>
@@ -3892,7 +4009,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C134" t="s">
         <v>46</v>
@@ -3909,7 +4026,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C135" t="s">
         <v>26</v>
@@ -3929,7 +4046,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C136" t="s">
         <v>26</v>
@@ -3949,7 +4066,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C137" t="s">
         <v>26</v>
@@ -3969,7 +4086,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C138" t="s">
         <v>26</v>
@@ -3989,7 +4106,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C139" t="s">
         <v>26</v>
@@ -4009,7 +4126,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C140" t="s">
         <v>26</v>
@@ -4024,7 +4141,7 @@
         <v>78</v>
       </c>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4032,7 +4149,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C141" t="s">
         <v>26</v>
@@ -4052,7 +4169,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C142" t="s">
         <v>26</v>
@@ -4072,7 +4189,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C143" t="s">
         <v>26</v>
@@ -4092,7 +4209,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C144" t="s">
         <v>26</v>
@@ -4112,7 +4229,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C145" t="s">
         <v>26</v>
@@ -4132,7 +4249,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C146" t="s">
         <v>26</v>
@@ -4152,7 +4269,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C147" t="s">
         <v>26</v>
@@ -4172,7 +4289,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C148" t="s">
         <v>26</v>
@@ -4192,7 +4309,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C149" t="s">
         <v>26</v>
@@ -4209,7 +4326,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C150" t="s">
         <v>26</v>
@@ -4226,7 +4343,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C151" t="s">
         <v>26</v>
@@ -4246,7 +4363,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C152" t="s">
         <v>26</v>
@@ -4266,7 +4383,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C153" t="s">
         <v>26</v>
@@ -4286,7 +4403,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C154" t="s">
         <v>26</v>
@@ -4301,7 +4418,7 @@
         <v>78</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -4309,7 +4426,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C155" t="s">
         <v>26</v>
@@ -4324,7 +4441,7 @@
         <v>78</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -4332,7 +4449,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C156" t="s">
         <v>26</v>
@@ -4347,7 +4464,7 @@
         <v>78</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -4355,13 +4472,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C157" t="s">
         <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E157">
         <v>2</v>
@@ -4370,7 +4487,7 @@
         <v>78</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -4378,7 +4495,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C158" t="s">
         <v>26</v>
@@ -4393,7 +4510,7 @@
         <v>78</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -4401,7 +4518,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C159" t="s">
         <v>26</v>
@@ -4415,7 +4532,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C160" t="s">
         <v>26</v>
@@ -4430,7 +4547,7 @@
         <v>78</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -4438,7 +4555,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C161" t="s">
         <v>26</v>
@@ -4453,7 +4570,7 @@
         <v>78</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -4461,7 +4578,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C162" t="s">
         <v>26</v>
@@ -4479,10 +4596,10 @@
         <v>21</v>
       </c>
       <c r="H162" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -4490,7 +4607,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C163" t="s">
         <v>26</v>
@@ -4511,7 +4628,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="C164" t="s">
         <v>64</v>
@@ -4526,7 +4643,7 @@
         <v>78</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -4534,13 +4651,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C165" t="s">
         <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -4548,13 +4665,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C166" t="s">
         <v>26</v>
       </c>
       <c r="D166" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E166">
         <v>2</v>
@@ -4568,7 +4685,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -4576,7 +4693,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -4584,7 +4701,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -4592,7 +4709,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C170" t="s">
         <v>64</v>
@@ -4604,7 +4721,7 @@
         <v>78</v>
       </c>
       <c r="G170" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H170" t="s">
         <v>22</v>
@@ -4615,7 +4732,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C171" t="s">
         <v>64</v>
@@ -4632,16 +4749,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C172" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F172" t="s">
         <v>78</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -4649,16 +4766,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C173" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F173" t="s">
         <v>78</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -4666,7 +4783,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E174">
         <v>3</v>
@@ -4675,7 +4792,7 @@
         <v>78</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -4683,7 +4800,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -4691,7 +4808,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -4699,7 +4816,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -4707,7 +4824,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -4715,7 +4832,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -4723,7 +4840,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C180" t="s">
         <v>26</v>
@@ -4738,7 +4855,7 @@
         <v>78</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -4746,7 +4863,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C181" t="s">
         <v>26</v>
@@ -4761,7 +4878,7 @@
         <v>78</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -4769,7 +4886,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C182" t="s">
         <v>26</v>
@@ -4783,7 +4900,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C183" t="s">
         <v>26</v>
@@ -4797,7 +4914,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C184" t="s">
         <v>26</v>
@@ -4817,7 +4934,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C185" t="s">
         <v>26</v>
@@ -4832,7 +4949,7 @@
         <v>78</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -4840,7 +4957,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -4848,7 +4965,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C187" t="s">
         <v>26</v>
@@ -4868,7 +4985,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C188" t="s">
         <v>26</v>
@@ -4883,7 +5000,7 @@
         <v>78</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -4891,7 +5008,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C189" t="s">
         <v>26</v>
@@ -4911,7 +5028,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C190" t="s">
         <v>26</v>
@@ -4931,7 +5048,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C191" t="s">
         <v>26</v>
@@ -4951,7 +5068,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C192" t="s">
         <v>26</v>
@@ -4971,7 +5088,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C193" t="s">
         <v>26</v>
@@ -4991,7 +5108,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C194" t="s">
         <v>26</v>
@@ -5011,7 +5128,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C195" t="s">
         <v>26</v>
@@ -5031,7 +5148,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C196" t="s">
         <v>26</v>
@@ -5051,7 +5168,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C197" t="s">
         <v>26</v>
@@ -5071,10 +5188,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C198" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D198" t="s">
         <v>120</v>
@@ -5091,10 +5208,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C199" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D199" t="s">
         <v>120</v>
@@ -5111,10 +5228,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C200" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D200" t="s">
         <v>120</v>
@@ -5131,10 +5248,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C201" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D201" t="s">
         <v>120</v>
@@ -5151,13 +5268,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C202" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -5171,13 +5288,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C203" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D203" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -5191,13 +5308,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C204" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D204" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -5211,13 +5328,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C205" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D205" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -5231,13 +5348,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C206" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D206" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -5251,13 +5368,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C207" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D207" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -5271,13 +5388,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C208" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D208" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -5291,13 +5408,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C209" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D209" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -5311,13 +5428,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C210" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D210" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -5331,13 +5448,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C211" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D211" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -5351,13 +5468,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C212" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D212" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -5371,13 +5488,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C213" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D213" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -5391,13 +5508,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C214" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D214" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -5411,13 +5528,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C215" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D215" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -5431,13 +5548,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>198</v>
+      </c>
+      <c r="C216" t="s">
+        <v>169</v>
+      </c>
+      <c r="D216" t="s">
         <v>199</v>
-      </c>
-      <c r="C216" t="s">
-        <v>170</v>
-      </c>
-      <c r="D216" t="s">
-        <v>200</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -5451,13 +5568,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>200</v>
+      </c>
+      <c r="C217" t="s">
+        <v>169</v>
+      </c>
+      <c r="D217" t="s">
         <v>201</v>
-      </c>
-      <c r="C217" t="s">
-        <v>170</v>
-      </c>
-      <c r="D217" t="s">
-        <v>202</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -5471,13 +5588,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C218" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D218" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -5491,13 +5608,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C219" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D219" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -5511,13 +5628,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C220" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D220" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -5531,13 +5648,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C221" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D221" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -5551,13 +5668,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C222" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D222" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -5571,13 +5688,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C223" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D223" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -5591,13 +5708,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C224" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D224" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -5611,13 +5728,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C225" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D225" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -5631,13 +5748,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C226" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D226" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -5651,13 +5768,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C227" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D227" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -5671,13 +5788,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C228" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D228" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -5691,13 +5808,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C229" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D229" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -5711,13 +5828,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C230" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D230" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -5731,13 +5848,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C231" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D231" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -5751,13 +5868,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C232" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D232" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -5771,13 +5888,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C233" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D233" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -5791,13 +5908,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C234" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D234" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -5811,13 +5928,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C235" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D235" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -5831,13 +5948,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C236" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D236" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -5886,7 +6003,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C244" t="s">
         <v>64</v>
@@ -5903,7 +6020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C245" t="s">
         <v>26</v>
@@ -5923,7 +6040,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C246" t="s">
         <v>26</v>
@@ -5940,7 +6057,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C247" t="s">
         <v>26</v>
@@ -5957,7 +6074,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C248" t="s">
         <v>26</v>
@@ -5969,7 +6086,7 @@
         <v>3</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -5977,13 +6094,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C249" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D249" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E249">
         <v>3</v>
@@ -5992,7 +6109,7 @@
         <v>78</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -6000,10 +6117,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C250" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D250" t="s">
         <v>120</v>
@@ -6015,7 +6132,7 @@
         <v>78</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -6023,10 +6140,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C251" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E251">
         <v>3</v>
@@ -6035,7 +6152,7 @@
         <v>78</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -6043,10 +6160,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C252" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E252">
         <v>3</v>
@@ -6060,10 +6177,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C253" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E253">
         <v>2</v>
@@ -6077,10 +6194,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C254" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D254" t="s">
         <v>120</v>
@@ -6097,7 +6214,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C255" t="s">
         <v>26</v>
@@ -6117,10 +6234,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C256" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -6134,10 +6251,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C257" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E257">
         <v>3</v>
@@ -6151,10 +6268,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C258" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E258">
         <v>3</v>
@@ -6168,10 +6285,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C259" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E259">
         <v>3</v>
@@ -6185,7 +6302,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C260" t="s">
         <v>26</v>
@@ -6205,7 +6322,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
@@ -6220,7 +6337,7 @@
         <v>78</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -6228,7 +6345,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
@@ -6243,7 +6360,7 @@
         <v>78</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6251,7 +6368,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
@@ -6266,7 +6383,7 @@
         <v>78</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -6274,7 +6391,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
@@ -6294,7 +6411,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
@@ -6309,7 +6426,7 @@
         <v>78</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -6317,7 +6434,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C266" t="s">
         <v>26</v>
@@ -6332,18 +6449,48 @@
         <v>78</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
+      <c r="B267" t="s">
+        <v>440</v>
+      </c>
+      <c r="C267" t="s">
+        <v>26</v>
+      </c>
+      <c r="D267" t="s">
+        <v>120</v>
+      </c>
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
+      <c r="B268" t="s">
+        <v>437</v>
+      </c>
+      <c r="C268" t="s">
+        <v>26</v>
+      </c>
+      <c r="D268" t="s">
+        <v>120</v>
+      </c>
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
@@ -6515,7 +6662,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C302" t="s">
         <v>26</v>
@@ -6535,7 +6682,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C303" t="s">
         <v>26</v>
@@ -6555,7 +6702,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C304" t="s">
         <v>26</v>
@@ -6570,12 +6717,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C305" t="s">
         <v>26</v>
@@ -6586,13 +6733,19 @@
       <c r="E305">
         <v>3</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F305" t="s">
+        <v>78</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C306" t="s">
         <v>26</v>
@@ -6603,13 +6756,19 @@
       <c r="E306">
         <v>3</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F306" t="s">
+        <v>78</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C307" t="s">
         <v>26</v>
@@ -6620,13 +6779,19 @@
       <c r="E307">
         <v>3</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F307" t="s">
+        <v>78</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C308" t="s">
         <v>26</v>
@@ -6637,13 +6802,16 @@
       <c r="E308">
         <v>3</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F308" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C309" t="s">
         <v>26</v>
@@ -6654,13 +6822,16 @@
       <c r="E309">
         <v>3</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F309" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C310" t="s">
         <v>26</v>
@@ -6671,13 +6842,16 @@
       <c r="E310">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F310" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C311" t="s">
         <v>26</v>
@@ -6688,13 +6862,16 @@
       <c r="E311">
         <v>3</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F311" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C312" t="s">
         <v>26</v>
@@ -6705,13 +6882,16 @@
       <c r="E312">
         <v>3</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F312" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C313" t="s">
         <v>26</v>
@@ -6722,13 +6902,16 @@
       <c r="E313">
         <v>3</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F313" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C314" t="s">
         <v>26</v>
@@ -6739,13 +6922,16 @@
       <c r="E314">
         <v>3</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F314" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C315" t="s">
         <v>26</v>
@@ -6756,13 +6942,16 @@
       <c r="E315">
         <v>3</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F315" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C316" t="s">
         <v>26</v>
@@ -6773,13 +6962,16 @@
       <c r="E316">
         <v>3</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F316" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C317" t="s">
         <v>26</v>
@@ -6790,13 +6982,16 @@
       <c r="E317">
         <v>3</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F317" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="C318" t="s">
         <v>26</v>
@@ -6807,13 +7002,16 @@
       <c r="E318">
         <v>3</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F318" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C319" t="s">
         <v>26</v>
@@ -6824,13 +7022,16 @@
       <c r="E319">
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F319" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C320" t="s">
         <v>26</v>
@@ -6841,13 +7042,16 @@
       <c r="E320">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F320" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="C321" t="s">
         <v>26</v>
@@ -6856,15 +7060,18 @@
         <v>28</v>
       </c>
       <c r="E321">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F321" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>363</v>
+        <v>423</v>
       </c>
       <c r="C322" t="s">
         <v>26</v>
@@ -6873,15 +7080,18 @@
         <v>28</v>
       </c>
       <c r="E322">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F322" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C323" t="s">
         <v>26</v>
@@ -6890,15 +7100,18 @@
         <v>28</v>
       </c>
       <c r="E323">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F323" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C324" t="s">
         <v>26</v>
@@ -6907,15 +7120,18 @@
         <v>28</v>
       </c>
       <c r="E324">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F324" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C325" t="s">
         <v>26</v>
@@ -6924,15 +7140,18 @@
         <v>28</v>
       </c>
       <c r="E325">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F325" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="C326" t="s">
         <v>26</v>
@@ -6941,15 +7160,18 @@
         <v>28</v>
       </c>
       <c r="E326">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F326" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="C327" t="s">
         <v>26</v>
@@ -6958,15 +7180,18 @@
         <v>28</v>
       </c>
       <c r="E327">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F327" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="C328" t="s">
         <v>26</v>
@@ -6975,15 +7200,18 @@
         <v>28</v>
       </c>
       <c r="E328">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F328" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C329" t="s">
         <v>26</v>
@@ -6992,15 +7220,18 @@
         <v>28</v>
       </c>
       <c r="E329">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F329" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C330" t="s">
         <v>26</v>
@@ -7009,15 +7240,18 @@
         <v>28</v>
       </c>
       <c r="E330">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F330" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C331" t="s">
         <v>26</v>
@@ -7026,15 +7260,18 @@
         <v>28</v>
       </c>
       <c r="E331">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F331" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="C332" t="s">
         <v>26</v>
@@ -7043,15 +7280,18 @@
         <v>28</v>
       </c>
       <c r="E332">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F332" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="C333" t="s">
         <v>26</v>
@@ -7060,15 +7300,18 @@
         <v>28</v>
       </c>
       <c r="E333">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F333" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C334" t="s">
         <v>26</v>
@@ -7077,15 +7320,18 @@
         <v>28</v>
       </c>
       <c r="E334">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F334" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="C335" t="s">
         <v>26</v>
@@ -7094,15 +7340,18 @@
         <v>28</v>
       </c>
       <c r="E335">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F335" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C336" t="s">
         <v>26</v>
@@ -7111,7 +7360,10 @@
         <v>28</v>
       </c>
       <c r="E336">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="F336" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
@@ -7119,7 +7371,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C337" t="s">
         <v>26</v>
@@ -7128,7 +7380,10 @@
         <v>28</v>
       </c>
       <c r="E337">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="F337" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -7136,7 +7391,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C338" t="s">
         <v>26</v>
@@ -7145,7 +7400,10 @@
         <v>28</v>
       </c>
       <c r="E338">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="F338" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
@@ -7153,7 +7411,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C339" t="s">
         <v>26</v>
@@ -7162,7 +7420,10 @@
         <v>28</v>
       </c>
       <c r="E339">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="F339" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
@@ -7170,7 +7431,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="C340" t="s">
         <v>26</v>
@@ -7179,7 +7440,10 @@
         <v>28</v>
       </c>
       <c r="E340">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="F340" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -7187,7 +7451,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C341" t="s">
         <v>26</v>
@@ -7196,7 +7460,10 @@
         <v>28</v>
       </c>
       <c r="E341">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="F341" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
@@ -7204,7 +7471,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="C342" t="s">
         <v>26</v>
@@ -7213,7 +7480,10 @@
         <v>28</v>
       </c>
       <c r="E342">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="F342" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
@@ -7221,7 +7491,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="C343" t="s">
         <v>26</v>
@@ -7230,7 +7500,10 @@
         <v>28</v>
       </c>
       <c r="E343">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="F343" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -7238,7 +7511,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C344" t="s">
         <v>26</v>
@@ -7247,7 +7520,10 @@
         <v>28</v>
       </c>
       <c r="E344">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="F344" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -7255,7 +7531,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="C345" t="s">
         <v>26</v>
@@ -7264,7 +7540,10 @@
         <v>28</v>
       </c>
       <c r="E345">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="F345" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
@@ -7272,7 +7551,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C346" t="s">
         <v>26</v>
@@ -7281,7 +7560,10 @@
         <v>28</v>
       </c>
       <c r="E346">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="F346" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -7289,7 +7571,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C347" t="s">
         <v>26</v>
@@ -7298,7 +7580,10 @@
         <v>28</v>
       </c>
       <c r="E347">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="F347" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
@@ -7306,7 +7591,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C348" t="s">
         <v>26</v>
@@ -7315,7 +7600,10 @@
         <v>28</v>
       </c>
       <c r="E348">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="F348" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
@@ -7323,7 +7611,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C349" t="s">
         <v>26</v>
@@ -7332,7 +7620,10 @@
         <v>28</v>
       </c>
       <c r="E349">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="F349" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
@@ -7340,7 +7631,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C350" t="s">
         <v>26</v>
@@ -7349,7 +7640,10 @@
         <v>28</v>
       </c>
       <c r="E350">
-        <v>33</v>
+        <v>3</v>
+      </c>
+      <c r="F350" t="s">
+        <v>78</v>
       </c>
       <c r="H350" t="s">
         <v>78</v>
@@ -7360,7 +7654,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C351" t="s">
         <v>26</v>
@@ -7369,7 +7663,10 @@
         <v>28</v>
       </c>
       <c r="E351">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="F351" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
@@ -7377,7 +7674,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C352" t="s">
         <v>26</v>
@@ -7386,15 +7683,18 @@
         <v>28</v>
       </c>
       <c r="E352">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F352" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C353" t="s">
         <v>26</v>
@@ -7403,15 +7703,18 @@
         <v>28</v>
       </c>
       <c r="E353">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F353" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C354" t="s">
         <v>26</v>
@@ -7420,15 +7723,18 @@
         <v>28</v>
       </c>
       <c r="E354">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F354" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C355" t="s">
         <v>26</v>
@@ -7437,15 +7743,18 @@
         <v>28</v>
       </c>
       <c r="E355">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F355" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C356" t="s">
         <v>26</v>
@@ -7454,15 +7763,18 @@
         <v>28</v>
       </c>
       <c r="E356">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F356" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C357" t="s">
         <v>26</v>
@@ -7471,15 +7783,18 @@
         <v>28</v>
       </c>
       <c r="E357">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F357" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="C358" t="s">
         <v>26</v>
@@ -7488,15 +7803,15 @@
         <v>28</v>
       </c>
       <c r="E358">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C359" t="s">
         <v>26</v>
@@ -7505,15 +7820,15 @@
         <v>28</v>
       </c>
       <c r="E359">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C360" t="s">
         <v>26</v>
@@ -7522,15 +7837,15 @@
         <v>28</v>
       </c>
       <c r="E360">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C361" t="s">
         <v>26</v>
@@ -7539,15 +7854,15 @@
         <v>28</v>
       </c>
       <c r="E361">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C362" t="s">
         <v>26</v>
@@ -7556,15 +7871,15 @@
         <v>28</v>
       </c>
       <c r="E362">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C363" t="s">
         <v>26</v>
@@ -7573,15 +7888,15 @@
         <v>28</v>
       </c>
       <c r="E363">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C364" t="s">
         <v>26</v>
@@ -7590,15 +7905,15 @@
         <v>28</v>
       </c>
       <c r="E364">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C365" t="s">
         <v>26</v>
@@ -7607,15 +7922,15 @@
         <v>28</v>
       </c>
       <c r="E365">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C366" t="s">
         <v>26</v>
@@ -7624,15 +7939,15 @@
         <v>28</v>
       </c>
       <c r="E366">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C367" t="s">
         <v>26</v>
@@ -7641,15 +7956,15 @@
         <v>28</v>
       </c>
       <c r="E367">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C368" t="s">
         <v>26</v>
@@ -7658,7 +7973,7 @@
         <v>28</v>
       </c>
       <c r="E368">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -7666,7 +7981,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="C369" t="s">
         <v>26</v>
@@ -7675,7 +7990,7 @@
         <v>28</v>
       </c>
       <c r="E369">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
@@ -7683,7 +7998,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C370" t="s">
         <v>26</v>
@@ -7692,7 +8007,7 @@
         <v>28</v>
       </c>
       <c r="E370">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
@@ -7700,7 +8015,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C371" t="s">
         <v>26</v>
@@ -7709,7 +8024,7 @@
         <v>28</v>
       </c>
       <c r="E371">
-        <v>54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -7717,7 +8032,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C372" t="s">
         <v>26</v>
@@ -7726,7 +8041,7 @@
         <v>28</v>
       </c>
       <c r="E372">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -7734,7 +8049,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C373" t="s">
         <v>26</v>
@@ -7743,7 +8058,7 @@
         <v>28</v>
       </c>
       <c r="E373">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -7751,7 +8066,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C374" t="s">
         <v>26</v>
@@ -7760,7 +8075,7 @@
         <v>28</v>
       </c>
       <c r="E374">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
@@ -7768,7 +8083,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C375" t="s">
         <v>26</v>
@@ -7777,7 +8092,7 @@
         <v>28</v>
       </c>
       <c r="E375">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
@@ -7785,7 +8100,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="C376" t="s">
         <v>26</v>
@@ -7794,7 +8109,7 @@
         <v>28</v>
       </c>
       <c r="E376">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
@@ -7802,7 +8117,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="C377" t="s">
         <v>26</v>
@@ -7811,7 +8126,7 @@
         <v>28</v>
       </c>
       <c r="E377">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
@@ -7819,7 +8134,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C378" t="s">
         <v>26</v>
@@ -7828,7 +8143,7 @@
         <v>28</v>
       </c>
       <c r="E378">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
@@ -7836,7 +8151,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C379" t="s">
         <v>26</v>
@@ -7845,7 +8160,7 @@
         <v>28</v>
       </c>
       <c r="E379">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
@@ -7853,7 +8168,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C380" t="s">
         <v>26</v>
@@ -7862,7 +8177,7 @@
         <v>28</v>
       </c>
       <c r="E380">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
@@ -7870,7 +8185,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C381" t="s">
         <v>26</v>
@@ -7879,7 +8194,7 @@
         <v>28</v>
       </c>
       <c r="E381">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -7887,7 +8202,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C382" t="s">
         <v>26</v>
@@ -7896,7 +8211,7 @@
         <v>28</v>
       </c>
       <c r="E382">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
@@ -7904,7 +8219,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="C383" t="s">
         <v>26</v>
@@ -7913,7 +8228,7 @@
         <v>28</v>
       </c>
       <c r="E383">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
@@ -7921,7 +8236,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C384" t="s">
         <v>26</v>
@@ -7930,15 +8245,15 @@
         <v>28</v>
       </c>
       <c r="E384">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C385" t="s">
         <v>26</v>
@@ -7947,15 +8262,15 @@
         <v>28</v>
       </c>
       <c r="E385">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C386" t="s">
         <v>26</v>
@@ -7964,15 +8279,15 @@
         <v>28</v>
       </c>
       <c r="E386">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C387" t="s">
         <v>26</v>
@@ -7981,15 +8296,15 @@
         <v>28</v>
       </c>
       <c r="E387">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="C388" t="s">
         <v>26</v>
@@ -7998,65 +8313,134 @@
         <v>28</v>
       </c>
       <c r="E388">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B389" t="s">
+        <v>415</v>
+      </c>
+      <c r="C389" t="s">
+        <v>26</v>
+      </c>
+      <c r="D389" t="s">
+        <v>28</v>
+      </c>
+      <c r="E389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B390" t="s">
+        <v>416</v>
+      </c>
+      <c r="C390" t="s">
+        <v>26</v>
+      </c>
+      <c r="D390" t="s">
+        <v>28</v>
+      </c>
+      <c r="E390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B391" t="s">
+        <v>424</v>
+      </c>
+      <c r="C391" t="s">
+        <v>26</v>
+      </c>
+      <c r="D391" t="s">
+        <v>28</v>
+      </c>
+      <c r="E391">
+        <v>3</v>
+      </c>
+      <c r="F391" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B392" t="s">
+        <v>430</v>
+      </c>
+      <c r="C392" t="s">
+        <v>26</v>
+      </c>
+      <c r="D392" t="s">
+        <v>28</v>
+      </c>
+      <c r="E392">
+        <v>3</v>
+      </c>
+      <c r="F392" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B393" t="s">
+        <v>435</v>
+      </c>
+      <c r="C393" t="s">
+        <v>26</v>
+      </c>
+      <c r="D393" t="s">
+        <v>28</v>
+      </c>
+      <c r="E393">
+        <v>3</v>
+      </c>
+      <c r="F393" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>399</v>
       </c>
@@ -8821,13 +9205,13 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C552" t="s">
         <v>26</v>
       </c>
       <c r="D552" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E552">
         <v>3</v>
@@ -8841,13 +9225,13 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C553" t="s">
         <v>26</v>
       </c>
       <c r="D553" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E553">
         <v>3</v>
@@ -8901,13 +9285,13 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C562" t="s">
         <v>26</v>
       </c>
       <c r="D562" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E562">
         <v>3</v>
@@ -9016,13 +9400,13 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C582" t="s">
         <v>26</v>
       </c>
       <c r="D582" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E582">
         <v>3</v>
@@ -9036,13 +9420,13 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C583" t="s">
         <v>26</v>
       </c>
       <c r="D583" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E583">
         <v>3</v>
@@ -9056,13 +9440,13 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C584" t="s">
         <v>26</v>
       </c>
       <c r="D584" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E584">
         <v>3</v>
@@ -9076,13 +9460,13 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C585" t="s">
         <v>26</v>
       </c>
       <c r="D585" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E585">
         <v>3</v>
@@ -9171,13 +9555,4361 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C601" t="s">
         <v>26</v>
       </c>
       <c r="D601" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A857">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A858">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A859">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A860">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A861">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A862">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A863">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A864">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A865">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A866">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A867">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A868">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A870">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A871">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A872">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A873">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A874">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A876">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A877">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A879">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A901">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A902">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A967">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A968">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A969">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A970">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A972">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A973">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A974">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A975">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A976">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A977">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A978">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A979">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A980">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A981">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A982">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A983">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A984">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A985">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A986">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A987">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A988">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A990">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A992">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1001">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1002">
+        <v>1001</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1003">
+        <v>1002</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>1003</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>1004</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>1005</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>1006</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>1007</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>1008</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>449</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <v>1009</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <v>1010</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <v>1011</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <v>1012</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <v>1013</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <v>1014</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <v>1015</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>1016</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <v>1017</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <v>1018</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <v>1019</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <v>1020</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <v>1021</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <v>1022</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <v>1023</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <v>1024</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <v>1025</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <v>1026</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <v>1027</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <v>1028</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <v>1029</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <v>1030</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <v>1031</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <v>1032</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>1033</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <v>1034</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <v>1035</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1046">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1047">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1048">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1049">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1050">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1051">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1052">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1053">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1054">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1055">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1056">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1057">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1058">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1059">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1060">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1061">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1062">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1063">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1064">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1065">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1066">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1067">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1069">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1070">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1071">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1072">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1073">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1074">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1075">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1076">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1077">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1078">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1079">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1080">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1082">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1083">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1084">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1085">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1086">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1087">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1088">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1089">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1090">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1091">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1092">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1093">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1094">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1095">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1096">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1097">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1098">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1099">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1100">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1101">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1102">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1103">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1104">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1105">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1106">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1107">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1108">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1109">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1110">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1111">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1112">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1113">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1114">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1115">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1116">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1117">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1118">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1119">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1120">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1121">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1122">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1123">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1124">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1125">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1126">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1127">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1128">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1129">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1130">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1131">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1132">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1133">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1134">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1135">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1136">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1137">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1138">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1139">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1140">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1141">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1142">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1143">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1144">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1145">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1146">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1147">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1148">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1149">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1150">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1151">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1152">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1153">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1154">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1155">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1156">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1157">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1158">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1159">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1160">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1161">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1162">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1163">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1164">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1165">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1166">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1167">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1168">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1169">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1170">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1171">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1172">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1173">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1174">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1175">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1176">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1177">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1178">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1179">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1180">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1181">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1182">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1183">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1184">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1185">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1186">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1187">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1188">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1189">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1190">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1191">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1192">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1193">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1194">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1195">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1196">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1197">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1198">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1199">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1200">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1201">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1202">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1203">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1204">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1205">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1206">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1207">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1208">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1209">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1210">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1211">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1212">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1213">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1214">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1215">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1216">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1217">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1218">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1219">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1220">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1221">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1222">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1223">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1224">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1225">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1226">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1227">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1228">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1229">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1230">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1231">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1232">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1233">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1234">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1235">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1236">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1237">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1238">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1239">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1240">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1241">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1242">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1243">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1244">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1245">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1246">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1247">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1248">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1249">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1250">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1251">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1252">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1253">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1254">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1255">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1256">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1257">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1258">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1259">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1260">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1261">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1262">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1263">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1264">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1265">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1266">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1267">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1268">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1269">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1270">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1271">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1272">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1273">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1274">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1275">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1276">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1277">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1278">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1279">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1280">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1281">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1282">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1283">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1284">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1285">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1286">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1287">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1288">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1289">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1290">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1291">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1292">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1293">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1294">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1295">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1296">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1297">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1298">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1299">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1300">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1301">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1302">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1303">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1304">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1305">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1306">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1307">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1308">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1309">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1310">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1311">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1312">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1313">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1314">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1315">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1316">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1317">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1318">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1319">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1320">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1321">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1322">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1323">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1324">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1325">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1326">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1327">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1328">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1329">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1330">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1331">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1332">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1333">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1334">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1335">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1336">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1337">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1338">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1339">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1340">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1341">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1342">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1343">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1344">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1345">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1346">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1347">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1348">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1349">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1350">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1351">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1352">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1353">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1354">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1355">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1356">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1357">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1358">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1359">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1360">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1361">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1362">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1363">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1364">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1365">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1366">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1367">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1368">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1369">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1370">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1371">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1372">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1373">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1374">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1375">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1376">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1377">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1378">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1379">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1380">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1381">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1382">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1383">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1384">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1385">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1386">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1387">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1388">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1389">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1390">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1391">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1392">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1393">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1394">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1395">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1396">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1397">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1398">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1399">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1400">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1401">
+        <v>1400</v>
       </c>
     </row>
   </sheetData>
@@ -9217,6 +13949,9 @@
     <hyperlink ref="I161" r:id="rId32"/>
     <hyperlink ref="I172" r:id="rId33"/>
     <hyperlink ref="I173" r:id="rId34"/>
+    <hyperlink ref="I305" r:id="rId35"/>
+    <hyperlink ref="I306" r:id="rId36"/>
+    <hyperlink ref="I307" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java_all.xlsx
+++ b/java_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="460" windowWidth="21300" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="9160" yWindow="1040" windowWidth="21300" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="519">
   <si>
     <t>Sorting</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Reverse String Using StringBuffer</t>
   </si>
   <si>
-    <t>Reverse String Using Array Reversal</t>
-  </si>
-  <si>
     <t>Thread using implements</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>Sum of Digits of a Number</t>
   </si>
   <si>
-    <t>Reverse String Word By Word</t>
-  </si>
-  <si>
     <t>Thread using Anonymous Class</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
   </si>
   <si>
     <t>Count Number of Characters without Map</t>
-  </si>
-  <si>
-    <t>Check if Two Strings are anagrams or not</t>
   </si>
   <si>
     <t>Palindrome String using inbuilt function</t>
@@ -1423,9 +1414,6 @@
     <t>int to char</t>
   </si>
   <si>
-    <t>int to BigInteger</t>
-  </si>
-  <si>
     <t>String to Integer</t>
   </si>
   <si>
@@ -1442,6 +1430,167 @@
   </si>
   <si>
     <t>String to BigInteger</t>
+  </si>
+  <si>
+    <t>int to int Array</t>
+  </si>
+  <si>
+    <t>int to Long</t>
+  </si>
+  <si>
+    <t>int to Integer</t>
+  </si>
+  <si>
+    <t>int to Float</t>
+  </si>
+  <si>
+    <t>int to Double</t>
+  </si>
+  <si>
+    <t>int Array to Integer Array</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/convert-int-array-integer-array-java/</t>
+  </si>
+  <si>
+    <t>long to String</t>
+  </si>
+  <si>
+    <t>long to int</t>
+  </si>
+  <si>
+    <t>long to Long</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>String Array to Character Array</t>
+  </si>
+  <si>
+    <t>String to StringBuffer</t>
+  </si>
+  <si>
+    <t>String to StringBuilder</t>
+  </si>
+  <si>
+    <t>String Array to StringBuffer</t>
+  </si>
+  <si>
+    <t>String Array to StringBuilder</t>
+  </si>
+  <si>
+    <t>String to JSON</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/gson-string-to-jsonobject</t>
+  </si>
+  <si>
+    <t>String to JSON Array</t>
+  </si>
+  <si>
+    <t>Find longest subarray with all 1s if at max k 0s can be replaced with 1s</t>
+  </si>
+  <si>
+    <t>Find longest subarray with all 1s / Find count of maximum consecutive 1s</t>
+  </si>
+  <si>
+    <t>Create your own Circular Singly LinkedList / Implement a Circular Singly LinkedList</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2maH3KbLkAE
+https://kkjavatutorials.com/implementing-a-circular-singly-linked-list-in-java/</t>
+  </si>
+  <si>
+    <t>Print first character of every word in a String</t>
+  </si>
+  <si>
+    <t>Trim the String</t>
+  </si>
+  <si>
+    <t>Replace the Character by another Character</t>
+  </si>
+  <si>
+    <t>Reverse String Using char Array</t>
+  </si>
+  <si>
+    <t>Reverse String Using Stack</t>
+  </si>
+  <si>
+    <t>Reverse String Word By Word / Reverse Individual Words in Given String</t>
+  </si>
+  <si>
+    <t>Find number of substrings which start and end with same character</t>
+  </si>
+  <si>
+    <t>Find number of ordered triplets in 2 arrays</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VojNNJS0dBc&amp;list=PLt4nG7RVVk1gp0v3wg7gWB26lRzseuHQz&amp;index=7</t>
+  </si>
+  <si>
+    <t>Reverse Words in given String / Reverse order of words in Given String</t>
+  </si>
+  <si>
+    <t>Find and Print all unique Characters in given String Using Set</t>
+  </si>
+  <si>
+    <t>Find number of unique Characters in given String Using Set</t>
+  </si>
+  <si>
+    <t>Find longest substring length with K distinct characters Using Map</t>
+  </si>
+  <si>
+    <t>Find longest substring length with no repeating characters</t>
+  </si>
+  <si>
+    <t>Find longest substring with no repeating characters</t>
+  </si>
+  <si>
+    <t>Compare two string with backspace characters</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Cf2PjdAttbk&amp;list=PLt4nG7RVVk1gp0v3wg7gWB26lRzseuHQz&amp;index=12</t>
+  </si>
+  <si>
+    <t>Check if String contains any permuatation or anagram of given pattern</t>
+  </si>
+  <si>
+    <t>Check if Two Strings are anagrams or not / Check if Two Strings are permutation of each other or not</t>
+  </si>
+  <si>
+    <t>Find all anagrams in a String for a pattern/ Find all starting index of occurrence of each anagram 
+within the given string for a pattern</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lKgUHSi9BE8&amp;list=PLt4nG7RVVk1gp0v3wg7gWB26lRzseuHQz&amp;index=13</t>
+  </si>
+  <si>
+    <t>Find smalllest substring which contains all the characters of the given pattern</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GZjW14vX2Ps&amp;list=PLt4nG7RVVk1gp0v3wg7gWB26lRzseuHQz&amp;index=14</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qxDH4nxtt1w&amp;list=PLt4nG7RVVk1gp0v3wg7gWB26lRzseuHQz&amp;index=15</t>
+  </si>
+  <si>
+    <t>Print Maximum substring with same letters if max 'K' characters can be replaced (Sliding Window)</t>
+  </si>
+  <si>
+    <t>Maximum substring length with same letters if max 'K' characters can be replaced (Sliding Window)</t>
+  </si>
+  <si>
+    <t>Reverse all vowels order in given String</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fkqAHX8SGeo&amp;list=PLt4nG7RVVk1gp0v3wg7gWB26lRzseuHQz&amp;index=16</t>
+  </si>
+  <si>
+    <t>Check if given number is a Happy Number (Happy number is a number whose Sum of square of digits is 1)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b6wqXt6HZWo&amp;list=PLt4nG7RVVk1jaUjvppKIjZ6BUtOt_cyLr&amp;index=5</t>
   </si>
 </sst>
 </file>
@@ -1486,13 +1635,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1776,8 +1928,8 @@
   <dimension ref="A1:J1401"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1010" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1031" sqref="B1031"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1793,22 +1945,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
@@ -1834,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -1846,7 +1998,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1880,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -1903,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -1968,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -1977,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -1991,7 +2143,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2000,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -2023,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -2037,7 +2189,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2046,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -2094,7 +2246,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -2103,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2111,7 +2263,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2120,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2128,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -2137,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2145,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2154,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2186,7 +2338,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -2195,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2203,7 +2355,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -2212,10 +2364,10 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2223,7 +2375,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -2232,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2240,7 +2392,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -2249,10 +2401,10 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2260,22 +2412,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2283,7 +2435,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2292,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2309,7 +2461,7 @@
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2368,7 +2520,7 @@
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2385,7 +2537,7 @@
         <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2445,13 +2597,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2459,13 +2611,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2506,13 +2658,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2526,7 +2678,7 @@
         <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2555,79 +2707,31 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2635,10 +2739,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2646,13 +2750,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2660,7 +2764,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
@@ -2669,7 +2773,7 @@
         <v>50</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2677,13 +2781,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2691,13 +2795,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2705,13 +2809,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
         <v>63</v>
       </c>
-      <c r="C58" t="s">
-        <v>64</v>
-      </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2719,13 +2823,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -2733,13 +2837,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2747,7 +2851,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
         <v>26</v>
@@ -2756,7 +2860,7 @@
         <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2764,7 +2868,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
         <v>26</v>
@@ -2778,7 +2882,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
@@ -2787,7 +2891,7 @@
         <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2795,7 +2899,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
         <v>26</v>
@@ -2809,13 +2913,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -2823,13 +2927,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -2837,13 +2941,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -2851,13 +2955,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -2865,13 +2969,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2879,16 +2983,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -2896,13 +3000,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
         <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2910,13 +3014,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
         <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2924,16 +3028,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
         <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -2941,13 +3045,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
         <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -2955,13 +3059,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
         <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -2969,13 +3073,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
         <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -2983,13 +3087,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
         <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -2997,13 +3101,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
         <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3011,13 +3115,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
         <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3025,13 +3129,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
         <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3039,13 +3143,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
         <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3053,13 +3157,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
         <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3067,13 +3171,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
         <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3081,13 +3185,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
         <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3095,13 +3199,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
         <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3109,13 +3213,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
         <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3123,13 +3227,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s">
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3137,7 +3241,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
@@ -3146,7 +3250,7 @@
         <v>50</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3154,7 +3258,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
@@ -3166,44 +3270,29 @@
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>342</v>
-      </c>
-      <c r="C90" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" t="s">
-        <v>50</v>
-      </c>
-      <c r="E90">
-        <v>3</v>
-      </c>
-      <c r="F90" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3211,16 +3300,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3228,16 +3317,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3245,16 +3334,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3262,7 +3351,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
         <v>26</v>
@@ -3274,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -3282,7 +3371,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
         <v>26</v>
@@ -3294,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -3302,7 +3391,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
         <v>26</v>
@@ -3314,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -3322,7 +3411,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
         <v>26</v>
@@ -3331,35 +3420,20 @@
         <v>3</v>
       </c>
       <c r="F98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" t="s">
-        <v>26</v>
-      </c>
-      <c r="D99" t="s">
-        <v>50</v>
-      </c>
-      <c r="E99">
-        <v>2</v>
-      </c>
-      <c r="F99" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
         <v>26</v>
@@ -3371,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -3379,19 +3453,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C101" t="s">
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -3399,7 +3473,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C102" t="s">
         <v>41</v>
@@ -3408,10 +3482,10 @@
         <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -3419,7 +3493,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C103" t="s">
         <v>41</v>
@@ -3428,10 +3502,10 @@
         <v>3</v>
       </c>
       <c r="F103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -3439,7 +3513,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C104" t="s">
         <v>41</v>
@@ -3448,7 +3522,7 @@
         <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -3456,19 +3530,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C105" t="s">
         <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E105">
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -3476,19 +3550,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C106" t="s">
         <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E106">
         <v>2</v>
       </c>
       <c r="F106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -3496,19 +3570,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C107" t="s">
         <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -3516,19 +3590,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
         <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -3536,22 +3610,22 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C109" t="s">
         <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I109" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -3559,19 +3633,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C110" t="s">
         <v>26</v>
       </c>
       <c r="D110" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E110">
         <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -3579,19 +3653,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C111" t="s">
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E111">
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -3599,22 +3673,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
         <v>26</v>
       </c>
       <c r="D112" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -3622,22 +3696,22 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -3645,7 +3719,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C114" t="s">
         <v>26</v>
@@ -3657,7 +3731,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -3665,16 +3739,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -3682,16 +3756,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -3699,16 +3773,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -3716,19 +3790,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C118" t="s">
         <v>26</v>
       </c>
       <c r="D118" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -3736,19 +3810,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C119" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D119" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -3756,16 +3830,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C120" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -3773,7 +3847,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C121" t="s">
         <v>26</v>
@@ -3785,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -3793,7 +3867,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C122" t="s">
         <v>26</v>
@@ -3805,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -3813,19 +3887,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C123" t="s">
         <v>26</v>
       </c>
       <c r="D123" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -3833,16 +3907,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C124" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -3850,7 +3924,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C125" t="s">
         <v>26</v>
@@ -3862,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -3870,7 +3944,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C126" t="s">
         <v>46</v>
@@ -3879,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -3887,7 +3961,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C127" t="s">
         <v>46</v>
@@ -3896,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -3904,7 +3978,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C128" t="s">
         <v>46</v>
@@ -3913,7 +3987,7 @@
         <v>2</v>
       </c>
       <c r="F128" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -3921,7 +3995,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C129" t="s">
         <v>46</v>
@@ -3930,7 +4004,7 @@
         <v>2</v>
       </c>
       <c r="F129" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -3938,7 +4012,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C130" t="s">
         <v>46</v>
@@ -3947,7 +4021,7 @@
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -3955,7 +4029,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C131" t="s">
         <v>46</v>
@@ -3964,10 +4038,10 @@
         <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -3975,7 +4049,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C132" t="s">
         <v>46</v>
@@ -3984,10 +4058,10 @@
         <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -3995,7 +4069,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C133" t="s">
         <v>46</v>
@@ -4009,7 +4083,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C134" t="s">
         <v>46</v>
@@ -4018,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -4026,19 +4100,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C135" t="s">
         <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E135">
         <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4046,19 +4120,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C136" t="s">
         <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E136">
         <v>2</v>
       </c>
       <c r="F136" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -4066,19 +4140,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C137" t="s">
         <v>26</v>
       </c>
       <c r="D137" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -4086,19 +4160,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C138" t="s">
         <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -4106,19 +4180,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
         <v>26</v>
       </c>
       <c r="D139" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -4126,22 +4200,22 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C140" t="s">
         <v>26</v>
       </c>
       <c r="D140" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E140">
         <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4149,7 +4223,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C141" t="s">
         <v>26</v>
@@ -4161,7 +4235,7 @@
         <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -4169,19 +4243,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C142" t="s">
         <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -4189,19 +4263,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C143" t="s">
         <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E143">
         <v>2</v>
       </c>
       <c r="F143" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -4209,19 +4283,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C144" t="s">
         <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E144">
         <v>2</v>
       </c>
       <c r="F144" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -4229,7 +4303,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
         <v>26</v>
@@ -4241,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="F145" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -4249,7 +4323,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C146" t="s">
         <v>26</v>
@@ -4261,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -4269,19 +4343,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C147" t="s">
         <v>26</v>
       </c>
       <c r="D147" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E147">
         <v>2</v>
       </c>
       <c r="F147" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -4289,7 +4363,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C148" t="s">
         <v>26</v>
@@ -4301,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="F148" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -4309,13 +4383,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C149" t="s">
         <v>26</v>
       </c>
       <c r="D149" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -4326,13 +4400,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C150" t="s">
         <v>26</v>
       </c>
       <c r="D150" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -4343,19 +4417,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C151" t="s">
         <v>26</v>
       </c>
       <c r="D151" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E151">
         <v>2</v>
       </c>
       <c r="F151" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -4363,19 +4437,19 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C152" t="s">
         <v>26</v>
       </c>
       <c r="D152" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E152">
         <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -4383,19 +4457,19 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C153" t="s">
         <v>26</v>
       </c>
       <c r="D153" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E153">
         <v>2</v>
       </c>
       <c r="F153" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -4403,7 +4477,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C154" t="s">
         <v>26</v>
@@ -4415,10 +4489,10 @@
         <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -4426,7 +4500,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C155" t="s">
         <v>26</v>
@@ -4438,10 +4512,10 @@
         <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -4449,7 +4523,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C156" t="s">
         <v>26</v>
@@ -4461,10 +4535,10 @@
         <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -4472,22 +4546,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C157" t="s">
         <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E157">
         <v>2</v>
       </c>
       <c r="F157" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -4495,7 +4569,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C158" t="s">
         <v>26</v>
@@ -4507,10 +4581,10 @@
         <v>2</v>
       </c>
       <c r="F158" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -4518,7 +4592,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C159" t="s">
         <v>26</v>
@@ -4532,22 +4606,22 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C160" t="s">
         <v>26</v>
       </c>
       <c r="D160" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E160">
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -4555,22 +4629,22 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C161" t="s">
         <v>26</v>
       </c>
       <c r="D161" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E161">
         <v>3</v>
       </c>
       <c r="F161" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -4578,28 +4652,28 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C162" t="s">
         <v>26</v>
       </c>
       <c r="D162" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E162">
         <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G162" t="s">
         <v>21</v>
       </c>
       <c r="H162" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -4607,19 +4681,19 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C163" t="s">
         <v>26</v>
       </c>
       <c r="D163" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E163">
         <v>2</v>
       </c>
       <c r="F163" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I163" s="1"/>
     </row>
@@ -4628,22 +4702,22 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C164" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D164" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -4651,13 +4725,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C165" t="s">
         <v>26</v>
       </c>
       <c r="D165" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -4665,19 +4739,19 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C166" t="s">
         <v>26</v>
       </c>
       <c r="D166" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E166">
         <v>2</v>
       </c>
       <c r="F166" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -4685,7 +4759,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -4693,7 +4767,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -4701,7 +4775,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -4709,19 +4783,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C170" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E170">
         <v>2</v>
       </c>
       <c r="F170" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G170" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H170" t="s">
         <v>22</v>
@@ -4732,16 +4806,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C171" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E171">
         <v>2</v>
       </c>
       <c r="F171" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -4749,16 +4823,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C172" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F172" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -4766,16 +4840,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C173" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F173" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -4783,16 +4857,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E174">
         <v>3</v>
       </c>
       <c r="F174" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -4800,7 +4874,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -4808,7 +4882,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -4816,7 +4890,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -4824,7 +4898,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -4832,7 +4906,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -4840,7 +4914,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C180" t="s">
         <v>26</v>
@@ -4852,10 +4926,10 @@
         <v>3</v>
       </c>
       <c r="F180" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -4863,7 +4937,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C181" t="s">
         <v>26</v>
@@ -4875,10 +4949,10 @@
         <v>3</v>
       </c>
       <c r="F181" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -4886,7 +4960,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C182" t="s">
         <v>26</v>
@@ -4900,7 +4974,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C183" t="s">
         <v>26</v>
@@ -4914,19 +4988,19 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C184" t="s">
         <v>26</v>
       </c>
       <c r="D184" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -4934,22 +5008,22 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C185" t="s">
         <v>26</v>
       </c>
       <c r="D185" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E185">
         <v>2</v>
       </c>
       <c r="F185" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -4957,7 +5031,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -4965,19 +5039,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C187" t="s">
         <v>26</v>
       </c>
       <c r="D187" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E187">
         <v>2</v>
       </c>
       <c r="F187" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -4985,22 +5059,22 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C188" t="s">
         <v>26</v>
       </c>
       <c r="D188" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E188">
         <v>2</v>
       </c>
       <c r="F188" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -5008,19 +5082,19 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C189" t="s">
         <v>26</v>
       </c>
       <c r="D189" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -5028,19 +5102,19 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C190" t="s">
         <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E190">
         <v>2</v>
       </c>
       <c r="F190" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -5048,19 +5122,19 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C191" t="s">
         <v>26</v>
       </c>
       <c r="D191" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -5068,19 +5142,19 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C192" t="s">
         <v>26</v>
       </c>
       <c r="D192" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -5088,19 +5162,19 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C193" t="s">
         <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -5108,19 +5182,19 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C194" t="s">
         <v>26</v>
       </c>
       <c r="D194" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -5128,19 +5202,19 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C195" t="s">
         <v>26</v>
       </c>
       <c r="D195" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -5148,19 +5222,19 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C196" t="s">
         <v>26</v>
       </c>
       <c r="D196" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -5168,19 +5242,19 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C197" t="s">
         <v>26</v>
       </c>
       <c r="D197" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E197">
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -5188,19 +5262,19 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C198" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D198" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E198">
         <v>2</v>
       </c>
       <c r="F198" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -5208,19 +5282,19 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C199" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D199" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E199">
         <v>2</v>
       </c>
       <c r="F199" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -5228,19 +5302,19 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C200" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D200" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E200">
         <v>2</v>
       </c>
       <c r="F200" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -5248,19 +5322,19 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C201" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D201" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E201">
         <v>2</v>
       </c>
       <c r="F201" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -5268,19 +5342,19 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C202" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D202" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -5288,19 +5362,19 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C203" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D203" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -5308,19 +5382,19 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C204" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D204" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -5328,19 +5402,19 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C205" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D205" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -5348,19 +5422,19 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C206" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D206" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -5368,19 +5442,19 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C207" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D207" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -5388,19 +5462,19 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C208" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D208" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -5408,19 +5482,19 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C209" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D209" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -5428,19 +5502,19 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C210" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D210" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -5448,19 +5522,19 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C211" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D211" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -5468,19 +5542,19 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C212" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D212" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -5488,19 +5562,19 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C213" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D213" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -5508,19 +5582,19 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>193</v>
+      </c>
+      <c r="C214" t="s">
+        <v>166</v>
+      </c>
+      <c r="D214" t="s">
         <v>196</v>
-      </c>
-      <c r="C214" t="s">
-        <v>169</v>
-      </c>
-      <c r="D214" t="s">
-        <v>199</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -5528,19 +5602,19 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C215" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D215" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -5548,19 +5622,19 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C216" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D216" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -5568,19 +5642,19 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C217" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D217" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -5588,19 +5662,19 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C218" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D218" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -5608,19 +5682,19 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C219" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D219" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -5628,19 +5702,19 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C220" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D220" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -5648,19 +5722,19 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C221" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D221" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E221">
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -5668,19 +5742,19 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C222" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D222" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E222">
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -5688,19 +5762,19 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C223" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D223" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E223">
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -5708,19 +5782,19 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C224" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D224" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -5728,19 +5802,19 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C225" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D225" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -5748,19 +5822,19 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C226" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D226" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -5768,19 +5842,19 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C227" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D227" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -5788,19 +5862,19 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C228" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D228" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E228">
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -5808,19 +5882,19 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C229" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D229" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E229">
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -5828,19 +5902,19 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C230" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D230" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E230">
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -5848,19 +5922,19 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C231" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D231" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E231">
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -5868,19 +5942,19 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C232" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D232" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E232">
         <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -5888,19 +5962,19 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C233" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D233" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E233">
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -5908,19 +5982,19 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C234" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D234" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E234">
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -5928,19 +6002,19 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C235" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D235" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E235">
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -5948,19 +6022,19 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C236" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D236" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E236">
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -5992,27 +6066,36 @@
       <c r="A242">
         <v>241</v>
       </c>
+      <c r="B242" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
+      <c r="B243" t="s">
+        <v>495</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C244" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E244">
         <v>1</v>
       </c>
       <c r="F244" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -6020,7 +6103,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C245" t="s">
         <v>26</v>
@@ -6032,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="F245" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -6040,7 +6123,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C246" t="s">
         <v>26</v>
@@ -6057,16 +6140,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C247" t="s">
         <v>26</v>
       </c>
       <c r="D247" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F247" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -6074,19 +6157,19 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C248" t="s">
         <v>26</v>
       </c>
       <c r="D248" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E248">
         <v>3</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -6094,22 +6177,22 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C249" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D249" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E249">
         <v>3</v>
       </c>
       <c r="F249" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -6117,22 +6200,22 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C250" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D250" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E250">
         <v>2</v>
       </c>
       <c r="F250" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -6140,19 +6223,19 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C251" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E251">
         <v>3</v>
       </c>
       <c r="F251" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -6160,16 +6243,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C252" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E252">
         <v>3</v>
       </c>
       <c r="F252" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -6177,16 +6260,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C253" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E253">
         <v>2</v>
       </c>
       <c r="F253" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -6194,19 +6277,19 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C254" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D254" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E254">
         <v>2</v>
       </c>
       <c r="F254" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -6214,19 +6297,19 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C255" t="s">
         <v>26</v>
       </c>
       <c r="D255" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E255">
         <v>1</v>
       </c>
       <c r="F255" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -6234,16 +6317,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C256" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E256">
         <v>3</v>
       </c>
       <c r="F256" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -6251,16 +6334,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C257" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E257">
         <v>3</v>
       </c>
       <c r="F257" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -6268,16 +6351,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C258" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E258">
         <v>3</v>
       </c>
       <c r="F258" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -6285,16 +6368,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C259" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E259">
         <v>3</v>
       </c>
       <c r="F259" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -6302,19 +6385,19 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C260" t="s">
         <v>26</v>
       </c>
       <c r="D260" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E260">
         <v>2</v>
       </c>
       <c r="F260" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -6322,22 +6405,22 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
       </c>
       <c r="D261" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E261">
         <v>1</v>
       </c>
       <c r="F261" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -6345,22 +6428,22 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
       </c>
       <c r="D262" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E262">
         <v>2</v>
       </c>
       <c r="F262" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -6368,22 +6451,22 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
       </c>
       <c r="D263" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E263">
         <v>3</v>
       </c>
       <c r="F263" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -6391,19 +6474,19 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
       </c>
       <c r="D264" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E264">
         <v>1</v>
       </c>
       <c r="F264" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -6411,22 +6494,22 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
       </c>
       <c r="D265" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E265">
         <v>2</v>
       </c>
       <c r="F265" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -6434,22 +6517,22 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C266" t="s">
         <v>26</v>
       </c>
       <c r="D266" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E266">
         <v>2</v>
       </c>
       <c r="F266" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -6457,19 +6540,19 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
       </c>
       <c r="D267" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E267">
         <v>2</v>
       </c>
       <c r="F267" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -6477,30 +6560,60 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C268" t="s">
         <v>26</v>
       </c>
       <c r="D268" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E268">
         <v>2</v>
       </c>
       <c r="F268" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
+      <c r="B269" t="s">
+        <v>485</v>
+      </c>
+      <c r="C269" t="s">
+        <v>26</v>
+      </c>
+      <c r="D269" t="s">
+        <v>117</v>
+      </c>
+      <c r="E269">
+        <v>3</v>
+      </c>
+      <c r="F269" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
+      <c r="B270" t="s">
+        <v>486</v>
+      </c>
+      <c r="C270" t="s">
+        <v>26</v>
+      </c>
+      <c r="D270" t="s">
+        <v>117</v>
+      </c>
+      <c r="E270">
+        <v>2</v>
+      </c>
+      <c r="F270" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271">
@@ -6662,7 +6775,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C302" t="s">
         <v>26</v>
@@ -6674,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="F302" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -6682,7 +6795,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C303" t="s">
         <v>26</v>
@@ -6694,7 +6807,7 @@
         <v>3</v>
       </c>
       <c r="F303" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -6702,7 +6815,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C304" t="s">
         <v>26</v>
@@ -6714,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="F304" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
@@ -6722,7 +6835,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C305" t="s">
         <v>26</v>
@@ -6734,10 +6847,10 @@
         <v>3</v>
       </c>
       <c r="F305" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -6745,7 +6858,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C306" t="s">
         <v>26</v>
@@ -6757,10 +6870,10 @@
         <v>3</v>
       </c>
       <c r="F306" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
@@ -6768,7 +6881,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C307" t="s">
         <v>26</v>
@@ -6780,10 +6893,10 @@
         <v>3</v>
       </c>
       <c r="F307" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -6791,7 +6904,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C308" t="s">
         <v>26</v>
@@ -6803,7 +6916,7 @@
         <v>3</v>
       </c>
       <c r="F308" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
@@ -6811,7 +6924,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C309" t="s">
         <v>26</v>
@@ -6823,7 +6936,7 @@
         <v>3</v>
       </c>
       <c r="F309" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -6831,7 +6944,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C310" t="s">
         <v>26</v>
@@ -6843,7 +6956,7 @@
         <v>3</v>
       </c>
       <c r="F310" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
@@ -6851,7 +6964,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C311" t="s">
         <v>26</v>
@@ -6863,7 +6976,7 @@
         <v>3</v>
       </c>
       <c r="F311" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -6871,7 +6984,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C312" t="s">
         <v>26</v>
@@ -6883,7 +6996,7 @@
         <v>3</v>
       </c>
       <c r="F312" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
@@ -6891,7 +7004,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C313" t="s">
         <v>26</v>
@@ -6903,7 +7016,7 @@
         <v>3</v>
       </c>
       <c r="F313" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
@@ -6911,7 +7024,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C314" t="s">
         <v>26</v>
@@ -6923,7 +7036,7 @@
         <v>3</v>
       </c>
       <c r="F314" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -6931,7 +7044,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C315" t="s">
         <v>26</v>
@@ -6943,7 +7056,7 @@
         <v>3</v>
       </c>
       <c r="F315" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
@@ -6951,7 +7064,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C316" t="s">
         <v>26</v>
@@ -6963,7 +7076,7 @@
         <v>3</v>
       </c>
       <c r="F316" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
@@ -6971,7 +7084,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C317" t="s">
         <v>26</v>
@@ -6983,7 +7096,7 @@
         <v>3</v>
       </c>
       <c r="F317" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -6991,7 +7104,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C318" t="s">
         <v>26</v>
@@ -7003,7 +7116,7 @@
         <v>3</v>
       </c>
       <c r="F318" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
@@ -7011,7 +7124,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C319" t="s">
         <v>26</v>
@@ -7023,7 +7136,7 @@
         <v>3</v>
       </c>
       <c r="F319" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -7031,7 +7144,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C320" t="s">
         <v>26</v>
@@ -7043,7 +7156,7 @@
         <v>3</v>
       </c>
       <c r="F320" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -7051,7 +7164,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C321" t="s">
         <v>26</v>
@@ -7063,7 +7176,7 @@
         <v>3</v>
       </c>
       <c r="F321" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
@@ -7071,7 +7184,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C322" t="s">
         <v>26</v>
@@ -7083,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="F322" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -7091,7 +7204,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C323" t="s">
         <v>26</v>
@@ -7103,7 +7216,7 @@
         <v>3</v>
       </c>
       <c r="F323" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -7111,7 +7224,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C324" t="s">
         <v>26</v>
@@ -7123,7 +7236,7 @@
         <v>3</v>
       </c>
       <c r="F324" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -7131,7 +7244,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C325" t="s">
         <v>26</v>
@@ -7143,7 +7256,7 @@
         <v>3</v>
       </c>
       <c r="F325" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -7151,7 +7264,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C326" t="s">
         <v>26</v>
@@ -7163,7 +7276,7 @@
         <v>3</v>
       </c>
       <c r="F326" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -7171,7 +7284,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C327" t="s">
         <v>26</v>
@@ -7183,7 +7296,7 @@
         <v>3</v>
       </c>
       <c r="F327" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -7191,7 +7304,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C328" t="s">
         <v>26</v>
@@ -7203,7 +7316,7 @@
         <v>3</v>
       </c>
       <c r="F328" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -7211,7 +7324,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C329" t="s">
         <v>26</v>
@@ -7223,7 +7336,7 @@
         <v>3</v>
       </c>
       <c r="F329" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
@@ -7231,7 +7344,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C330" t="s">
         <v>26</v>
@@ -7243,7 +7356,7 @@
         <v>3</v>
       </c>
       <c r="F330" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -7251,7 +7364,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C331" t="s">
         <v>26</v>
@@ -7263,7 +7376,7 @@
         <v>3</v>
       </c>
       <c r="F331" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
@@ -7271,7 +7384,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C332" t="s">
         <v>26</v>
@@ -7283,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="F332" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
@@ -7291,7 +7404,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C333" t="s">
         <v>26</v>
@@ -7303,7 +7416,7 @@
         <v>3</v>
       </c>
       <c r="F333" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -7311,7 +7424,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C334" t="s">
         <v>26</v>
@@ -7323,7 +7436,7 @@
         <v>3</v>
       </c>
       <c r="F334" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
@@ -7331,7 +7444,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C335" t="s">
         <v>26</v>
@@ -7343,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="F335" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
@@ -7351,7 +7464,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C336" t="s">
         <v>26</v>
@@ -7363,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="F336" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
@@ -7371,7 +7484,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C337" t="s">
         <v>26</v>
@@ -7383,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="F337" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -7391,7 +7504,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C338" t="s">
         <v>26</v>
@@ -7403,7 +7516,7 @@
         <v>3</v>
       </c>
       <c r="F338" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
@@ -7411,7 +7524,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C339" t="s">
         <v>26</v>
@@ -7423,7 +7536,7 @@
         <v>3</v>
       </c>
       <c r="F339" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
@@ -7431,7 +7544,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C340" t="s">
         <v>26</v>
@@ -7443,7 +7556,7 @@
         <v>3</v>
       </c>
       <c r="F340" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
@@ -7451,7 +7564,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C341" t="s">
         <v>26</v>
@@ -7463,7 +7576,7 @@
         <v>3</v>
       </c>
       <c r="F341" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
@@ -7471,7 +7584,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C342" t="s">
         <v>26</v>
@@ -7483,7 +7596,7 @@
         <v>3</v>
       </c>
       <c r="F342" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
@@ -7491,7 +7604,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C343" t="s">
         <v>26</v>
@@ -7503,7 +7616,7 @@
         <v>3</v>
       </c>
       <c r="F343" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -7511,7 +7624,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C344" t="s">
         <v>26</v>
@@ -7523,7 +7636,7 @@
         <v>3</v>
       </c>
       <c r="F344" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -7531,7 +7644,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C345" t="s">
         <v>26</v>
@@ -7543,7 +7656,7 @@
         <v>3</v>
       </c>
       <c r="F345" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
@@ -7551,7 +7664,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C346" t="s">
         <v>26</v>
@@ -7563,7 +7676,7 @@
         <v>3</v>
       </c>
       <c r="F346" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -7571,7 +7684,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C347" t="s">
         <v>26</v>
@@ -7583,7 +7696,7 @@
         <v>3</v>
       </c>
       <c r="F347" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
@@ -7591,7 +7704,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C348" t="s">
         <v>26</v>
@@ -7603,7 +7716,7 @@
         <v>3</v>
       </c>
       <c r="F348" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
@@ -7611,7 +7724,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C349" t="s">
         <v>26</v>
@@ -7623,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="F349" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
@@ -7631,7 +7744,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C350" t="s">
         <v>26</v>
@@ -7643,10 +7756,10 @@
         <v>3</v>
       </c>
       <c r="F350" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H350" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
@@ -7654,7 +7767,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C351" t="s">
         <v>26</v>
@@ -7666,7 +7779,7 @@
         <v>3</v>
       </c>
       <c r="F351" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
@@ -7674,7 +7787,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C352" t="s">
         <v>26</v>
@@ -7686,7 +7799,7 @@
         <v>3</v>
       </c>
       <c r="F352" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
@@ -7694,7 +7807,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C353" t="s">
         <v>26</v>
@@ -7706,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="F353" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
@@ -7714,7 +7827,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C354" t="s">
         <v>26</v>
@@ -7726,7 +7839,7 @@
         <v>3</v>
       </c>
       <c r="F354" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
@@ -7734,7 +7847,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C355" t="s">
         <v>26</v>
@@ -7746,7 +7859,7 @@
         <v>3</v>
       </c>
       <c r="F355" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
@@ -7754,7 +7867,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C356" t="s">
         <v>26</v>
@@ -7766,7 +7879,7 @@
         <v>3</v>
       </c>
       <c r="F356" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
@@ -7774,7 +7887,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C357" t="s">
         <v>26</v>
@@ -7786,7 +7899,7 @@
         <v>3</v>
       </c>
       <c r="F357" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
@@ -7794,7 +7907,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C358" t="s">
         <v>26</v>
@@ -7811,7 +7924,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C359" t="s">
         <v>26</v>
@@ -7828,7 +7941,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C360" t="s">
         <v>26</v>
@@ -7845,7 +7958,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C361" t="s">
         <v>26</v>
@@ -7862,7 +7975,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C362" t="s">
         <v>26</v>
@@ -7879,7 +7992,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C363" t="s">
         <v>26</v>
@@ -7896,7 +8009,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C364" t="s">
         <v>26</v>
@@ -7913,7 +8026,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C365" t="s">
         <v>26</v>
@@ -7930,7 +8043,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C366" t="s">
         <v>26</v>
@@ -7947,7 +8060,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C367" t="s">
         <v>26</v>
@@ -7964,7 +8077,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C368" t="s">
         <v>26</v>
@@ -7981,7 +8094,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C369" t="s">
         <v>26</v>
@@ -7998,7 +8111,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C370" t="s">
         <v>26</v>
@@ -8015,7 +8128,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C371" t="s">
         <v>26</v>
@@ -8032,7 +8145,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C372" t="s">
         <v>26</v>
@@ -8049,7 +8162,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C373" t="s">
         <v>26</v>
@@ -8066,7 +8179,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C374" t="s">
         <v>26</v>
@@ -8083,7 +8196,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C375" t="s">
         <v>26</v>
@@ -8100,7 +8213,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C376" t="s">
         <v>26</v>
@@ -8117,7 +8230,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C377" t="s">
         <v>26</v>
@@ -8134,7 +8247,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C378" t="s">
         <v>26</v>
@@ -8151,7 +8264,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C379" t="s">
         <v>26</v>
@@ -8168,7 +8281,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C380" t="s">
         <v>26</v>
@@ -8185,7 +8298,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C381" t="s">
         <v>26</v>
@@ -8202,7 +8315,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C382" t="s">
         <v>26</v>
@@ -8219,7 +8332,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C383" t="s">
         <v>26</v>
@@ -8236,7 +8349,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C384" t="s">
         <v>26</v>
@@ -8253,7 +8366,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C385" t="s">
         <v>26</v>
@@ -8270,7 +8383,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C386" t="s">
         <v>26</v>
@@ -8287,7 +8400,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C387" t="s">
         <v>26</v>
@@ -8304,7 +8417,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C388" t="s">
         <v>26</v>
@@ -8321,7 +8434,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C389" t="s">
         <v>26</v>
@@ -8338,7 +8451,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C390" t="s">
         <v>26</v>
@@ -8355,7 +8468,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C391" t="s">
         <v>26</v>
@@ -8367,7 +8480,7 @@
         <v>3</v>
       </c>
       <c r="F391" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
@@ -8375,7 +8488,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C392" t="s">
         <v>26</v>
@@ -8387,7 +8500,7 @@
         <v>3</v>
       </c>
       <c r="F392" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
@@ -8395,7 +8508,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C393" t="s">
         <v>26</v>
@@ -8407,7 +8520,7 @@
         <v>3</v>
       </c>
       <c r="F393" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
@@ -9205,19 +9318,19 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C552" t="s">
         <v>26</v>
       </c>
       <c r="D552" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E552">
         <v>3</v>
       </c>
       <c r="F552" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.2">
@@ -9225,19 +9338,19 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C553" t="s">
         <v>26</v>
       </c>
       <c r="D553" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E553">
         <v>3</v>
       </c>
       <c r="F553" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
@@ -9285,19 +9398,19 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C562" t="s">
         <v>26</v>
       </c>
       <c r="D562" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E562">
         <v>3</v>
       </c>
       <c r="F562" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.2">
@@ -9400,19 +9513,19 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C582" t="s">
         <v>26</v>
       </c>
       <c r="D582" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E582">
         <v>3</v>
       </c>
       <c r="F582" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.2">
@@ -9420,19 +9533,19 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C583" t="s">
         <v>26</v>
       </c>
       <c r="D583" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E583">
         <v>3</v>
       </c>
       <c r="F583" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.2">
@@ -9440,19 +9553,19 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C584" t="s">
         <v>26</v>
       </c>
       <c r="D584" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E584">
         <v>3</v>
       </c>
       <c r="F584" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.2">
@@ -9460,19 +9573,19 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C585" t="s">
         <v>26</v>
       </c>
       <c r="D585" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E585">
         <v>3</v>
       </c>
       <c r="F585" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.2">
@@ -9510,52 +9623,52 @@
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C601" t="s">
         <v>26</v>
@@ -9564,37 +9677,55 @@
         <v>28</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>601</v>
       </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B602" t="s">
+        <v>487</v>
+      </c>
+      <c r="C602" t="s">
+        <v>26</v>
+      </c>
+      <c r="D602" t="s">
+        <v>28</v>
+      </c>
+      <c r="E602">
+        <v>3</v>
+      </c>
+      <c r="F602" t="s">
+        <v>77</v>
+      </c>
+      <c r="I602" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>602</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>603</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>604</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>605</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>607</v>
       </c>
@@ -9999,242 +10130,620 @@
         <v>687</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>688</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>689</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>690</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>691</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>692</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>693</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>694</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>695</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>696</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>697</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>698</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>699</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>700</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>701</v>
       </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B702" t="s">
+        <v>489</v>
+      </c>
+      <c r="C702" t="s">
+        <v>26</v>
+      </c>
+      <c r="D702" t="s">
+        <v>50</v>
+      </c>
+      <c r="E702">
+        <v>2</v>
+      </c>
+      <c r="F702" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>702</v>
       </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B703" t="s">
+        <v>490</v>
+      </c>
+      <c r="C703" t="s">
+        <v>26</v>
+      </c>
+      <c r="D703" t="s">
+        <v>50</v>
+      </c>
+      <c r="E703">
+        <v>2</v>
+      </c>
+      <c r="F703" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>703</v>
       </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B704" t="s">
+        <v>491</v>
+      </c>
+      <c r="C704" t="s">
+        <v>26</v>
+      </c>
+      <c r="D704" t="s">
+        <v>50</v>
+      </c>
+      <c r="E704">
+        <v>2</v>
+      </c>
+      <c r="F704" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>704</v>
       </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B705" t="s">
+        <v>492</v>
+      </c>
+      <c r="C705" t="s">
+        <v>26</v>
+      </c>
+      <c r="D705" t="s">
+        <v>50</v>
+      </c>
+      <c r="E705">
+        <v>2</v>
+      </c>
+      <c r="F705" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>705</v>
       </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B706" t="s">
+        <v>493</v>
+      </c>
+      <c r="C706" t="s">
+        <v>26</v>
+      </c>
+      <c r="D706" t="s">
+        <v>50</v>
+      </c>
+      <c r="E706">
+        <v>2</v>
+      </c>
+      <c r="F706" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>706</v>
       </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B707" t="s">
+        <v>53</v>
+      </c>
+      <c r="C707" t="s">
+        <v>26</v>
+      </c>
+      <c r="D707" t="s">
+        <v>50</v>
+      </c>
+      <c r="E707">
+        <v>2</v>
+      </c>
+      <c r="F707" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>707</v>
       </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B708" t="s">
+        <v>52</v>
+      </c>
+      <c r="C708" t="s">
+        <v>26</v>
+      </c>
+      <c r="D708" t="s">
+        <v>50</v>
+      </c>
+      <c r="E708">
+        <v>2</v>
+      </c>
+      <c r="F708" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>708</v>
       </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B709" t="s">
+        <v>494</v>
+      </c>
+      <c r="C709" t="s">
+        <v>26</v>
+      </c>
+      <c r="D709" t="s">
+        <v>50</v>
+      </c>
+      <c r="E709">
+        <v>2</v>
+      </c>
+      <c r="F709" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>709</v>
       </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B710" t="s">
+        <v>498</v>
+      </c>
+      <c r="C710" t="s">
+        <v>26</v>
+      </c>
+      <c r="D710" t="s">
+        <v>50</v>
+      </c>
+      <c r="E710">
+        <v>2</v>
+      </c>
+      <c r="F710" t="s">
+        <v>77</v>
+      </c>
+      <c r="I710" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>710</v>
       </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B711" t="s">
+        <v>51</v>
+      </c>
+      <c r="C711" t="s">
+        <v>26</v>
+      </c>
+      <c r="D711" t="s">
+        <v>50</v>
+      </c>
+      <c r="E711">
+        <v>2</v>
+      </c>
+      <c r="F711" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>711</v>
       </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B712" t="s">
+        <v>500</v>
+      </c>
+      <c r="C712" t="s">
+        <v>26</v>
+      </c>
+      <c r="D712" t="s">
+        <v>50</v>
+      </c>
+      <c r="E712">
+        <v>2</v>
+      </c>
+      <c r="F712" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>712</v>
       </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B713" t="s">
+        <v>499</v>
+      </c>
+      <c r="C713" t="s">
+        <v>26</v>
+      </c>
+      <c r="D713" t="s">
+        <v>50</v>
+      </c>
+      <c r="E713">
+        <v>2</v>
+      </c>
+      <c r="F713" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>713</v>
       </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B714" t="s">
+        <v>501</v>
+      </c>
+      <c r="C714" t="s">
+        <v>26</v>
+      </c>
+      <c r="D714" t="s">
+        <v>50</v>
+      </c>
+      <c r="E714">
+        <v>2</v>
+      </c>
+      <c r="F714" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>714</v>
       </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B715" t="s">
+        <v>502</v>
+      </c>
+      <c r="C715" t="s">
+        <v>26</v>
+      </c>
+      <c r="D715" t="s">
+        <v>50</v>
+      </c>
+      <c r="E715">
+        <v>2</v>
+      </c>
+      <c r="F715" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>715</v>
       </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B716" t="s">
+        <v>503</v>
+      </c>
+      <c r="C716" t="s">
+        <v>26</v>
+      </c>
+      <c r="D716" t="s">
+        <v>50</v>
+      </c>
+      <c r="E716">
+        <v>2</v>
+      </c>
+      <c r="F716" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>716</v>
       </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B717" t="s">
+        <v>504</v>
+      </c>
+      <c r="C717" t="s">
+        <v>26</v>
+      </c>
+      <c r="D717" t="s">
+        <v>50</v>
+      </c>
+      <c r="E717">
+        <v>2</v>
+      </c>
+      <c r="F717" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>717</v>
       </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B718" t="s">
+        <v>507</v>
+      </c>
+      <c r="C718" t="s">
+        <v>26</v>
+      </c>
+      <c r="D718" t="s">
+        <v>50</v>
+      </c>
+      <c r="E718">
+        <v>2</v>
+      </c>
+      <c r="F718" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>718</v>
       </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B719" t="s">
+        <v>339</v>
+      </c>
+      <c r="C719" t="s">
+        <v>26</v>
+      </c>
+      <c r="D719" t="s">
+        <v>50</v>
+      </c>
+      <c r="E719">
+        <v>3</v>
+      </c>
+      <c r="F719" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>719</v>
       </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B720" t="s">
+        <v>506</v>
+      </c>
+      <c r="C720" t="s">
+        <v>26</v>
+      </c>
+      <c r="D720" t="s">
+        <v>50</v>
+      </c>
+      <c r="E720">
+        <v>3</v>
+      </c>
+      <c r="F720" t="s">
+        <v>77</v>
+      </c>
+      <c r="I720" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>720</v>
       </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B721" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C721" t="s">
+        <v>26</v>
+      </c>
+      <c r="D721" t="s">
+        <v>50</v>
+      </c>
+      <c r="E721">
+        <v>3</v>
+      </c>
+      <c r="F721" t="s">
+        <v>77</v>
+      </c>
+      <c r="I721" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>721</v>
       </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B722" t="s">
+        <v>510</v>
+      </c>
+      <c r="C722" t="s">
+        <v>26</v>
+      </c>
+      <c r="D722" t="s">
+        <v>50</v>
+      </c>
+      <c r="E722">
+        <v>3</v>
+      </c>
+      <c r="F722" t="s">
+        <v>77</v>
+      </c>
+      <c r="I722" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>722</v>
       </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B723" t="s">
+        <v>514</v>
+      </c>
+      <c r="C723" t="s">
+        <v>26</v>
+      </c>
+      <c r="D723" t="s">
+        <v>50</v>
+      </c>
+      <c r="E723">
+        <v>3</v>
+      </c>
+      <c r="F723" t="s">
+        <v>77</v>
+      </c>
+      <c r="I723" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>723</v>
       </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B724" t="s">
+        <v>513</v>
+      </c>
+      <c r="C724" t="s">
+        <v>26</v>
+      </c>
+      <c r="D724" t="s">
+        <v>50</v>
+      </c>
+      <c r="E724">
+        <v>3</v>
+      </c>
+      <c r="F724" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>724</v>
       </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B725" t="s">
+        <v>515</v>
+      </c>
+      <c r="C725" t="s">
+        <v>26</v>
+      </c>
+      <c r="D725" t="s">
+        <v>50</v>
+      </c>
+      <c r="E725">
+        <v>3</v>
+      </c>
+      <c r="F725" t="s">
+        <v>77</v>
+      </c>
+      <c r="I725" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>725</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>726</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>727</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>728</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>729</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>730</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>731</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>732</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>733</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>734</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>735</v>
       </c>
@@ -11569,16 +12078,16 @@
         <v>1001</v>
       </c>
       <c r="B1002" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C1002" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1002" t="s">
         <v>50</v>
       </c>
       <c r="F1002" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
@@ -11586,16 +12095,16 @@
         <v>1002</v>
       </c>
       <c r="B1003" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C1003" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1003" t="s">
         <v>50</v>
       </c>
       <c r="F1003" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
@@ -11603,16 +12112,16 @@
         <v>1003</v>
       </c>
       <c r="B1004" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C1004" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1004" t="s">
         <v>50</v>
       </c>
       <c r="F1004" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
@@ -11620,16 +12129,16 @@
         <v>1004</v>
       </c>
       <c r="B1005" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C1005" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1005" t="s">
         <v>50</v>
       </c>
       <c r="F1005" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
@@ -11637,16 +12146,16 @@
         <v>1005</v>
       </c>
       <c r="B1006" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C1006" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1006" t="s">
         <v>50</v>
       </c>
       <c r="F1006" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
@@ -11654,16 +12163,16 @@
         <v>1006</v>
       </c>
       <c r="B1007" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C1007" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1007" t="s">
         <v>50</v>
       </c>
       <c r="F1007" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
@@ -11671,252 +12180,261 @@
         <v>1007</v>
       </c>
       <c r="B1008" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C1008" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1008" t="s">
         <v>50</v>
       </c>
       <c r="F1008" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>1008</v>
       </c>
       <c r="B1009" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C1009" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1009" t="s">
         <v>50</v>
       </c>
       <c r="F1009" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>1009</v>
       </c>
       <c r="B1010" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C1010" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1010" t="s">
         <v>50</v>
       </c>
       <c r="F1010" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>1010</v>
       </c>
       <c r="B1011" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C1011" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1011" t="s">
         <v>50</v>
       </c>
       <c r="F1011" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>1011</v>
       </c>
       <c r="B1012" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C1012" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1012" t="s">
         <v>50</v>
       </c>
       <c r="F1012" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>1012</v>
       </c>
       <c r="B1013" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C1013" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1013" t="s">
         <v>50</v>
       </c>
       <c r="F1013" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>1013</v>
       </c>
       <c r="B1014" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C1014" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1014" t="s">
         <v>50</v>
       </c>
       <c r="F1014" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>1014</v>
       </c>
       <c r="B1015" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C1015" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1015" t="s">
         <v>50</v>
       </c>
       <c r="F1015" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>1015</v>
       </c>
       <c r="B1016" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="C1016" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1016" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="1017" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1016" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>1016</v>
       </c>
       <c r="B1017" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C1017" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1017" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>1017</v>
       </c>
       <c r="B1018" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C1018" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1018" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>1018</v>
       </c>
       <c r="B1019" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C1019" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1019" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>1019</v>
       </c>
       <c r="B1020" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C1020" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1020" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>1020</v>
       </c>
       <c r="B1021" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C1021" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1021" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>1021</v>
       </c>
       <c r="B1022" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C1022" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1022" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>1022</v>
       </c>
+      <c r="B1023" t="s">
+        <v>477</v>
+      </c>
       <c r="C1023" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1023" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>1023</v>
       </c>
+      <c r="B1024" t="s">
+        <v>453</v>
+      </c>
       <c r="C1024" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1024" t="s">
         <v>50</v>
@@ -11926,52 +12444,79 @@
       <c r="A1025">
         <v>1024</v>
       </c>
+      <c r="B1025" t="s">
+        <v>478</v>
+      </c>
       <c r="C1025" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1025" t="s">
         <v>50</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>1025</v>
       </c>
+      <c r="B1026" t="s">
+        <v>479</v>
+      </c>
       <c r="C1026" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1026" t="s">
         <v>50</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>1026</v>
       </c>
+      <c r="B1027" t="s">
+        <v>480</v>
+      </c>
       <c r="C1027" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1027" t="s">
         <v>50</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>1027</v>
       </c>
+      <c r="B1028" t="s">
+        <v>481</v>
+      </c>
       <c r="C1028" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1028" t="s">
         <v>50</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>1028</v>
       </c>
+      <c r="B1029" t="s">
+        <v>484</v>
+      </c>
       <c r="C1029" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1029" t="s">
         <v>50</v>
@@ -11981,28 +12526,22 @@
       <c r="A1030">
         <v>1029</v>
       </c>
-      <c r="C1030" t="s">
-        <v>442</v>
-      </c>
-      <c r="D1030" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>1030</v>
       </c>
       <c r="B1031" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C1031" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1031" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F1031" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
@@ -12010,16 +12549,16 @@
         <v>1031</v>
       </c>
       <c r="B1032" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C1032" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1032" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F1032" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
@@ -12027,16 +12566,16 @@
         <v>1032</v>
       </c>
       <c r="B1033" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C1033" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1033" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F1033" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
@@ -12044,16 +12583,16 @@
         <v>1033</v>
       </c>
       <c r="B1034" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C1034" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1034" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F1034" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
@@ -12061,16 +12600,16 @@
         <v>1034</v>
       </c>
       <c r="B1035" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C1035" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1035" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F1035" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
@@ -12078,111 +12617,219 @@
         <v>1035</v>
       </c>
       <c r="B1036" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C1036" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D1036" t="s">
-        <v>458</v>
+        <v>455</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>1036</v>
       </c>
+      <c r="B1037" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>1037</v>
       </c>
+      <c r="B1038" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>1038</v>
       </c>
+      <c r="B1039" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1040" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>1040</v>
       </c>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1041" t="s">
+        <v>471</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1041" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>1041</v>
       </c>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1042" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>1042</v>
       </c>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1043" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>1043</v>
       </c>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1044" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>1044</v>
       </c>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1045" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>1045</v>
       </c>
-    </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1046" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>1046</v>
       </c>
     </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>1047</v>
       </c>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>1048</v>
       </c>
     </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>1049</v>
       </c>
     </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>1050</v>
       </c>
     </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>1051</v>
       </c>
     </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>1052</v>
       </c>
     </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>1053</v>
       </c>
     </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>1054</v>
       </c>
     </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>1055</v>
       </c>
@@ -13952,6 +14599,16 @@
     <hyperlink ref="I305" r:id="rId35"/>
     <hyperlink ref="I306" r:id="rId36"/>
     <hyperlink ref="I307" r:id="rId37"/>
+    <hyperlink ref="I1041" r:id="rId38"/>
+    <hyperlink ref="I1016" r:id="rId39"/>
+    <hyperlink ref="I602" r:id="rId40" display="https://www.youtube.com/watch?v=2maH3KbLkAE"/>
+    <hyperlink ref="I710" r:id="rId41"/>
+    <hyperlink ref="I720" r:id="rId42"/>
+    <hyperlink ref="I721" r:id="rId43"/>
+    <hyperlink ref="I722" r:id="rId44"/>
+    <hyperlink ref="I723" r:id="rId45"/>
+    <hyperlink ref="I725" r:id="rId46"/>
+    <hyperlink ref="I70" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java_all.xlsx
+++ b/java_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17620" yWindow="460" windowWidth="28760" windowHeight="14760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20" yWindow="700" windowWidth="20920" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="710">
   <si>
     <t>Sorting</t>
   </si>
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t>Singleton Pattern Using Reflection (Solution to Reflection using enum which uses Eager initialization)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singleton Pattern Using Clone / Cloning  (Solution to Cloning </t>
   </si>
   <si>
     <t>Factory Pattern</t>
@@ -1207,9 +1204,6 @@
   </si>
   <si>
     <t>Remove every Kth node in LinkedList</t>
-  </si>
-  <si>
-    <t>Delete node when only this node is given</t>
   </si>
   <si>
     <t>Delete last occurrence of an element in LinkedList</t>
@@ -2061,12 +2055,253 @@
 Interpolation Search
 Find Kth smallest / largest element in Unsorted Array</t>
   </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Deque</t>
+  </si>
+  <si>
+    <t>Delete node when only this node is given / When head node is not given</t>
+  </si>
+  <si>
+    <t>Leetcode</t>
+  </si>
+  <si>
+    <t>Number of Islands in Grid of 0s and 1s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U6-X_QOwPcs&amp;list=PLU_sdQYzUj2keVENTP0a5rdykRSgg9Wp-</t>
+  </si>
+  <si>
+    <t>Check if array contains duplicate (1. Using HashSet 2. Using Sorting Array First and Compare I and i+1)</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>Reversed LinkedList</t>
+  </si>
+  <si>
+    <t>Diagonal Difference in a Square Matrix</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ef0ts1cVWYc&amp;list=PLU_sdQYzUj2nKXYskiYlKQIKknqu4H5ti</t>
+  </si>
+  <si>
+    <t>Simple Sum of Array</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C3gwj02jgO8&amp;list=PLU_sdQYzUj2nKXYskiYlKQIKknqu4H5ti&amp;index=2</t>
+  </si>
+  <si>
+    <t>Binary Search Tree : Lowest Common Ancestor</t>
+  </si>
+  <si>
+    <t>Given the root of a Binary Tree check whether it is a Binary Search Tree or not.
+Binary Search Tree Property:
+1. All nodes on LHS of subtree are less than the nodes value
+2. All nodes on RHS of subtree are greater than the nodes value
+3. Both left and right subtree are also BST</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L2b3KQWIq_0</t>
+  </si>
+  <si>
+    <t>Get inorder parent for a given value in BST</t>
+  </si>
+  <si>
+    <t>Get difference of even and odd level values</t>
+  </si>
+  <si>
+    <t>Get max value element in BST</t>
+  </si>
+  <si>
+    <t>Get min value element in BST</t>
+  </si>
+  <si>
+    <t>Get inorder successor of a given value in BST (inorder successor means just bigger number than n)</t>
+  </si>
+  <si>
+    <t>https://thecodingsimplified.com/get-difference-of-even-odd-level-values/</t>
+  </si>
+  <si>
+    <t>Print Binary Search Tree in inorder (sorted ascending order)</t>
+  </si>
+  <si>
+    <t>Print Binary Search Tree in preorder</t>
+  </si>
+  <si>
+    <t>Print Binary Search Tree in postorder</t>
+  </si>
+  <si>
+    <t>Singleton Pattern Using Clone / Cloning  (Solution to Cloning)</t>
+  </si>
+  <si>
+    <t>Singleton Pattern</t>
+  </si>
+  <si>
+    <t>Observer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1HL0V7vz5mA&amp;list=PLt4nG7RVVk1h9lxOYSOGI9pcP3I5oblbx&amp;index=11</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AIyTWtOqrfs&amp;list=PLt4nG7RVVk1h9lxOYSOGI9pcP3I5oblbx&amp;index=7</t>
+  </si>
+  <si>
+    <t>Check Brackets</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5VQ2Nwq75zk&amp;list=PLt4nG7RVVk1jSKVFOcpxqXNrARYUEOOSV&amp;index=4</t>
+  </si>
+  <si>
+    <t>Infix to Postfix Using Stack</t>
+  </si>
+  <si>
+    <t>Postfix to Evaluation</t>
+  </si>
+  <si>
+    <t>Create your own Stack / Stack implementation using Queue</t>
+  </si>
+  <si>
+    <t>Print next larger element for each array value</t>
+  </si>
+  <si>
+    <t>Get Minimum element in O(1) operation in Stack</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=99SyEvIfSqM&amp;list=PLt4nG7RVVk1jSKVFOcpxqXNrARYUEOOSV&amp;index=9</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Get Fibonacci Number</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Total number of ways to reach nth Stair using Step 1, 2 or 3</t>
+  </si>
+  <si>
+    <t>Minimum jumps to reach nth Stair using Step 1, 2 or 3</t>
+  </si>
+  <si>
+    <t>Get Longest Increasing Subsequece Length</t>
+  </si>
+  <si>
+    <t>Maximum Sum Increasing Sequence</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>Edit Distance (Minimum operations required to transform String - 1 to String - 2)</t>
+  </si>
+  <si>
+    <t>Longest Palindrome Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Palindrome Substring / Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>0/1 Knapsack Problem / Get maximum profit for given weights and their profit for a capacity</t>
+  </si>
+  <si>
+    <t>Subset Sum Problem (If there exists a subset with sum equal to given sum)</t>
+  </si>
+  <si>
+    <t>Check if Equal sum partition exists of given array</t>
+  </si>
+  <si>
+    <t>Partition Set into Two Subset such that Subset Sum have Minimum Difference</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack / Get Max Profit for a given capacity / Given weights and their profits</t>
+  </si>
+  <si>
+    <t>Coin Change Problem / Total no of ways to make sum from given coins</t>
+  </si>
+  <si>
+    <t>Coin Change Problem / Minimum number of coins required to make given sum with given coins</t>
+  </si>
+  <si>
+    <t>Rod Cutting Problem | Cut the road pieces such that it gets maximum profit</t>
+  </si>
+  <si>
+    <t>Minimum jumps to reach till the end (Each value represents the max jumps it can take)</t>
+  </si>
+  <si>
+    <t>Count of subsets with sum equal to given sum</t>
+  </si>
+  <si>
+    <t>Target Sum / Count sets whose sum is equal to given sum if any element can be +/-</t>
+  </si>
+  <si>
+    <t>Find maximum pieces retrieved after cutting a piece of given length</t>
+  </si>
+  <si>
+    <t>Find maximum sum of array elements if consecutive elements are not allowed</t>
+  </si>
+  <si>
+    <t>Minimum Deletion to make a String Palindrome</t>
+  </si>
+  <si>
+    <t>Count all Palindrome substring in given string</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2086,6 +2321,55 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2115,7 +2399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2132,6 +2416,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2412,15 +2703,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1401"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B396" sqref="B396"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D415" sqref="D415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="101.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="31.1640625" customWidth="1"/>
     <col min="8" max="8" width="37.1640625" customWidth="1"/>
@@ -2605,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -2714,7 +3005,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -2748,7 +3039,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -2765,7 +3056,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -2782,7 +3073,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -2799,7 +3090,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -2810,7 +3101,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -2821,10 +3112,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2912,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -3202,7 +3493,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
@@ -3216,7 +3507,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -3230,7 +3521,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -3244,7 +3535,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
@@ -3513,7 +3804,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C70" t="s">
         <v>62</v>
@@ -3522,7 +3813,7 @@
         <v>76</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3808,7 +4099,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3961,7 +4252,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C99" t="s">
         <v>25</v>
@@ -3998,7 +4289,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C101" t="s">
         <v>25</v>
@@ -4075,7 +4366,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C105" t="s">
         <v>25</v>
@@ -4155,7 +4446,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s">
         <v>25</v>
@@ -4170,7 +4461,7 @@
         <v>76</v>
       </c>
       <c r="I109" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -4178,7 +4469,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C110" t="s">
         <v>25</v>
@@ -4198,7 +4489,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C111" t="s">
         <v>25</v>
@@ -4241,7 +4532,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C113" t="s">
         <v>25</v>
@@ -4335,7 +4626,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C118" t="s">
         <v>25</v>
@@ -4645,10 +4936,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D135" t="s">
         <v>116</v>
@@ -4665,10 +4956,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C136" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D136" t="s">
         <v>116</v>
@@ -4688,7 +4979,7 @@
         <v>158</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D137" t="s">
         <v>116</v>
@@ -4708,7 +4999,7 @@
         <v>159</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D138" t="s">
         <v>116</v>
@@ -4728,7 +5019,7 @@
         <v>160</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D139" t="s">
         <v>116</v>
@@ -4748,7 +5039,7 @@
         <v>161</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D140" t="s">
         <v>116</v>
@@ -4768,10 +5059,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D141" t="s">
         <v>49</v>
@@ -4788,10 +5079,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D142" t="s">
         <v>116</v>
@@ -4808,10 +5099,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D143" t="s">
         <v>116</v>
@@ -4828,10 +5119,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D144" t="s">
         <v>116</v>
@@ -4848,10 +5139,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D145" t="s">
         <v>49</v>
@@ -4868,10 +5159,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C146" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D146" t="s">
         <v>49</v>
@@ -4888,10 +5179,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D147" t="s">
         <v>116</v>
@@ -4908,10 +5199,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C148" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D148" t="s">
         <v>49</v>
@@ -4928,10 +5219,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D149" t="s">
         <v>116</v>
@@ -4945,10 +5236,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C150" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D150" t="s">
         <v>116</v>
@@ -4962,10 +5253,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D151" t="s">
         <v>116</v>
@@ -4982,10 +5273,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C152" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D152" t="s">
         <v>116</v>
@@ -5002,10 +5293,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C153" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D153" t="s">
         <v>116</v>
@@ -5022,10 +5313,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D154" t="s">
         <v>28</v>
@@ -5037,7 +5328,7 @@
         <v>76</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -5045,10 +5336,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C155" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D155" t="s">
         <v>29</v>
@@ -5060,7 +5351,7 @@
         <v>76</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -5068,10 +5359,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C156" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D156" t="s">
         <v>33</v>
@@ -5083,7 +5374,7 @@
         <v>76</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -5091,13 +5382,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D157" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E157">
         <v>2</v>
@@ -5106,7 +5397,7 @@
         <v>76</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -5114,10 +5405,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C158" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D158" t="s">
         <v>37</v>
@@ -5129,7 +5420,7 @@
         <v>76</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -5137,10 +5428,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D159" t="s">
         <v>33</v>
@@ -5151,10 +5442,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D160" t="s">
         <v>116</v>
@@ -5166,7 +5457,7 @@
         <v>76</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5174,10 +5465,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D161" t="s">
         <v>116</v>
@@ -5189,7 +5480,7 @@
         <v>76</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5197,10 +5488,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C162" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D162" t="s">
         <v>116</v>
@@ -5215,10 +5506,10 @@
         <v>20</v>
       </c>
       <c r="H162" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5229,7 +5520,7 @@
         <v>169</v>
       </c>
       <c r="C163" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D163" t="s">
         <v>116</v>
@@ -5247,7 +5538,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C164" t="s">
         <v>62</v>
@@ -5262,7 +5553,7 @@
         <v>76</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -5270,13 +5561,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D165" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -5287,10 +5578,10 @@
         <v>170</v>
       </c>
       <c r="C166" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D166" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E166">
         <v>2</v>
@@ -5340,7 +5631,7 @@
         <v>76</v>
       </c>
       <c r="G170" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H170" t="s">
         <v>21</v>
@@ -5351,7 +5642,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C171" t="s">
         <v>62</v>
@@ -5371,13 +5662,13 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F172" t="s">
         <v>76</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -5388,13 +5679,13 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F173" t="s">
         <v>76</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -5411,7 +5702,7 @@
         <v>76</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -5443,7 +5734,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -5451,7 +5742,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -5459,10 +5750,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C180" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D180" t="s">
         <v>34</v>
@@ -5474,7 +5765,7 @@
         <v>76</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -5482,10 +5773,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D181" t="s">
         <v>35</v>
@@ -5497,7 +5788,7 @@
         <v>76</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -5505,10 +5796,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D182" t="s">
         <v>49</v>
@@ -5519,10 +5810,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D183" t="s">
         <v>49</v>
@@ -5533,10 +5824,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D184" t="s">
         <v>116</v>
@@ -5553,10 +5844,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D185" t="s">
         <v>116</v>
@@ -5568,7 +5859,7 @@
         <v>76</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -5576,7 +5867,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="C186" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -5584,10 +5878,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D187" t="s">
         <v>116</v>
@@ -5604,10 +5898,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D188" t="s">
         <v>116</v>
@@ -5619,7 +5913,7 @@
         <v>76</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -5627,10 +5921,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D189" t="s">
         <v>116</v>
@@ -5647,10 +5941,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D190" t="s">
         <v>116</v>
@@ -5667,10 +5961,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D191" t="s">
         <v>116</v>
@@ -5687,10 +5981,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C192" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D192" t="s">
         <v>116</v>
@@ -5707,10 +6001,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D193" t="s">
         <v>116</v>
@@ -5727,10 +6021,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D194" t="s">
         <v>116</v>
@@ -5747,10 +6041,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D195" t="s">
         <v>116</v>
@@ -5767,10 +6061,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D196" t="s">
         <v>116</v>
@@ -5787,10 +6081,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D197" t="s">
         <v>116</v>
@@ -5807,10 +6101,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C198" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D198" t="s">
         <v>116</v>
@@ -5827,10 +6121,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C199" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D199" t="s">
         <v>116</v>
@@ -5847,10 +6141,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C200" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D200" t="s">
         <v>116</v>
@@ -5867,10 +6161,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C201" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D201" t="s">
         <v>116</v>
@@ -5893,7 +6187,7 @@
         <v>163</v>
       </c>
       <c r="D202" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -5913,7 +6207,7 @@
         <v>163</v>
       </c>
       <c r="D203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -5933,7 +6227,7 @@
         <v>163</v>
       </c>
       <c r="D204" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -5953,7 +6247,7 @@
         <v>163</v>
       </c>
       <c r="D205" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -5973,7 +6267,7 @@
         <v>163</v>
       </c>
       <c r="D206" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -5993,7 +6287,7 @@
         <v>163</v>
       </c>
       <c r="D207" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -6013,7 +6307,7 @@
         <v>163</v>
       </c>
       <c r="D208" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -6033,7 +6327,7 @@
         <v>163</v>
       </c>
       <c r="D209" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -6053,7 +6347,7 @@
         <v>163</v>
       </c>
       <c r="D210" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -6073,7 +6367,7 @@
         <v>163</v>
       </c>
       <c r="D211" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -6087,13 +6381,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>188</v>
+        <v>670</v>
       </c>
       <c r="C212" t="s">
         <v>163</v>
       </c>
       <c r="D212" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -6107,13 +6401,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C213" t="s">
         <v>163</v>
       </c>
       <c r="D213" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -6127,13 +6421,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C214" t="s">
         <v>163</v>
       </c>
       <c r="D214" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -6147,13 +6441,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C215" t="s">
         <v>163</v>
       </c>
       <c r="D215" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -6167,13 +6461,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C216" t="s">
         <v>163</v>
       </c>
       <c r="D216" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -6187,13 +6481,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C217" t="s">
         <v>163</v>
       </c>
       <c r="D217" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -6207,13 +6501,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C218" t="s">
         <v>163</v>
       </c>
       <c r="D218" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -6227,13 +6521,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C219" t="s">
         <v>163</v>
       </c>
       <c r="D219" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -6247,13 +6541,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C220" t="s">
         <v>163</v>
       </c>
       <c r="D220" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -6267,13 +6561,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C221" t="s">
         <v>163</v>
       </c>
       <c r="D221" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -6287,13 +6581,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C222" t="s">
         <v>163</v>
       </c>
       <c r="D222" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -6307,13 +6601,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C223" t="s">
         <v>163</v>
       </c>
       <c r="D223" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -6327,13 +6621,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C224" t="s">
         <v>163</v>
       </c>
       <c r="D224" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -6347,13 +6641,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C225" t="s">
         <v>163</v>
       </c>
       <c r="D225" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -6367,13 +6661,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C226" t="s">
         <v>163</v>
       </c>
       <c r="D226" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -6387,13 +6681,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C227" t="s">
         <v>163</v>
       </c>
       <c r="D227" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -6407,13 +6701,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C228" t="s">
         <v>163</v>
       </c>
       <c r="D228" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -6427,13 +6721,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C229" t="s">
         <v>163</v>
       </c>
       <c r="D229" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -6447,13 +6741,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C230" t="s">
         <v>163</v>
       </c>
       <c r="D230" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -6467,13 +6761,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C231" t="s">
         <v>163</v>
       </c>
       <c r="D231" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -6487,13 +6781,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C232" t="s">
         <v>163</v>
       </c>
       <c r="D232" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -6507,13 +6801,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C233" t="s">
         <v>163</v>
       </c>
       <c r="D233" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -6527,13 +6821,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C234" t="s">
         <v>163</v>
       </c>
       <c r="D234" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -6547,13 +6841,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C235" t="s">
         <v>163</v>
       </c>
       <c r="D235" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -6567,13 +6861,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C236" t="s">
         <v>163</v>
       </c>
       <c r="D236" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -6587,7 +6881,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -6595,7 +6889,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -6603,7 +6897,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -6611,7 +6905,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -6619,7 +6913,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C241" t="s">
         <v>62</v>
@@ -6639,7 +6933,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -6647,7 +6941,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C243" t="s">
         <v>62</v>
@@ -6658,7 +6952,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C244" t="s">
         <v>62</v>
@@ -6675,7 +6969,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C245" t="s">
         <v>25</v>
@@ -6695,7 +6989,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C246" t="s">
         <v>25</v>
@@ -6712,7 +7006,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C247" t="s">
         <v>25</v>
@@ -6729,7 +7023,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C248" t="s">
         <v>25</v>
@@ -6741,7 +7035,7 @@
         <v>3</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -6749,13 +7043,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C249" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D249" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E249">
         <v>3</v>
@@ -6764,7 +7058,7 @@
         <v>76</v>
       </c>
       <c r="I249" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -6772,10 +7066,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C250" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D250" t="s">
         <v>116</v>
@@ -6787,7 +7081,7 @@
         <v>76</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -6795,10 +7089,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C251" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E251">
         <v>3</v>
@@ -6807,7 +7101,7 @@
         <v>76</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -6815,10 +7109,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C252" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E252">
         <v>3</v>
@@ -6832,10 +7126,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C253" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E253">
         <v>2</v>
@@ -6849,10 +7143,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C254" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D254" t="s">
         <v>116</v>
@@ -6869,7 +7163,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C255" t="s">
         <v>25</v>
@@ -6889,10 +7183,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -6906,10 +7200,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C257" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E257">
         <v>3</v>
@@ -6923,10 +7217,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C258" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E258">
         <v>3</v>
@@ -6940,10 +7234,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C259" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E259">
         <v>3</v>
@@ -6957,10 +7251,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D260" t="s">
         <v>116</v>
@@ -6977,10 +7271,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C261" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D261" t="s">
         <v>116</v>
@@ -6992,7 +7286,7 @@
         <v>76</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -7000,10 +7294,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D262" t="s">
         <v>116</v>
@@ -7015,7 +7309,7 @@
         <v>76</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -7023,10 +7317,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C263" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D263" t="s">
         <v>116</v>
@@ -7038,7 +7332,7 @@
         <v>76</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -7046,10 +7340,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C264" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D264" t="s">
         <v>116</v>
@@ -7066,10 +7360,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C265" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D265" t="s">
         <v>116</v>
@@ -7081,7 +7375,7 @@
         <v>76</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -7089,10 +7383,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C266" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D266" t="s">
         <v>116</v>
@@ -7104,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="267" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -7112,10 +7406,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C267" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D267" t="s">
         <v>116</v>
@@ -7132,10 +7426,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C268" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D268" t="s">
         <v>116</v>
@@ -7152,10 +7446,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C269" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D269" t="s">
         <v>116</v>
@@ -7172,10 +7466,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C270" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D270" t="s">
         <v>116</v>
@@ -7192,10 +7486,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C271" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D271" t="s">
         <v>116</v>
@@ -7212,10 +7506,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C272" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D272" t="s">
         <v>116</v>
@@ -7232,10 +7526,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C273" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D273" t="s">
         <v>116</v>
@@ -7246,10 +7540,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C274" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D274" t="s">
         <v>116</v>
@@ -7260,10 +7554,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C275" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D275" t="s">
         <v>116</v>
@@ -7274,10 +7568,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C276" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D276" t="s">
         <v>116</v>
@@ -7288,10 +7582,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C277" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D277" t="s">
         <v>116</v>
@@ -7302,10 +7596,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C278" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D278" t="s">
         <v>116</v>
@@ -7316,10 +7610,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C279" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D279" t="s">
         <v>116</v>
@@ -7330,10 +7624,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C280" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D280" t="s">
         <v>116</v>
@@ -7344,10 +7638,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C281" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D281" t="s">
         <v>116</v>
@@ -7358,10 +7652,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C282" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D282" t="s">
         <v>116</v>
@@ -7372,10 +7666,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C283" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D283" t="s">
         <v>116</v>
@@ -7386,10 +7680,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C284" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D284" t="s">
         <v>116</v>
@@ -7400,10 +7694,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C285" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D285" t="s">
         <v>116</v>
@@ -7414,10 +7708,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C286" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D286" t="s">
         <v>116</v>
@@ -7428,10 +7722,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C287" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D287" t="s">
         <v>116</v>
@@ -7442,10 +7736,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C288" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D288" t="s">
         <v>116</v>
@@ -7456,10 +7750,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C289" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D289" t="s">
         <v>116</v>
@@ -7470,10 +7764,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C290" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D290" t="s">
         <v>116</v>
@@ -7484,10 +7778,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C291" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D291" t="s">
         <v>116</v>
@@ -7498,10 +7792,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C292" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D292" t="s">
         <v>116</v>
@@ -7512,10 +7806,10 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C293" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D293" t="s">
         <v>116</v>
@@ -7526,10 +7820,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C294" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D294" t="s">
         <v>116</v>
@@ -7540,10 +7834,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C295" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D295" t="s">
         <v>116</v>
@@ -7554,10 +7848,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C296" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D296" t="s">
         <v>116</v>
@@ -7568,10 +7862,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C297" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D297" t="s">
         <v>116</v>
@@ -7582,10 +7876,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C298" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D298" t="s">
         <v>116</v>
@@ -7596,10 +7890,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C299" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D299" t="s">
         <v>116</v>
@@ -7610,10 +7904,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C300" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D300" t="s">
         <v>116</v>
@@ -7624,10 +7918,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C301" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D301" t="s">
         <v>116</v>
@@ -7638,10 +7932,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C302" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D302" t="s">
         <v>27</v>
@@ -7658,10 +7952,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C303" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D303" t="s">
         <v>27</v>
@@ -7678,10 +7972,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C304" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D304" t="s">
         <v>27</v>
@@ -7698,10 +7992,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C305" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D305" t="s">
         <v>27</v>
@@ -7713,7 +8007,7 @@
         <v>76</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -7721,10 +8015,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C306" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D306" t="s">
         <v>27</v>
@@ -7736,7 +8030,7 @@
         <v>76</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
@@ -7744,10 +8038,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C307" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D307" t="s">
         <v>27</v>
@@ -7759,7 +8053,7 @@
         <v>76</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -7767,10 +8061,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C308" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D308" t="s">
         <v>27</v>
@@ -7787,10 +8081,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C309" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D309" t="s">
         <v>27</v>
@@ -7807,10 +8101,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C310" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D310" t="s">
         <v>27</v>
@@ -7827,10 +8121,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C311" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D311" t="s">
         <v>27</v>
@@ -7847,10 +8141,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C312" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D312" t="s">
         <v>27</v>
@@ -7867,10 +8161,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C313" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D313" t="s">
         <v>27</v>
@@ -7887,10 +8181,10 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C314" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D314" t="s">
         <v>27</v>
@@ -7907,10 +8201,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C315" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D315" t="s">
         <v>27</v>
@@ -7927,10 +8221,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C316" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D316" t="s">
         <v>27</v>
@@ -7947,10 +8241,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C317" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D317" t="s">
         <v>27</v>
@@ -7967,10 +8261,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C318" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D318" t="s">
         <v>27</v>
@@ -7987,10 +8281,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C319" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D319" t="s">
         <v>27</v>
@@ -8007,10 +8301,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C320" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D320" t="s">
         <v>27</v>
@@ -8027,10 +8321,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C321" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D321" t="s">
         <v>27</v>
@@ -8047,10 +8341,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C322" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D322" t="s">
         <v>27</v>
@@ -8067,10 +8361,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C323" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D323" t="s">
         <v>27</v>
@@ -8087,10 +8381,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C324" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D324" t="s">
         <v>27</v>
@@ -8107,10 +8401,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C325" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D325" t="s">
         <v>27</v>
@@ -8127,10 +8421,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C326" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D326" t="s">
         <v>27</v>
@@ -8147,10 +8441,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D327" t="s">
         <v>27</v>
@@ -8167,10 +8461,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C328" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D328" t="s">
         <v>27</v>
@@ -8187,10 +8481,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C329" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D329" t="s">
         <v>27</v>
@@ -8207,10 +8501,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C330" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D330" t="s">
         <v>27</v>
@@ -8227,10 +8521,10 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C331" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D331" t="s">
         <v>27</v>
@@ -8247,10 +8541,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C332" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D332" t="s">
         <v>27</v>
@@ -8267,10 +8561,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C333" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D333" t="s">
         <v>27</v>
@@ -8287,10 +8581,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C334" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D334" t="s">
         <v>27</v>
@@ -8307,10 +8601,10 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C335" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D335" t="s">
         <v>27</v>
@@ -8327,10 +8621,10 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C336" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D336" t="s">
         <v>27</v>
@@ -8347,10 +8641,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C337" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D337" t="s">
         <v>27</v>
@@ -8367,10 +8661,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C338" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D338" t="s">
         <v>27</v>
@@ -8387,10 +8681,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C339" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D339" t="s">
         <v>27</v>
@@ -8407,10 +8701,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C340" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D340" t="s">
         <v>27</v>
@@ -8427,10 +8721,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C341" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D341" t="s">
         <v>27</v>
@@ -8447,10 +8741,10 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C342" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D342" t="s">
         <v>27</v>
@@ -8467,10 +8761,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C343" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D343" t="s">
         <v>27</v>
@@ -8487,10 +8781,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C344" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D344" t="s">
         <v>27</v>
@@ -8507,10 +8801,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C345" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D345" t="s">
         <v>27</v>
@@ -8527,10 +8821,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C346" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D346" t="s">
         <v>27</v>
@@ -8547,10 +8841,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C347" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D347" t="s">
         <v>27</v>
@@ -8567,10 +8861,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C348" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D348" t="s">
         <v>27</v>
@@ -8587,10 +8881,10 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C349" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D349" t="s">
         <v>27</v>
@@ -8607,10 +8901,10 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C350" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D350" t="s">
         <v>27</v>
@@ -8630,10 +8924,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C351" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D351" t="s">
         <v>27</v>
@@ -8650,10 +8944,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C352" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D352" t="s">
         <v>27</v>
@@ -8670,10 +8964,10 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C353" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D353" t="s">
         <v>27</v>
@@ -8690,10 +8984,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C354" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D354" t="s">
         <v>27</v>
@@ -8710,10 +9004,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C355" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D355" t="s">
         <v>27</v>
@@ -8730,10 +9024,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C356" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D356" t="s">
         <v>27</v>
@@ -8750,10 +9044,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C357" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D357" t="s">
         <v>27</v>
@@ -8770,10 +9064,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C358" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D358" t="s">
         <v>27</v>
@@ -8787,16 +9081,19 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C359" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D359" t="s">
         <v>27</v>
       </c>
       <c r="E359">
         <v>3</v>
+      </c>
+      <c r="F359" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
@@ -8804,16 +9101,19 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C360" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D360" t="s">
         <v>27</v>
       </c>
       <c r="E360">
         <v>3</v>
+      </c>
+      <c r="F360" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
@@ -8821,16 +9121,19 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C361" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D361" t="s">
         <v>27</v>
       </c>
       <c r="E361">
         <v>3</v>
+      </c>
+      <c r="F361" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
@@ -8838,16 +9141,19 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C362" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D362" t="s">
         <v>27</v>
       </c>
       <c r="E362">
         <v>3</v>
+      </c>
+      <c r="F362" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
@@ -8855,16 +9161,19 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C363" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D363" t="s">
         <v>27</v>
       </c>
       <c r="E363">
         <v>3</v>
+      </c>
+      <c r="F363" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
@@ -8872,16 +9181,19 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C364" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D364" t="s">
         <v>27</v>
       </c>
       <c r="E364">
         <v>3</v>
+      </c>
+      <c r="F364" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
@@ -8889,16 +9201,19 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C365" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D365" t="s">
         <v>27</v>
       </c>
       <c r="E365">
         <v>3</v>
+      </c>
+      <c r="F365" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
@@ -8906,16 +9221,19 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C366" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D366" t="s">
         <v>27</v>
       </c>
       <c r="E366">
         <v>3</v>
+      </c>
+      <c r="F366" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
@@ -8923,16 +9241,19 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C367" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D367" t="s">
         <v>27</v>
       </c>
       <c r="E367">
         <v>3</v>
+      </c>
+      <c r="F367" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
@@ -8940,10 +9261,10 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C368" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D368" t="s">
         <v>27</v>
@@ -8951,16 +9272,19 @@
       <c r="E368">
         <v>3</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F368" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C369" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D369" t="s">
         <v>27</v>
@@ -8968,16 +9292,19 @@
       <c r="E369">
         <v>3</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F369" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C370" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D370" t="s">
         <v>27</v>
@@ -8985,16 +9312,19 @@
       <c r="E370">
         <v>3</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F370" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>391</v>
+        <v>647</v>
       </c>
       <c r="C371" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D371" t="s">
         <v>27</v>
@@ -9002,16 +9332,19 @@
       <c r="E371">
         <v>3</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F371" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C372" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D372" t="s">
         <v>27</v>
@@ -9019,16 +9352,19 @@
       <c r="E372">
         <v>3</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F372" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C373" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D373" t="s">
         <v>27</v>
@@ -9036,16 +9372,19 @@
       <c r="E373">
         <v>3</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F373" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C374" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D374" t="s">
         <v>27</v>
@@ -9053,16 +9392,19 @@
       <c r="E374">
         <v>3</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F374" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C375" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D375" t="s">
         <v>27</v>
@@ -9070,16 +9412,19 @@
       <c r="E375">
         <v>3</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F375" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C376" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D376" t="s">
         <v>27</v>
@@ -9087,16 +9432,19 @@
       <c r="E376">
         <v>3</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F376" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C377" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D377" t="s">
         <v>27</v>
@@ -9104,16 +9452,19 @@
       <c r="E377">
         <v>3</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F377" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C378" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D378" t="s">
         <v>27</v>
@@ -9121,16 +9472,19 @@
       <c r="E378">
         <v>3</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F378" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C379" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D379" t="s">
         <v>27</v>
@@ -9139,15 +9493,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C380" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D380" t="s">
         <v>27</v>
@@ -9156,15 +9510,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C381" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D381" t="s">
         <v>27</v>
@@ -9173,15 +9527,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C382" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D382" t="s">
         <v>27</v>
@@ -9190,15 +9544,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C383" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D383" t="s">
         <v>27</v>
@@ -9207,15 +9561,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C384" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D384" t="s">
         <v>27</v>
@@ -9229,10 +9583,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C385" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D385" t="s">
         <v>27</v>
@@ -9246,10 +9600,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C386" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D386" t="s">
         <v>27</v>
@@ -9263,10 +9617,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C387" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -9280,10 +9634,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C388" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -9297,10 +9651,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C389" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -9314,10 +9668,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C390" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -9331,10 +9685,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C391" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -9351,10 +9705,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C392" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -9371,10 +9725,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C393" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -9391,10 +9745,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C394" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D394" t="s">
         <v>116</v>
@@ -9411,10 +9765,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C395" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D395" t="s">
         <v>116</v>
@@ -9428,7 +9782,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
@@ -9436,7 +9790,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
@@ -9444,7 +9798,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
@@ -9452,7 +9806,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
@@ -9460,251 +9814,587 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B403" t="s">
+        <v>671</v>
+      </c>
+      <c r="C403" t="s">
+        <v>163</v>
+      </c>
+      <c r="D403" t="s">
+        <v>192</v>
+      </c>
+      <c r="E403">
+        <v>3</v>
+      </c>
+      <c r="F403" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B404" t="s">
+        <v>188</v>
+      </c>
+      <c r="C404" t="s">
+        <v>163</v>
+      </c>
+      <c r="D404" t="s">
+        <v>192</v>
+      </c>
+      <c r="E404">
+        <v>3</v>
+      </c>
+      <c r="F404" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B405" t="s">
+        <v>190</v>
+      </c>
+      <c r="C405" t="s">
+        <v>163</v>
+      </c>
+      <c r="D405" t="s">
+        <v>192</v>
+      </c>
+      <c r="E405">
+        <v>3</v>
+      </c>
+      <c r="F405" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B406" t="s">
+        <v>191</v>
+      </c>
+      <c r="C406" t="s">
+        <v>163</v>
+      </c>
+      <c r="D406" t="s">
+        <v>192</v>
+      </c>
+      <c r="E406">
+        <v>3</v>
+      </c>
+      <c r="F406" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B407" t="s">
+        <v>193</v>
+      </c>
+      <c r="C407" t="s">
+        <v>163</v>
+      </c>
+      <c r="D407" t="s">
+        <v>194</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B408" t="s">
+        <v>195</v>
+      </c>
+      <c r="C408" t="s">
+        <v>163</v>
+      </c>
+      <c r="D408" t="s">
+        <v>194</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408" t="s">
+        <v>76</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B409" t="s">
+        <v>196</v>
+      </c>
+      <c r="C409" t="s">
+        <v>163</v>
+      </c>
+      <c r="D409" t="s">
+        <v>194</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="F409" t="s">
+        <v>76</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B410" t="s">
+        <v>197</v>
+      </c>
+      <c r="C410" t="s">
+        <v>163</v>
+      </c>
+      <c r="D410" t="s">
+        <v>194</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B411" t="s">
+        <v>198</v>
+      </c>
+      <c r="C411" t="s">
+        <v>163</v>
+      </c>
+      <c r="D411" t="s">
+        <v>194</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B412" t="s">
+        <v>199</v>
+      </c>
+      <c r="C412" t="s">
+        <v>163</v>
+      </c>
+      <c r="D412" t="s">
+        <v>194</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B413" t="s">
+        <v>202</v>
+      </c>
+      <c r="C413" t="s">
+        <v>163</v>
+      </c>
+      <c r="D413" t="s">
+        <v>194</v>
+      </c>
+      <c r="E413">
+        <v>1</v>
+      </c>
+      <c r="F413" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B414" t="s">
+        <v>672</v>
+      </c>
+      <c r="C414" t="s">
+        <v>163</v>
+      </c>
+      <c r="D414" t="s">
+        <v>200</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+      <c r="F414" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B415" t="s">
+        <v>684</v>
+      </c>
+      <c r="C415" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B416" t="s">
+        <v>686</v>
+      </c>
+      <c r="C416" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B417" t="s">
+        <v>687</v>
+      </c>
+      <c r="C417" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B418" t="s">
+        <v>688</v>
+      </c>
+      <c r="C418" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B419" t="s">
+        <v>689</v>
+      </c>
+      <c r="C419" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B420" t="s">
+        <v>690</v>
+      </c>
+      <c r="C420" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B421" t="s">
+        <v>691</v>
+      </c>
+      <c r="C421" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B422" t="s">
+        <v>692</v>
+      </c>
+      <c r="C422" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B423" t="s">
+        <v>693</v>
+      </c>
+      <c r="C423" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B424" t="s">
+        <v>694</v>
+      </c>
+      <c r="C424" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B425" t="s">
+        <v>695</v>
+      </c>
+      <c r="C425" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B426" t="s">
+        <v>696</v>
+      </c>
+      <c r="C426" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B427" t="s">
+        <v>697</v>
+      </c>
+      <c r="C427" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B428" t="s">
+        <v>698</v>
+      </c>
+      <c r="C428" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B429" t="s">
+        <v>699</v>
+      </c>
+      <c r="C429" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B430" t="s">
+        <v>700</v>
+      </c>
+      <c r="C430" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B431" t="s">
+        <v>701</v>
+      </c>
+      <c r="C431" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B432" t="s">
+        <v>702</v>
+      </c>
+      <c r="C432" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B433" t="s">
+        <v>703</v>
+      </c>
+      <c r="C433" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B434" t="s">
+        <v>704</v>
+      </c>
+      <c r="C434" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B435" t="s">
+        <v>705</v>
+      </c>
+      <c r="C435" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B436" t="s">
+        <v>706</v>
+      </c>
+      <c r="C436" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B437" t="s">
+        <v>707</v>
+      </c>
+      <c r="C437" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B438" t="s">
+        <v>708</v>
+      </c>
+      <c r="C438" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B439" t="s">
+        <v>709</v>
+      </c>
+      <c r="C439" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>447</v>
       </c>
@@ -10189,53 +10879,53 @@
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C552" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D552" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E552">
         <v>3</v>
@@ -10244,18 +10934,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C553" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D553" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E553">
         <v>3</v>
@@ -10264,37 +10954,133 @@
         <v>76</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>553</v>
       </c>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B554" t="s">
+        <v>675</v>
+      </c>
+      <c r="C554" t="s">
+        <v>683</v>
+      </c>
+      <c r="D554" t="s">
+        <v>232</v>
+      </c>
+      <c r="E554">
+        <v>3</v>
+      </c>
+      <c r="F554" t="s">
+        <v>76</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>554</v>
       </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B555" t="s">
+        <v>677</v>
+      </c>
+      <c r="C555" t="s">
+        <v>683</v>
+      </c>
+      <c r="D555" t="s">
+        <v>232</v>
+      </c>
+      <c r="E555">
+        <v>3</v>
+      </c>
+      <c r="F555" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>555</v>
       </c>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B556" t="s">
+        <v>678</v>
+      </c>
+      <c r="C556" t="s">
+        <v>683</v>
+      </c>
+      <c r="D556" t="s">
+        <v>232</v>
+      </c>
+      <c r="E556">
+        <v>3</v>
+      </c>
+      <c r="F556" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>556</v>
       </c>
-    </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B557" t="s">
+        <v>679</v>
+      </c>
+      <c r="C557" t="s">
+        <v>683</v>
+      </c>
+      <c r="D557" t="s">
+        <v>232</v>
+      </c>
+      <c r="E557">
+        <v>3</v>
+      </c>
+      <c r="F557" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>557</v>
       </c>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B558" t="s">
+        <v>680</v>
+      </c>
+      <c r="C558" t="s">
+        <v>683</v>
+      </c>
+      <c r="D558" t="s">
+        <v>232</v>
+      </c>
+      <c r="E558">
+        <v>3</v>
+      </c>
+      <c r="F558" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>558</v>
       </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B559" t="s">
+        <v>681</v>
+      </c>
+      <c r="C559" t="s">
+        <v>683</v>
+      </c>
+      <c r="D559" t="s">
+        <v>232</v>
+      </c>
+      <c r="E559">
+        <v>3</v>
+      </c>
+      <c r="F559" t="s">
+        <v>76</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>559</v>
       </c>
@@ -10309,13 +11095,13 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C562" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D562" t="s">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="E562">
         <v>3</v>
@@ -10394,43 +11180,43 @@
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C582" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D582" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E582">
         <v>3</v>
@@ -10439,18 +11225,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C583" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D583" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E583">
         <v>3</v>
@@ -10459,18 +11245,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C584" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D584" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E584">
         <v>3</v>
@@ -10479,18 +11265,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C585" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D585" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E585">
         <v>3</v>
@@ -10499,50 +11285,191 @@
         <v>76</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>585</v>
       </c>
-    </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B586" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C586" t="s">
+        <v>683</v>
+      </c>
+      <c r="D586" t="s">
+        <v>236</v>
+      </c>
+      <c r="E586">
+        <v>3</v>
+      </c>
+      <c r="F586" t="s">
+        <v>76</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>586</v>
       </c>
-    </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B587" t="s">
+        <v>661</v>
+      </c>
+      <c r="C587" t="s">
+        <v>683</v>
+      </c>
+      <c r="D587" t="s">
+        <v>236</v>
+      </c>
+      <c r="E587">
+        <v>3</v>
+      </c>
+      <c r="F587" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>587</v>
       </c>
-    </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B588" t="s">
+        <v>665</v>
+      </c>
+      <c r="C588" t="s">
+        <v>683</v>
+      </c>
+      <c r="D588" t="s">
+        <v>236</v>
+      </c>
+      <c r="E588">
+        <v>3</v>
+      </c>
+      <c r="F588" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>588</v>
       </c>
-    </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B589" t="s">
+        <v>662</v>
+      </c>
+      <c r="C589" t="s">
+        <v>683</v>
+      </c>
+      <c r="D589" t="s">
+        <v>236</v>
+      </c>
+      <c r="E589">
+        <v>3</v>
+      </c>
+      <c r="F589" t="s">
+        <v>76</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>589</v>
       </c>
-    </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B590" t="s">
+        <v>663</v>
+      </c>
+      <c r="C590" t="s">
+        <v>683</v>
+      </c>
+      <c r="D590" t="s">
+        <v>236</v>
+      </c>
+      <c r="E590">
+        <v>3</v>
+      </c>
+      <c r="F590" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>590</v>
       </c>
-    </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B591" t="s">
+        <v>664</v>
+      </c>
+      <c r="C591" t="s">
+        <v>683</v>
+      </c>
+      <c r="D591" t="s">
+        <v>236</v>
+      </c>
+      <c r="E591">
+        <v>3</v>
+      </c>
+      <c r="F591" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>591</v>
+      </c>
+      <c r="B592" t="s">
+        <v>667</v>
+      </c>
+      <c r="C592" t="s">
+        <v>683</v>
+      </c>
+      <c r="D592" t="s">
+        <v>236</v>
+      </c>
+      <c r="E592">
+        <v>3</v>
+      </c>
+      <c r="F592" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>592</v>
       </c>
+      <c r="B593" t="s">
+        <v>668</v>
+      </c>
+      <c r="C593" t="s">
+        <v>683</v>
+      </c>
+      <c r="D593" t="s">
+        <v>236</v>
+      </c>
+      <c r="E593">
+        <v>3</v>
+      </c>
+      <c r="F593" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>593</v>
       </c>
+      <c r="B594" t="s">
+        <v>669</v>
+      </c>
+      <c r="C594" t="s">
+        <v>683</v>
+      </c>
+      <c r="D594" t="s">
+        <v>236</v>
+      </c>
+      <c r="E594">
+        <v>3</v>
+      </c>
+      <c r="F594" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595">
@@ -10579,10 +11506,10 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C601" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D601" t="s">
         <v>27</v>
@@ -10593,10 +11520,10 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C602" t="s">
-        <v>25</v>
+        <v>683</v>
       </c>
       <c r="D602" t="s">
         <v>27</v>
@@ -10608,7 +11535,7 @@
         <v>76</v>
       </c>
       <c r="I602" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.2">
@@ -11111,7 +12038,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C702" t="s">
         <v>25</v>
@@ -11131,7 +12058,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C703" t="s">
         <v>25</v>
@@ -11151,7 +12078,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C704" t="s">
         <v>25</v>
@@ -11171,7 +12098,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C705" t="s">
         <v>25</v>
@@ -11191,7 +12118,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C706" t="s">
         <v>25</v>
@@ -11251,7 +12178,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C709" t="s">
         <v>25</v>
@@ -11271,7 +12198,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C710" t="s">
         <v>25</v>
@@ -11286,7 +12213,7 @@
         <v>76</v>
       </c>
       <c r="I710" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.2">
@@ -11314,7 +12241,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C712" t="s">
         <v>25</v>
@@ -11334,7 +12261,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C713" t="s">
         <v>25</v>
@@ -11354,7 +12281,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C714" t="s">
         <v>25</v>
@@ -11374,7 +12301,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C715" t="s">
         <v>25</v>
@@ -11394,7 +12321,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C716" t="s">
         <v>25</v>
@@ -11414,7 +12341,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C717" t="s">
         <v>25</v>
@@ -11434,7 +12361,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C718" t="s">
         <v>25</v>
@@ -11454,7 +12381,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C719" t="s">
         <v>25</v>
@@ -11474,7 +12401,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C720" t="s">
         <v>25</v>
@@ -11489,7 +12416,7 @@
         <v>76</v>
       </c>
       <c r="I720" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="721" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -11497,7 +12424,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C721" t="s">
         <v>25</v>
@@ -11512,7 +12439,7 @@
         <v>76</v>
       </c>
       <c r="I721" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="722" spans="1:9" x14ac:dyDescent="0.2">
@@ -11520,7 +12447,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C722" t="s">
         <v>25</v>
@@ -11535,7 +12462,7 @@
         <v>76</v>
       </c>
       <c r="I722" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="723" spans="1:9" x14ac:dyDescent="0.2">
@@ -11543,7 +12470,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C723" t="s">
         <v>25</v>
@@ -11558,7 +12485,7 @@
         <v>76</v>
       </c>
       <c r="I723" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="724" spans="1:9" x14ac:dyDescent="0.2">
@@ -11566,7 +12493,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C724" t="s">
         <v>25</v>
@@ -11586,7 +12513,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C725" t="s">
         <v>25</v>
@@ -11601,7 +12528,7 @@
         <v>76</v>
       </c>
       <c r="I725" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="726" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -11609,13 +12536,19 @@
         <v>725</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C726" t="s">
         <v>25</v>
       </c>
       <c r="D726" t="s">
         <v>49</v>
+      </c>
+      <c r="E726">
+        <v>3</v>
+      </c>
+      <c r="F726" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="727" spans="1:9" ht="48" x14ac:dyDescent="0.2">
@@ -11623,7 +12556,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C727" t="s">
         <v>62</v>
@@ -12003,82 +12936,121 @@
         <v>799</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>800</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>801</v>
       </c>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B802" t="s">
+        <v>649</v>
+      </c>
+      <c r="C802" t="s">
+        <v>648</v>
+      </c>
+      <c r="F802" t="s">
+        <v>76</v>
+      </c>
+      <c r="I802" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>802</v>
       </c>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B803" t="s">
+        <v>651</v>
+      </c>
+      <c r="C803" t="s">
+        <v>648</v>
+      </c>
+      <c r="F803" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>803</v>
       </c>
-    </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B804" t="s">
+        <v>652</v>
+      </c>
+      <c r="C804" t="s">
+        <v>648</v>
+      </c>
+      <c r="F804" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>804</v>
       </c>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B805" t="s">
+        <v>653</v>
+      </c>
+      <c r="C805" t="s">
+        <v>648</v>
+      </c>
+      <c r="F805" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>805</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>806</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>807</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>808</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>809</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>810</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>811</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>812</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>813</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>814</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>815</v>
       </c>
@@ -13013,10 +13985,10 @@
         <v>1001</v>
       </c>
       <c r="B1002" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C1002" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1002" t="s">
         <v>49</v>
@@ -13030,10 +14002,10 @@
         <v>1002</v>
       </c>
       <c r="B1003" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C1003" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1003" t="s">
         <v>49</v>
@@ -13047,10 +14019,10 @@
         <v>1003</v>
       </c>
       <c r="B1004" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C1004" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1004" t="s">
         <v>49</v>
@@ -13064,10 +14036,10 @@
         <v>1004</v>
       </c>
       <c r="B1005" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C1005" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1005" t="s">
         <v>49</v>
@@ -13081,10 +14053,10 @@
         <v>1005</v>
       </c>
       <c r="B1006" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C1006" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1006" t="s">
         <v>49</v>
@@ -13098,10 +14070,10 @@
         <v>1006</v>
       </c>
       <c r="B1007" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C1007" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1007" t="s">
         <v>49</v>
@@ -13115,10 +14087,10 @@
         <v>1007</v>
       </c>
       <c r="B1008" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C1008" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1008" t="s">
         <v>49</v>
@@ -13132,10 +14104,10 @@
         <v>1008</v>
       </c>
       <c r="B1009" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C1009" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1009" t="s">
         <v>49</v>
@@ -13149,10 +14121,10 @@
         <v>1009</v>
       </c>
       <c r="B1010" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C1010" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1010" t="s">
         <v>49</v>
@@ -13166,10 +14138,10 @@
         <v>1010</v>
       </c>
       <c r="B1011" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C1011" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1011" t="s">
         <v>49</v>
@@ -13183,10 +14155,10 @@
         <v>1011</v>
       </c>
       <c r="B1012" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C1012" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1012" t="s">
         <v>49</v>
@@ -13200,10 +14172,10 @@
         <v>1012</v>
       </c>
       <c r="B1013" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C1013" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1013" t="s">
         <v>49</v>
@@ -13217,10 +14189,10 @@
         <v>1013</v>
       </c>
       <c r="B1014" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C1014" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1014" t="s">
         <v>49</v>
@@ -13234,10 +14206,10 @@
         <v>1014</v>
       </c>
       <c r="B1015" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C1015" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1015" t="s">
         <v>49</v>
@@ -13251,16 +14223,16 @@
         <v>1015</v>
       </c>
       <c r="B1016" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C1016" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1016" t="s">
         <v>49</v>
       </c>
       <c r="I1016" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1017" spans="1:9" x14ac:dyDescent="0.2">
@@ -13268,10 +14240,10 @@
         <v>1016</v>
       </c>
       <c r="B1017" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C1017" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1017" t="s">
         <v>49</v>
@@ -13282,10 +14254,10 @@
         <v>1017</v>
       </c>
       <c r="B1018" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C1018" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1018" t="s">
         <v>49</v>
@@ -13296,10 +14268,10 @@
         <v>1018</v>
       </c>
       <c r="B1019" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C1019" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1019" t="s">
         <v>49</v>
@@ -13310,10 +14282,10 @@
         <v>1019</v>
       </c>
       <c r="B1020" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C1020" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1020" t="s">
         <v>49</v>
@@ -13324,10 +14296,10 @@
         <v>1020</v>
       </c>
       <c r="B1021" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C1021" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1021" t="s">
         <v>49</v>
@@ -13338,10 +14310,10 @@
         <v>1021</v>
       </c>
       <c r="B1022" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C1022" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1022" t="s">
         <v>49</v>
@@ -13352,10 +14324,10 @@
         <v>1022</v>
       </c>
       <c r="B1023" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C1023" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1023" t="s">
         <v>49</v>
@@ -13366,10 +14338,10 @@
         <v>1023</v>
       </c>
       <c r="B1024" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C1024" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1024" t="s">
         <v>49</v>
@@ -13380,10 +14352,10 @@
         <v>1024</v>
       </c>
       <c r="B1025" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C1025" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1025" t="s">
         <v>49</v>
@@ -13397,10 +14369,10 @@
         <v>1025</v>
       </c>
       <c r="B1026" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C1026" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1026" t="s">
         <v>49</v>
@@ -13414,10 +14386,10 @@
         <v>1026</v>
       </c>
       <c r="B1027" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C1027" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1027" t="s">
         <v>49</v>
@@ -13431,10 +14403,10 @@
         <v>1027</v>
       </c>
       <c r="B1028" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C1028" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1028" t="s">
         <v>49</v>
@@ -13448,10 +14420,10 @@
         <v>1028</v>
       </c>
       <c r="B1029" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C1029" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1029" t="s">
         <v>49</v>
@@ -13467,13 +14439,13 @@
         <v>1030</v>
       </c>
       <c r="B1031" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C1031" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1031" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1031" t="s">
         <v>76</v>
@@ -13484,13 +14456,13 @@
         <v>1031</v>
       </c>
       <c r="B1032" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C1032" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1032" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1032" t="s">
         <v>76</v>
@@ -13501,13 +14473,13 @@
         <v>1032</v>
       </c>
       <c r="B1033" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C1033" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1033" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1033" t="s">
         <v>76</v>
@@ -13518,13 +14490,13 @@
         <v>1033</v>
       </c>
       <c r="B1034" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C1034" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1034" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1034" t="s">
         <v>76</v>
@@ -13535,13 +14507,13 @@
         <v>1034</v>
       </c>
       <c r="B1035" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C1035" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1035" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1035" t="s">
         <v>76</v>
@@ -13552,13 +14524,13 @@
         <v>1035</v>
       </c>
       <c r="B1036" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C1036" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1036" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1036" t="s">
         <v>76</v>
@@ -13569,13 +14541,13 @@
         <v>1036</v>
       </c>
       <c r="B1037" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C1037" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1037" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1037" t="s">
         <v>76</v>
@@ -13586,13 +14558,13 @@
         <v>1037</v>
       </c>
       <c r="B1038" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C1038" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1038" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1038" t="s">
         <v>76</v>
@@ -13603,13 +14575,13 @@
         <v>1038</v>
       </c>
       <c r="B1039" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1039" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1039" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1039" t="s">
         <v>76</v>
@@ -13620,13 +14592,13 @@
         <v>1039</v>
       </c>
       <c r="B1040" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C1040" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1040" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1040" t="s">
         <v>76</v>
@@ -13637,19 +14609,19 @@
         <v>1040</v>
       </c>
       <c r="B1041" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1041" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1041" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F1041" t="s">
         <v>76</v>
       </c>
       <c r="I1041" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1042" spans="1:9" x14ac:dyDescent="0.2">
@@ -13657,7 +14629,7 @@
         <v>1041</v>
       </c>
       <c r="C1042" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1043" spans="1:9" x14ac:dyDescent="0.2">
@@ -13665,7 +14637,7 @@
         <v>1042</v>
       </c>
       <c r="C1043" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.2">
@@ -13673,13 +14645,13 @@
         <v>1043</v>
       </c>
       <c r="B1044" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C1044" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1044" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F1044" t="s">
         <v>76</v>
@@ -13690,13 +14662,13 @@
         <v>1044</v>
       </c>
       <c r="B1045" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1045" t="s">
         <v>470</v>
-      </c>
-      <c r="C1045" t="s">
-        <v>435</v>
-      </c>
-      <c r="D1045" t="s">
-        <v>472</v>
       </c>
       <c r="F1045" t="s">
         <v>76</v>
@@ -13707,13 +14679,13 @@
         <v>1045</v>
       </c>
       <c r="B1046" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C1046" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D1046" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F1046" t="s">
         <v>76</v>
@@ -13929,84 +14901,108 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1089">
         <v>1088</v>
       </c>
     </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1090">
         <v>1089</v>
       </c>
     </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1091">
         <v>1090</v>
       </c>
     </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1092">
         <v>1091</v>
       </c>
     </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1093">
         <v>1092</v>
       </c>
     </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1094">
         <v>1093</v>
       </c>
     </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1095">
         <v>1094</v>
       </c>
     </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1096">
         <v>1095</v>
       </c>
     </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1097">
         <v>1096</v>
       </c>
     </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1098">
         <v>1097</v>
       </c>
     </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1099">
         <v>1098</v>
       </c>
     </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1100">
         <v>1099</v>
       </c>
     </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1101">
         <v>1100</v>
       </c>
     </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1102">
         <v>1101</v>
       </c>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1102" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1102" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1103">
         <v>1102</v>
       </c>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1103" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1103" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1104">
         <v>1103</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
@@ -15544,6 +16540,15 @@
     <hyperlink ref="I723" r:id="rId45"/>
     <hyperlink ref="I725" r:id="rId46"/>
     <hyperlink ref="I70" r:id="rId47"/>
+    <hyperlink ref="I802" r:id="rId48"/>
+    <hyperlink ref="I1102" r:id="rId49"/>
+    <hyperlink ref="I1103" r:id="rId50"/>
+    <hyperlink ref="I586" r:id="rId51"/>
+    <hyperlink ref="I589" r:id="rId52"/>
+    <hyperlink ref="I408" r:id="rId53"/>
+    <hyperlink ref="I409" r:id="rId54"/>
+    <hyperlink ref="I554" r:id="rId55"/>
+    <hyperlink ref="I559" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15571,28 +16576,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" t="s">
         <v>580</v>
       </c>
-      <c r="B1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D1" t="s">
-        <v>588</v>
-      </c>
-      <c r="E1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" t="s">
-        <v>582</v>
-      </c>
       <c r="G1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I1" t="s">
         <v>23</v>
@@ -15603,20 +16608,20 @@
         <v>116</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H2" s="4"/>
     </row>
@@ -15625,22 +16630,22 @@
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -15649,22 +16654,22 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>599</v>
-      </c>
       <c r="F4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -15673,19 +16678,19 @@
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>606</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
@@ -15693,10 +16698,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.2">
@@ -15704,19 +16709,19 @@
         <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C7" t="s">
+        <v>602</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C7" t="s">
-        <v>604</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>607</v>
-      </c>
       <c r="G7" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="191" customHeight="1" x14ac:dyDescent="0.2">
@@ -15724,13 +16729,13 @@
         <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -15747,29 +16752,29 @@
     </row>
     <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -15784,7 +16789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -15803,19 +16808,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="192" x14ac:dyDescent="0.2">
@@ -15823,50 +16828,50 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -15876,14 +16881,159 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A29"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/java_all.xlsx
+++ b/java_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="700" windowWidth="20920" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="3680" yWindow="1520" windowWidth="20920" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="712">
   <si>
     <t>Sorting</t>
   </si>
@@ -2296,12 +2296,18 @@
   <si>
     <t>Count all Palindrome substring in given string</t>
   </si>
+  <si>
+    <t>Print all Pythagorean Prime between a to b</t>
+  </si>
+  <si>
+    <t>Check if a number is Pythagorean Prime (Prime number and divisible by 4n+1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2316,11 +2322,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2399,30 +2400,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2704,13 +2698,13 @@
   <dimension ref="A1:J1401"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D415" sqref="D415"/>
+      <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B928" sqref="B928"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="101.1640625" customWidth="1"/>
+    <col min="2" max="2" width="109.6640625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="31.1640625" customWidth="1"/>
@@ -2770,7 +2764,7 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
       <c r="J2" t="s">
@@ -3151,7 +3145,7 @@
       <c r="F23" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3188,7 +3182,7 @@
       <c r="F25" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3211,7 +3205,7 @@
       <c r="F26" t="s">
         <v>76</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3442,15 +3436,6 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -3570,15 +3555,6 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -3601,43 +3577,16 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -3657,15 +3606,6 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -3733,86 +3673,32 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" t="s">
-        <v>62</v>
-      </c>
-      <c r="F66" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" t="s">
-        <v>62</v>
-      </c>
-      <c r="F67" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F68" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" t="s">
-        <v>62</v>
-      </c>
-      <c r="F69" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>511</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-      <c r="F70" t="s">
-        <v>76</v>
-      </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" t="s">
         <v>512</v>
       </c>
     </row>
@@ -3857,7 +3743,7 @@
       <c r="F73" t="s">
         <v>76</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4106,35 +3992,11 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" t="s">
-        <v>62</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92" t="s">
-        <v>62</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -4320,7 +4182,7 @@
       <c r="F102" t="s">
         <v>76</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I102" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4340,7 +4202,7 @@
       <c r="F103" t="s">
         <v>76</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="I103" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4523,7 +4385,7 @@
       <c r="F112" t="s">
         <v>76</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="I112" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4546,7 +4408,7 @@
       <c r="F113" t="s">
         <v>76</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I113" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4574,52 +4436,16 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
-        <v>123</v>
-      </c>
-      <c r="C115" t="s">
-        <v>62</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
-        <v>124</v>
-      </c>
-      <c r="C116" t="s">
-        <v>62</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>125</v>
-      </c>
-      <c r="C117" t="s">
-        <v>62</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
@@ -4645,38 +4471,11 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
-        <v>133</v>
-      </c>
-      <c r="C119" t="s">
-        <v>62</v>
-      </c>
-      <c r="D119" t="s">
-        <v>116</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
-        <v>134</v>
-      </c>
-      <c r="C120" t="s">
-        <v>62</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
@@ -5327,7 +5126,7 @@
       <c r="F154" t="s">
         <v>76</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="I154" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5350,7 +5149,7 @@
       <c r="F155" t="s">
         <v>76</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="I155" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5373,7 +5172,7 @@
       <c r="F156" t="s">
         <v>76</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="I156" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5396,7 +5195,7 @@
       <c r="F157" t="s">
         <v>76</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="I157" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5419,7 +5218,7 @@
       <c r="F158" t="s">
         <v>76</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="I158" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5456,7 +5255,7 @@
       <c r="F160" t="s">
         <v>76</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="I160" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5479,7 +5278,7 @@
       <c r="F161" t="s">
         <v>76</v>
       </c>
-      <c r="I161" s="1" t="s">
+      <c r="I161" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5508,7 +5307,7 @@
       <c r="H162" t="s">
         <v>271</v>
       </c>
-      <c r="I162" s="1" t="s">
+      <c r="I162" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5531,30 +5330,11 @@
       <c r="F163" t="s">
         <v>76</v>
       </c>
-      <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
-        <v>431</v>
-      </c>
-      <c r="C164" t="s">
-        <v>62</v>
-      </c>
-      <c r="D164" t="s">
-        <v>116</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-      <c r="F164" t="s">
-        <v>76</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>261</v>
-      </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
@@ -5618,41 +5398,11 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>175</v>
-      </c>
-      <c r="C170" t="s">
-        <v>62</v>
-      </c>
-      <c r="E170">
-        <v>2</v>
-      </c>
-      <c r="F170" t="s">
-        <v>76</v>
-      </c>
-      <c r="G170" t="s">
-        <v>273</v>
-      </c>
-      <c r="H170" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
-        <v>272</v>
-      </c>
-      <c r="C171" t="s">
-        <v>62</v>
-      </c>
-      <c r="E171">
-        <v>2</v>
-      </c>
-      <c r="F171" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
@@ -5667,7 +5417,7 @@
       <c r="F172" t="s">
         <v>76</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="I172" t="s">
         <v>328</v>
       </c>
     </row>
@@ -5684,11 +5434,11 @@
       <c r="F173" t="s">
         <v>76</v>
       </c>
-      <c r="I173" s="1" t="s">
+      <c r="I173" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5701,7 +5451,7 @@
       <c r="F174" t="s">
         <v>76</v>
       </c>
-      <c r="I174" s="3" t="s">
+      <c r="I174" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5764,7 +5514,7 @@
       <c r="F180" t="s">
         <v>76</v>
       </c>
-      <c r="I180" s="1" t="s">
+      <c r="I180" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5787,7 +5537,7 @@
       <c r="F181" t="s">
         <v>76</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="I181" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5858,7 +5608,7 @@
       <c r="F185" t="s">
         <v>76</v>
       </c>
-      <c r="I185" s="1" t="s">
+      <c r="I185" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5877,7 +5627,7 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" t="s">
         <v>283</v>
       </c>
       <c r="C187" t="s">
@@ -5912,7 +5662,7 @@
       <c r="F188" t="s">
         <v>76</v>
       </c>
-      <c r="I188" s="1" t="s">
+      <c r="I188" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6912,21 +6662,6 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
-        <v>517</v>
-      </c>
-      <c r="C241" t="s">
-        <v>62</v>
-      </c>
-      <c r="D241" t="s">
-        <v>116</v>
-      </c>
-      <c r="E241">
-        <v>2</v>
-      </c>
-      <c r="F241" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
@@ -6940,29 +6675,11 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
-        <v>489</v>
-      </c>
-      <c r="C243" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
-        <v>330</v>
-      </c>
-      <c r="C244" t="s">
-        <v>62</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
@@ -7034,11 +6751,11 @@
       <c r="E248">
         <v>3</v>
       </c>
-      <c r="I248" s="1" t="s">
+      <c r="I248" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7057,7 +6774,7 @@
       <c r="F249" t="s">
         <v>76</v>
       </c>
-      <c r="I249" s="3" t="s">
+      <c r="I249" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7065,7 +6782,7 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" t="s">
         <v>303</v>
       </c>
       <c r="C250" t="s">
@@ -7080,7 +6797,7 @@
       <c r="F250" t="s">
         <v>76</v>
       </c>
-      <c r="I250" s="1" t="s">
+      <c r="I250" t="s">
         <v>304</v>
       </c>
     </row>
@@ -7100,7 +6817,7 @@
       <c r="F251" t="s">
         <v>76</v>
       </c>
-      <c r="I251" s="1" t="s">
+      <c r="I251" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7285,7 +7002,7 @@
       <c r="F261" t="s">
         <v>76</v>
       </c>
-      <c r="I261" s="1" t="s">
+      <c r="I261" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7308,7 +7025,7 @@
       <c r="F262" t="s">
         <v>76</v>
       </c>
-      <c r="I262" s="1" t="s">
+      <c r="I262" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7331,7 +7048,7 @@
       <c r="F263" t="s">
         <v>76</v>
       </c>
-      <c r="I263" s="1" t="s">
+      <c r="I263" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7374,7 +7091,7 @@
       <c r="F265" t="s">
         <v>76</v>
       </c>
-      <c r="I265" s="1" t="s">
+      <c r="I265" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7397,15 +7114,15 @@
       <c r="F266" t="s">
         <v>76</v>
       </c>
-      <c r="I266" s="1" t="s">
+      <c r="I266" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" t="s">
         <v>564</v>
       </c>
       <c r="C267" t="s">
@@ -8006,7 +7723,7 @@
       <c r="F305" t="s">
         <v>76</v>
       </c>
-      <c r="I305" s="1" t="s">
+      <c r="I305" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8029,7 +7746,7 @@
       <c r="F306" t="s">
         <v>76</v>
       </c>
-      <c r="I306" s="1" t="s">
+      <c r="I306" t="s">
         <v>411</v>
       </c>
     </row>
@@ -8052,7 +7769,7 @@
       <c r="F307" t="s">
         <v>76</v>
       </c>
-      <c r="I307" s="1" t="s">
+      <c r="I307" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9952,7 +9669,7 @@
       <c r="F408" t="s">
         <v>76</v>
       </c>
-      <c r="I408" s="1" t="s">
+      <c r="I408" t="s">
         <v>673</v>
       </c>
     </row>
@@ -9975,7 +9692,7 @@
       <c r="F409" t="s">
         <v>76</v>
       </c>
-      <c r="I409" s="1" t="s">
+      <c r="I409" t="s">
         <v>674</v>
       </c>
     </row>
@@ -10973,7 +10690,7 @@
       <c r="F554" t="s">
         <v>76</v>
       </c>
-      <c r="I554" s="1" t="s">
+      <c r="I554" t="s">
         <v>676</v>
       </c>
     </row>
@@ -11076,7 +10793,7 @@
       <c r="F559" t="s">
         <v>76</v>
       </c>
-      <c r="I559" s="1" t="s">
+      <c r="I559" t="s">
         <v>682</v>
       </c>
     </row>
@@ -11285,11 +11002,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>585</v>
       </c>
-      <c r="B586" s="4" t="s">
+      <c r="B586" t="s">
         <v>659</v>
       </c>
       <c r="C586" t="s">
@@ -11304,7 +11021,7 @@
       <c r="F586" t="s">
         <v>76</v>
       </c>
-      <c r="I586" s="1" t="s">
+      <c r="I586" t="s">
         <v>660</v>
       </c>
     </row>
@@ -11367,7 +11084,7 @@
       <c r="F589" t="s">
         <v>76</v>
       </c>
-      <c r="I589" s="1" t="s">
+      <c r="I589" t="s">
         <v>666</v>
       </c>
     </row>
@@ -11515,7 +11232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>601</v>
       </c>
@@ -11534,7 +11251,7 @@
       <c r="F602" t="s">
         <v>76</v>
       </c>
-      <c r="I602" s="3" t="s">
+      <c r="I602" t="s">
         <v>482</v>
       </c>
     </row>
@@ -12212,7 +11929,7 @@
       <c r="F710" t="s">
         <v>76</v>
       </c>
-      <c r="I710" s="1" t="s">
+      <c r="I710" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12415,15 +12132,15 @@
       <c r="F720" t="s">
         <v>76</v>
       </c>
-      <c r="I720" s="1" t="s">
+      <c r="I720" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="721" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>720</v>
       </c>
-      <c r="B721" s="4" t="s">
+      <c r="B721" t="s">
         <v>502</v>
       </c>
       <c r="C721" t="s">
@@ -12438,7 +12155,7 @@
       <c r="F721" t="s">
         <v>76</v>
       </c>
-      <c r="I721" s="1" t="s">
+      <c r="I721" t="s">
         <v>503</v>
       </c>
     </row>
@@ -12461,7 +12178,7 @@
       <c r="F722" t="s">
         <v>76</v>
       </c>
-      <c r="I722" s="1" t="s">
+      <c r="I722" t="s">
         <v>505</v>
       </c>
     </row>
@@ -12484,7 +12201,7 @@
       <c r="F723" t="s">
         <v>76</v>
       </c>
-      <c r="I723" s="1" t="s">
+      <c r="I723" t="s">
         <v>506</v>
       </c>
     </row>
@@ -12527,7 +12244,7 @@
       <c r="F725" t="s">
         <v>76</v>
       </c>
-      <c r="I725" s="1" t="s">
+      <c r="I725" t="s">
         <v>510</v>
       </c>
     </row>
@@ -12535,7 +12252,7 @@
       <c r="A726">
         <v>725</v>
       </c>
-      <c r="B726" s="4" t="s">
+      <c r="B726" s="2" t="s">
         <v>519</v>
       </c>
       <c r="C726" t="s">
@@ -12551,40 +12268,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="727" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>726</v>
       </c>
-      <c r="B727" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="C727" t="s">
-        <v>62</v>
-      </c>
-      <c r="E727">
-        <v>3</v>
-      </c>
-      <c r="F727" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="728" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>727</v>
       </c>
-      <c r="B728" s="5"/>
-    </row>
-    <row r="729" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>728</v>
       </c>
-      <c r="B729" s="5"/>
-    </row>
-    <row r="730" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>729</v>
       </c>
-      <c r="B730" s="5"/>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A731">
@@ -12954,7 +12656,7 @@
       <c r="F802" t="s">
         <v>76</v>
       </c>
-      <c r="I802" s="1" t="s">
+      <c r="I802" t="s">
         <v>650</v>
       </c>
     </row>
@@ -13455,242 +13157,554 @@
         <v>895</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>896</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>897</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>898</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>899</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>900</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>901</v>
       </c>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B902" t="s">
+        <v>520</v>
+      </c>
+      <c r="C902" t="s">
+        <v>62</v>
+      </c>
+      <c r="E902">
+        <v>3</v>
+      </c>
+      <c r="F902" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>902</v>
       </c>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B903" t="s">
+        <v>711</v>
+      </c>
+      <c r="C903" t="s">
+        <v>62</v>
+      </c>
+      <c r="E903">
+        <v>2</v>
+      </c>
+      <c r="F903" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>903</v>
       </c>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B904" t="s">
+        <v>710</v>
+      </c>
+      <c r="C904" t="s">
+        <v>62</v>
+      </c>
+      <c r="E904">
+        <v>2</v>
+      </c>
+      <c r="F904" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>904</v>
       </c>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B905" t="s">
+        <v>517</v>
+      </c>
+      <c r="C905" t="s">
+        <v>62</v>
+      </c>
+      <c r="D905" t="s">
+        <v>116</v>
+      </c>
+      <c r="E905">
+        <v>2</v>
+      </c>
+      <c r="F905" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>905</v>
       </c>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B906" t="s">
+        <v>58</v>
+      </c>
+      <c r="C906" t="s">
+        <v>62</v>
+      </c>
+      <c r="F906" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>906</v>
       </c>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B907" t="s">
+        <v>109</v>
+      </c>
+      <c r="C907" t="s">
+        <v>62</v>
+      </c>
+      <c r="F907" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>907</v>
       </c>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B908" t="s">
+        <v>59</v>
+      </c>
+      <c r="C908" t="s">
+        <v>62</v>
+      </c>
+      <c r="F908" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>908</v>
       </c>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B909" t="s">
+        <v>60</v>
+      </c>
+      <c r="C909" t="s">
+        <v>62</v>
+      </c>
+      <c r="F909" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>909</v>
       </c>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B910" t="s">
+        <v>61</v>
+      </c>
+      <c r="C910" t="s">
+        <v>62</v>
+      </c>
+      <c r="F910" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>910</v>
       </c>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B911" t="s">
+        <v>64</v>
+      </c>
+      <c r="C911" t="s">
+        <v>62</v>
+      </c>
+      <c r="F911" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>911</v>
       </c>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B912" t="s">
+        <v>69</v>
+      </c>
+      <c r="C912" t="s">
+        <v>62</v>
+      </c>
+      <c r="F912" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>912</v>
       </c>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B913" t="s">
+        <v>70</v>
+      </c>
+      <c r="C913" t="s">
+        <v>62</v>
+      </c>
+      <c r="F913" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>913</v>
       </c>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B914" t="s">
+        <v>73</v>
+      </c>
+      <c r="C914" t="s">
+        <v>62</v>
+      </c>
+      <c r="F914" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>914</v>
       </c>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B915" t="s">
+        <v>74</v>
+      </c>
+      <c r="C915" t="s">
+        <v>62</v>
+      </c>
+      <c r="F915" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>915</v>
       </c>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B916" t="s">
+        <v>77</v>
+      </c>
+      <c r="C916" t="s">
+        <v>62</v>
+      </c>
+      <c r="F916" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>916</v>
       </c>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B917" t="s">
+        <v>511</v>
+      </c>
+      <c r="C917" t="s">
+        <v>62</v>
+      </c>
+      <c r="F917" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>917</v>
       </c>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B918" t="s">
+        <v>99</v>
+      </c>
+      <c r="C918" t="s">
+        <v>62</v>
+      </c>
+      <c r="E918">
+        <v>1</v>
+      </c>
+      <c r="F918" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>918</v>
       </c>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B919" t="s">
+        <v>100</v>
+      </c>
+      <c r="C919" t="s">
+        <v>62</v>
+      </c>
+      <c r="E919">
+        <v>1</v>
+      </c>
+      <c r="F919" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>919</v>
       </c>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B920" t="s">
+        <v>123</v>
+      </c>
+      <c r="C920" t="s">
+        <v>62</v>
+      </c>
+      <c r="E920">
+        <v>1</v>
+      </c>
+      <c r="F920" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>920</v>
       </c>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B921" t="s">
+        <v>124</v>
+      </c>
+      <c r="C921" t="s">
+        <v>62</v>
+      </c>
+      <c r="E921">
+        <v>1</v>
+      </c>
+      <c r="F921" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>921</v>
       </c>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B922" t="s">
+        <v>125</v>
+      </c>
+      <c r="C922" t="s">
+        <v>62</v>
+      </c>
+      <c r="E922">
+        <v>1</v>
+      </c>
+      <c r="F922" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>922</v>
       </c>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B923" t="s">
+        <v>175</v>
+      </c>
+      <c r="C923" t="s">
+        <v>62</v>
+      </c>
+      <c r="E923">
+        <v>2</v>
+      </c>
+      <c r="F923" t="s">
+        <v>76</v>
+      </c>
+      <c r="G923" t="s">
+        <v>273</v>
+      </c>
+      <c r="H923" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>923</v>
       </c>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B924" t="s">
+        <v>272</v>
+      </c>
+      <c r="C924" t="s">
+        <v>62</v>
+      </c>
+      <c r="E924">
+        <v>2</v>
+      </c>
+      <c r="F924" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>924</v>
       </c>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B925" t="s">
+        <v>431</v>
+      </c>
+      <c r="C925" t="s">
+        <v>62</v>
+      </c>
+      <c r="D925" t="s">
+        <v>116</v>
+      </c>
+      <c r="E925">
+        <v>1</v>
+      </c>
+      <c r="F925" t="s">
+        <v>76</v>
+      </c>
+      <c r="I925" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>925</v>
       </c>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B926" t="s">
+        <v>489</v>
+      </c>
+      <c r="C926" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>926</v>
       </c>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B927" t="s">
+        <v>330</v>
+      </c>
+      <c r="C927" t="s">
+        <v>62</v>
+      </c>
+      <c r="E927">
+        <v>1</v>
+      </c>
+      <c r="F927" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>927</v>
       </c>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B928" t="s">
+        <v>133</v>
+      </c>
+      <c r="C928" t="s">
+        <v>62</v>
+      </c>
+      <c r="D928" t="s">
+        <v>116</v>
+      </c>
+      <c r="E928">
+        <v>1</v>
+      </c>
+      <c r="F928" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>928</v>
       </c>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B929" t="s">
+        <v>134</v>
+      </c>
+      <c r="C929" t="s">
+        <v>62</v>
+      </c>
+      <c r="E929">
+        <v>1</v>
+      </c>
+      <c r="F929" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>929</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>930</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>931</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>932</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>933</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>934</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>935</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>936</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>937</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>938</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>939</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>940</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>941</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>942</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>943</v>
       </c>
@@ -14231,7 +14245,7 @@
       <c r="D1016" t="s">
         <v>49</v>
       </c>
-      <c r="I1016" s="1" t="s">
+      <c r="I1016" t="s">
         <v>477</v>
       </c>
     </row>
@@ -14620,7 +14634,7 @@
       <c r="F1041" t="s">
         <v>76</v>
       </c>
-      <c r="I1041" s="1" t="s">
+      <c r="I1041" t="s">
         <v>466</v>
       </c>
     </row>
@@ -14976,7 +14990,7 @@
       <c r="C1102" t="s">
         <v>219</v>
       </c>
-      <c r="I1102" s="1" t="s">
+      <c r="I1102" t="s">
         <v>655</v>
       </c>
     </row>
@@ -14990,7 +15004,7 @@
       <c r="C1103" t="s">
         <v>219</v>
       </c>
-      <c r="I1103" s="1" t="s">
+      <c r="I1103" t="s">
         <v>657</v>
       </c>
     </row>
@@ -16507,7 +16521,7 @@
     <hyperlink ref="I157" r:id="rId12"/>
     <hyperlink ref="I156" r:id="rId13"/>
     <hyperlink ref="I158" r:id="rId14"/>
-    <hyperlink ref="I164" r:id="rId15"/>
+    <hyperlink ref="I925" r:id="rId15"/>
     <hyperlink ref="I251" r:id="rId16"/>
     <hyperlink ref="I181" r:id="rId17"/>
     <hyperlink ref="I180" r:id="rId18"/>
@@ -16607,86 +16621,86 @@
       <c r="A2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>577</v>
       </c>
       <c r="C2" t="s">
         <v>575</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>575</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>598</v>
       </c>
       <c r="F3" t="s">
         <v>579</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>597</v>
       </c>
       <c r="F4" t="s">
         <v>579</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="229" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>599</v>
       </c>
       <c r="C5" t="s">
         <v>602</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>610</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -16700,7 +16714,7 @@
       <c r="C6" t="s">
         <v>602</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>610</v>
       </c>
     </row>
@@ -16708,19 +16722,19 @@
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>603</v>
       </c>
       <c r="C7" t="s">
         <v>602</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>610</v>
       </c>
     </row>
@@ -16728,7 +16742,7 @@
       <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>601</v>
       </c>
       <c r="C8" t="s">
@@ -16737,13 +16751,13 @@
       <c r="E8" t="s">
         <v>583</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -16754,7 +16768,7 @@
       <c r="A11" t="s">
         <v>232</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>589</v>
       </c>
       <c r="C11" t="s">
@@ -16768,7 +16782,7 @@
       <c r="A12" t="s">
         <v>611</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>612</v>
       </c>
     </row>
@@ -16795,82 +16809,82 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="51.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="192" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>629</v>
       </c>
     </row>
@@ -16894,142 +16908,142 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>37</v>
       </c>
     </row>
